--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Netology\Qa-Diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB8B6F6-193C-4437-831A-84F3FE256A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB342DC9-07D4-4013-BDEA-A4F73E15AE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -244,24 +244,6 @@
   </si>
   <si>
     <t>4. Появляется список новостей с выбранной категорией</t>
-  </si>
-  <si>
-    <t>Добавление новой новости с некорректным временем</t>
-  </si>
-  <si>
-    <t>6. В поле "Время" набрать с помощью клавиатуры некорректное время новости 25 00 и нажать ок</t>
-  </si>
-  <si>
-    <t>6. Некорректное время не вводится в поле, возникает предупреждение, что необходимо ввести корректные данные</t>
-  </si>
-  <si>
-    <t>Добавление новой новости с некорректой датой из прошлого</t>
-  </si>
-  <si>
-    <t>5. В поле "Дата" выбрать некорректное значение из прошлого</t>
-  </si>
-  <si>
-    <t>5. Некорректная дата не вводится в поле, возникает предупреждение, что необходимо ввести корректные данные</t>
   </si>
   <si>
     <t>Просмотр цитаты в развернутом виде</t>
@@ -639,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -690,15 +672,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1095,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72:B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1122,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
@@ -1140,24 +1113,24 @@
         <v>6</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>96</v>
+      <c r="E2" s="29" t="s">
+        <v>90</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>10</v>
@@ -1166,16 +1139,16 @@
         <v>11</v>
       </c>
       <c r="H2" s="11"/>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="12" t="s">
         <v>13</v>
       </c>
@@ -1183,14 +1156,14 @@
         <v>14</v>
       </c>
       <c r="H3" s="13"/>
-      <c r="I3" s="33"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="12" t="s">
         <v>15</v>
       </c>
@@ -1198,14 +1171,14 @@
         <v>16</v>
       </c>
       <c r="H4" s="13"/>
-      <c r="I4" s="33"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="14" t="s">
         <v>17</v>
       </c>
@@ -1213,23 +1186,23 @@
         <v>18</v>
       </c>
       <c r="H5" s="15"/>
-      <c r="I5" s="33"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34">
+      <c r="A6" s="31">
         <v>2</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="32" t="s">
+      <c r="B6" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="32" t="s">
-        <v>96</v>
+      <c r="E6" s="29" t="s">
+        <v>90</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>10</v>
@@ -1238,16 +1211,16 @@
         <v>11</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="12" t="s">
         <v>13</v>
       </c>
@@ -1255,14 +1228,14 @@
         <v>14</v>
       </c>
       <c r="H7" s="13"/>
-      <c r="I7" s="33"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="12" t="s">
         <v>15</v>
       </c>
@@ -1270,14 +1243,14 @@
         <v>16</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="33"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="12" t="s">
         <v>17</v>
       </c>
@@ -1285,14 +1258,14 @@
         <v>18</v>
       </c>
       <c r="H9" s="13"/>
-      <c r="I9" s="33"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="12" t="s">
         <v>20</v>
       </c>
@@ -1300,14 +1273,14 @@
         <v>21</v>
       </c>
       <c r="H10" s="13"/>
-      <c r="I10" s="33"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="14" t="s">
         <v>22</v>
       </c>
@@ -1315,23 +1288,23 @@
         <v>23</v>
       </c>
       <c r="H11" s="15"/>
-      <c r="I11" s="33"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34">
+      <c r="A12" s="31">
         <v>3</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="32" t="s">
-        <v>96</v>
+      <c r="E12" s="29" t="s">
+        <v>90</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>10</v>
@@ -1340,31 +1313,31 @@
         <v>11</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="32"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H13" s="13"/>
-      <c r="I13" s="33"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="32"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="12" t="s">
         <v>27</v>
       </c>
@@ -1372,14 +1345,14 @@
         <v>28</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="33"/>
+      <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="32"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="14" t="s">
         <v>17</v>
       </c>
@@ -1387,23 +1360,23 @@
         <v>29</v>
       </c>
       <c r="H15" s="15"/>
-      <c r="I15" s="33"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34">
+      <c r="A16" s="31">
         <v>4</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="32" t="s">
-        <v>96</v>
+      <c r="E16" s="29" t="s">
+        <v>90</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>10</v>
@@ -1412,16 +1385,16 @@
         <v>11</v>
       </c>
       <c r="H16" s="11"/>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="32"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="12" t="s">
         <v>31</v>
       </c>
@@ -1429,14 +1402,14 @@
         <v>14</v>
       </c>
       <c r="H17" s="13"/>
-      <c r="I17" s="33"/>
+      <c r="I17" s="30"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="32"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="12" t="s">
         <v>15</v>
       </c>
@@ -1444,14 +1417,14 @@
         <v>16</v>
       </c>
       <c r="H18" s="13"/>
-      <c r="I18" s="33"/>
+      <c r="I18" s="30"/>
     </row>
     <row r="19" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="32"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="29"/>
       <c r="F19" s="14" t="s">
         <v>17</v>
       </c>
@@ -1459,23 +1432,23 @@
         <v>32</v>
       </c>
       <c r="H19" s="15"/>
-      <c r="I19" s="33"/>
+      <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34">
+      <c r="A20" s="31">
         <v>5</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="32" t="s">
-        <v>96</v>
+      <c r="E20" s="29" t="s">
+        <v>90</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>10</v>
@@ -1484,16 +1457,16 @@
         <v>11</v>
       </c>
       <c r="H20" s="11"/>
-      <c r="I20" s="33" t="s">
+      <c r="I20" s="30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="32"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="29"/>
       <c r="F21" s="12" t="s">
         <v>13</v>
       </c>
@@ -1501,14 +1474,14 @@
         <v>14</v>
       </c>
       <c r="H21" s="13"/>
-      <c r="I21" s="33"/>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="32"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="29"/>
       <c r="F22" s="12" t="s">
         <v>34</v>
       </c>
@@ -1516,14 +1489,14 @@
         <v>16</v>
       </c>
       <c r="H22" s="13"/>
-      <c r="I22" s="33"/>
+      <c r="I22" s="30"/>
     </row>
     <row r="23" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="32"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="14" t="s">
         <v>17</v>
       </c>
@@ -1531,23 +1504,23 @@
         <v>32</v>
       </c>
       <c r="H23" s="15"/>
-      <c r="I23" s="33"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="34">
+      <c r="A24" s="31">
         <v>6</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="32" t="s">
-        <v>96</v>
+      <c r="E24" s="29" t="s">
+        <v>90</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>10</v>
@@ -1556,16 +1529,16 @@
         <v>11</v>
       </c>
       <c r="H24" s="11"/>
-      <c r="I24" s="33" t="s">
+      <c r="I24" s="30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
       <c r="F25" s="12" t="s">
         <v>38</v>
       </c>
@@ -1573,14 +1546,14 @@
         <v>14</v>
       </c>
       <c r="H25" s="13"/>
-      <c r="I25" s="33"/>
+      <c r="I25" s="30"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="12" t="s">
         <v>15</v>
       </c>
@@ -1588,14 +1561,14 @@
         <v>16</v>
       </c>
       <c r="H26" s="13"/>
-      <c r="I26" s="33"/>
+      <c r="I26" s="30"/>
     </row>
     <row r="27" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
       <c r="F27" s="14" t="s">
         <v>17</v>
       </c>
@@ -1603,23 +1576,23 @@
         <v>39</v>
       </c>
       <c r="H27" s="15"/>
-      <c r="I27" s="33"/>
+      <c r="I27" s="30"/>
     </row>
     <row r="28" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="34">
+      <c r="A28" s="31">
         <v>7</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="32" t="s">
-        <v>96</v>
+      <c r="E28" s="29" t="s">
+        <v>90</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>10</v>
@@ -1628,16 +1601,16 @@
         <v>11</v>
       </c>
       <c r="H28" s="11"/>
-      <c r="I28" s="33" t="s">
+      <c r="I28" s="30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
       <c r="F29" s="12" t="s">
         <v>41</v>
       </c>
@@ -1645,14 +1618,14 @@
         <v>14</v>
       </c>
       <c r="H29" s="13"/>
-      <c r="I29" s="33"/>
+      <c r="I29" s="30"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
       <c r="F30" s="12" t="s">
         <v>15</v>
       </c>
@@ -1660,14 +1633,14 @@
         <v>16</v>
       </c>
       <c r="H30" s="13"/>
-      <c r="I30" s="33"/>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
       <c r="F31" s="14" t="s">
         <v>17</v>
       </c>
@@ -1675,23 +1648,23 @@
         <v>39</v>
       </c>
       <c r="H31" s="15"/>
-      <c r="I31" s="33"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="34">
+      <c r="A32" s="31">
         <v>8</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="32" t="s">
-        <v>96</v>
+      <c r="E32" s="29" t="s">
+        <v>90</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>10</v>
@@ -1700,16 +1673,16 @@
         <v>11</v>
       </c>
       <c r="H32" s="11"/>
-      <c r="I32" s="33" t="s">
+      <c r="I32" s="30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
       <c r="F33" s="12" t="s">
         <v>13</v>
       </c>
@@ -1717,14 +1690,14 @@
         <v>14</v>
       </c>
       <c r="H33" s="13"/>
-      <c r="I33" s="33"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="34"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
       <c r="F34" s="12" t="s">
         <v>43</v>
       </c>
@@ -1732,14 +1705,14 @@
         <v>16</v>
       </c>
       <c r="H34" s="13"/>
-      <c r="I34" s="33"/>
+      <c r="I34" s="30"/>
     </row>
     <row r="35" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="34"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
       <c r="F35" s="14" t="s">
         <v>17</v>
       </c>
@@ -1747,23 +1720,23 @@
         <v>39</v>
       </c>
       <c r="H35" s="15"/>
-      <c r="I35" s="33"/>
+      <c r="I35" s="30"/>
     </row>
     <row r="36" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="34">
+      <c r="A36" s="31">
         <v>9</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="32" t="s">
-        <v>96</v>
+      <c r="E36" s="29" t="s">
+        <v>90</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>10</v>
@@ -1772,16 +1745,16 @@
         <v>11</v>
       </c>
       <c r="H36" s="11"/>
-      <c r="I36" s="33" t="s">
+      <c r="I36" s="30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="34"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
       <c r="F37" s="12" t="s">
         <v>13</v>
       </c>
@@ -1789,14 +1762,14 @@
         <v>14</v>
       </c>
       <c r="H37" s="13"/>
-      <c r="I37" s="33"/>
+      <c r="I37" s="30"/>
     </row>
     <row r="38" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="34"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
       <c r="F38" s="12" t="s">
         <v>45</v>
       </c>
@@ -1804,14 +1777,14 @@
         <v>16</v>
       </c>
       <c r="H38" s="13"/>
-      <c r="I38" s="33"/>
+      <c r="I38" s="30"/>
     </row>
     <row r="39" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="34"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
       <c r="F39" s="14" t="s">
         <v>17</v>
       </c>
@@ -1819,23 +1792,23 @@
         <v>39</v>
       </c>
       <c r="H39" s="15"/>
-      <c r="I39" s="33"/>
-    </row>
-    <row r="40" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="34">
+      <c r="I39" s="30"/>
+    </row>
+    <row r="40" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="31">
         <v>10</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="32" t="s">
-        <v>97</v>
+      <c r="E40" s="29" t="s">
+        <v>91</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>48</v>
@@ -1844,16 +1817,16 @@
         <v>49</v>
       </c>
       <c r="H40" s="11"/>
-      <c r="I40" s="33" t="s">
+      <c r="I40" s="30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="34"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
       <c r="F41" s="12" t="s">
         <v>50</v>
       </c>
@@ -1861,14 +1834,14 @@
         <v>51</v>
       </c>
       <c r="H41" s="13"/>
-      <c r="I41" s="33"/>
+      <c r="I41" s="30"/>
     </row>
     <row r="42" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="34"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
       <c r="F42" s="12" t="s">
         <v>52</v>
       </c>
@@ -1876,14 +1849,14 @@
         <v>53</v>
       </c>
       <c r="H42" s="13"/>
-      <c r="I42" s="33"/>
+      <c r="I42" s="30"/>
     </row>
     <row r="43" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="34"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
       <c r="F43" s="12" t="s">
         <v>54</v>
       </c>
@@ -1891,14 +1864,14 @@
         <v>55</v>
       </c>
       <c r="H43" s="13"/>
-      <c r="I43" s="33"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="34"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
       <c r="F44" s="12" t="s">
         <v>56</v>
       </c>
@@ -1906,29 +1879,29 @@
         <v>57</v>
       </c>
       <c r="H44" s="13"/>
-      <c r="I44" s="33"/>
+      <c r="I44" s="30"/>
     </row>
     <row r="45" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="34"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
       <c r="F45" s="12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G45" s="12" t="s">
         <v>58</v>
       </c>
       <c r="H45" s="13"/>
-      <c r="I45" s="33"/>
+      <c r="I45" s="30"/>
     </row>
     <row r="46" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="34"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
+      <c r="A46" s="31"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
       <c r="F46" s="12" t="s">
         <v>59</v>
       </c>
@@ -1936,14 +1909,14 @@
         <v>60</v>
       </c>
       <c r="H46" s="13"/>
-      <c r="I46" s="33"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="34"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
       <c r="F47" s="14" t="s">
         <v>61</v>
       </c>
@@ -1951,23 +1924,23 @@
         <v>62</v>
       </c>
       <c r="H47" s="15"/>
-      <c r="I47" s="33"/>
-    </row>
-    <row r="48" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="34">
+      <c r="I47" s="30"/>
+    </row>
+    <row r="48" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="31">
         <v>11</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="32" t="s">
+      <c r="D48" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="32" t="s">
-        <v>97</v>
+      <c r="E48" s="29" t="s">
+        <v>91</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>64</v>
@@ -1976,18 +1949,18 @@
         <v>49</v>
       </c>
       <c r="H48" s="11"/>
-      <c r="I48" s="33" t="s">
+      <c r="I48" s="30" t="s">
         <v>12</v>
       </c>
       <c r="J48" s="17"/>
       <c r="K48" s="17"/>
     </row>
     <row r="49" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="34"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
+      <c r="A49" s="31"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
       <c r="F49" s="12" t="s">
         <v>50</v>
       </c>
@@ -1995,16 +1968,16 @@
         <v>51</v>
       </c>
       <c r="H49" s="13"/>
-      <c r="I49" s="33"/>
+      <c r="I49" s="30"/>
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
     </row>
     <row r="50" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="34"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
       <c r="F50" s="12" t="s">
         <v>65</v>
       </c>
@@ -2012,16 +1985,16 @@
         <v>53</v>
       </c>
       <c r="H50" s="13"/>
-      <c r="I50" s="33"/>
+      <c r="I50" s="30"/>
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
     </row>
     <row r="51" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="34"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
       <c r="F51" s="12" t="s">
         <v>54</v>
       </c>
@@ -2029,16 +2002,16 @@
         <v>55</v>
       </c>
       <c r="H51" s="13"/>
-      <c r="I51" s="33"/>
+      <c r="I51" s="30"/>
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
     </row>
     <row r="52" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="34"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
       <c r="F52" s="12" t="s">
         <v>56</v>
       </c>
@@ -2046,33 +2019,33 @@
         <v>57</v>
       </c>
       <c r="H52" s="13"/>
-      <c r="I52" s="33"/>
+      <c r="I52" s="30"/>
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
     </row>
     <row r="53" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="34"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
       <c r="F53" s="12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G53" s="12" t="s">
         <v>58</v>
       </c>
       <c r="H53" s="13"/>
-      <c r="I53" s="33"/>
+      <c r="I53" s="30"/>
       <c r="J53" s="17"/>
       <c r="K53" s="17"/>
     </row>
     <row r="54" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="34"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
       <c r="F54" s="12" t="s">
         <v>59</v>
       </c>
@@ -2080,16 +2053,16 @@
         <v>60</v>
       </c>
       <c r="H54" s="13"/>
-      <c r="I54" s="33"/>
+      <c r="I54" s="30"/>
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
     </row>
     <row r="55" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="34"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
       <c r="F55" s="14" t="s">
         <v>61</v>
       </c>
@@ -2097,25 +2070,25 @@
         <v>62</v>
       </c>
       <c r="H55" s="15"/>
-      <c r="I55" s="33"/>
+      <c r="I55" s="30"/>
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
     </row>
     <row r="56" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="34">
+      <c r="A56" s="31">
         <v>12</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="32" t="s">
+      <c r="C56" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D56" s="32" t="s">
+      <c r="D56" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E56" s="32" t="s">
-        <v>97</v>
+      <c r="E56" s="29" t="s">
+        <v>91</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>48</v>
@@ -2124,18 +2097,18 @@
         <v>49</v>
       </c>
       <c r="H56" s="11"/>
-      <c r="I56" s="33" t="s">
+      <c r="I56" s="30" t="s">
         <v>12</v>
       </c>
       <c r="J56" s="17"/>
       <c r="K56" s="17"/>
     </row>
     <row r="57" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="34"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
       <c r="F57" s="12" t="s">
         <v>69</v>
       </c>
@@ -2143,33 +2116,33 @@
         <v>70</v>
       </c>
       <c r="H57" s="13"/>
-      <c r="I57" s="33"/>
+      <c r="I57" s="30"/>
       <c r="J57" s="17"/>
       <c r="K57" s="17"/>
     </row>
     <row r="58" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="34"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
+      <c r="A58" s="31"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
       <c r="F58" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H58" s="13"/>
-      <c r="I58" s="33"/>
+      <c r="I58" s="30"/>
       <c r="J58" s="17"/>
       <c r="K58" s="17"/>
     </row>
-    <row r="59" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="34"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
+    <row r="59" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="31"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
       <c r="F59" s="14" t="s">
         <v>71</v>
       </c>
@@ -2177,464 +2150,270 @@
         <v>72</v>
       </c>
       <c r="H59" s="15"/>
-      <c r="I59" s="33"/>
+      <c r="I59" s="30"/>
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
     </row>
-    <row r="60" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="34">
+    <row r="60" spans="1:11" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="20">
         <v>13</v>
       </c>
-      <c r="B60" s="35" t="s">
+      <c r="B60" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D60" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="32" t="s">
-        <v>97</v>
+      <c r="C60" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>91</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H60" s="18"/>
-      <c r="I60" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="H60" s="11"/>
+      <c r="I60" s="30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="34"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
+    <row r="61" spans="1:11" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="20"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
       <c r="F61" s="12" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="33"/>
-    </row>
-    <row r="62" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="34"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="33"/>
-    </row>
-    <row r="63" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="34"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="33"/>
-    </row>
-    <row r="64" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="34"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G64" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="33"/>
-    </row>
-    <row r="65" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="34"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G65" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H65" s="20"/>
-      <c r="I65" s="33"/>
-    </row>
-    <row r="66" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="23">
+        <v>78</v>
+      </c>
+      <c r="H61" s="13"/>
+      <c r="I61" s="30"/>
+    </row>
+    <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="20"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="30"/>
+    </row>
+    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="20"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="30"/>
+    </row>
+    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="20"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="30"/>
+    </row>
+    <row r="65" spans="1:9" ht="67.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="20">
         <v>14</v>
       </c>
-      <c r="B66" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H66" s="18"/>
-      <c r="I66" s="26" t="s">
+      <c r="B65" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H65" s="11"/>
+      <c r="I65" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="23"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="26"/>
-    </row>
-    <row r="68" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="26"/>
-    </row>
-    <row r="69" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="23"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G69" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="26"/>
-    </row>
-    <row r="70" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="23"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="26"/>
-    </row>
-    <row r="71" spans="1:9" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="23">
+    <row r="66" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="20"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H66" s="13"/>
+      <c r="I66" s="23"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="20"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="23"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="20"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="23"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="20"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="23"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="20"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="23"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="20"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="23"/>
+    </row>
+    <row r="72" spans="1:9" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="24">
         <v>15</v>
       </c>
-      <c r="B71" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C71" s="32" t="s">
+      <c r="B72" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D71" s="32" t="s">
+      <c r="D72" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E71" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="F71" s="10" t="s">
+      <c r="E72" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G71" s="10" t="s">
+      <c r="G72" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H71" s="11"/>
-      <c r="I71" s="33" t="s">
+      <c r="H72" s="11"/>
+      <c r="I72" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="23"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G72" s="12" t="s">
+    <row r="73" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="24"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G73" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="H72" s="13"/>
-      <c r="I72" s="33"/>
-    </row>
-    <row r="73" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="23"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
       <c r="H73" s="13"/>
-      <c r="I73" s="33"/>
+      <c r="I73" s="27"/>
     </row>
     <row r="74" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="23"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
       <c r="H74" s="13"/>
-      <c r="I74" s="33"/>
+      <c r="I74" s="27"/>
     </row>
     <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="23"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="33"/>
-    </row>
-    <row r="76" spans="1:9" ht="67.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="23">
-        <v>16</v>
-      </c>
-      <c r="B76" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D76" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E76" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="H76" s="11"/>
-      <c r="I76" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="23"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G77" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H77" s="13"/>
-      <c r="I77" s="26"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="23"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="26"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="23"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="26"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="23"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="26"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="23"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="26"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="26"/>
-    </row>
-    <row r="83" spans="1:9" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="27">
-        <v>17</v>
-      </c>
-      <c r="B83" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C83" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D83" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E83" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="H83" s="11"/>
-      <c r="I83" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="27"/>
-      <c r="B84" s="28"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G84" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H84" s="13"/>
-      <c r="I84" s="30"/>
-    </row>
-    <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="27"/>
-      <c r="B85" s="28"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="30"/>
-    </row>
-    <row r="86" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="27"/>
-      <c r="B86" s="28"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="30"/>
-    </row>
-    <row r="87" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="27"/>
-      <c r="B87" s="28"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="30"/>
-    </row>
-    <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="27"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="30"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="27"/>
+    </row>
+    <row r="76" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="24"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="27"/>
+    </row>
+    <row r="77" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="24"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
+  <mergeCells count="90">
     <mergeCell ref="I2:I5"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="B6:B11"/>
@@ -2642,11 +2421,11 @@
     <mergeCell ref="D6:D11"/>
     <mergeCell ref="E6:E11"/>
     <mergeCell ref="I6:I11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
     <mergeCell ref="I12:I15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="B16:B19"/>
@@ -2654,11 +2433,11 @@
     <mergeCell ref="D16:D19"/>
     <mergeCell ref="E16:E19"/>
     <mergeCell ref="I16:I19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
     <mergeCell ref="I20:I23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="B24:B27"/>
@@ -2666,11 +2445,11 @@
     <mergeCell ref="D24:D27"/>
     <mergeCell ref="E24:E27"/>
     <mergeCell ref="I24:I27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
     <mergeCell ref="I28:I31"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
@@ -2678,11 +2457,11 @@
     <mergeCell ref="D32:D35"/>
     <mergeCell ref="E32:E35"/>
     <mergeCell ref="I32:I35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
     <mergeCell ref="I36:I39"/>
     <mergeCell ref="A40:A47"/>
     <mergeCell ref="B40:B47"/>
@@ -2690,6 +2469,12 @@
     <mergeCell ref="D40:D47"/>
     <mergeCell ref="E40:E47"/>
     <mergeCell ref="I40:I47"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="I60:I64"/>
     <mergeCell ref="A48:A55"/>
     <mergeCell ref="B48:B55"/>
     <mergeCell ref="C48:C55"/>
@@ -2702,36 +2487,23 @@
     <mergeCell ref="D56:D59"/>
     <mergeCell ref="E56:E59"/>
     <mergeCell ref="I56:I59"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="C71:C75"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="E71:E75"/>
-    <mergeCell ref="I71:I75"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="C60:C65"/>
-    <mergeCell ref="D60:D65"/>
-    <mergeCell ref="E60:E65"/>
-    <mergeCell ref="I60:I65"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="C66:C70"/>
-    <mergeCell ref="D66:D70"/>
-    <mergeCell ref="E66:E70"/>
-    <mergeCell ref="I66:I70"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:B82"/>
-    <mergeCell ref="C76:C82"/>
-    <mergeCell ref="D76:D82"/>
-    <mergeCell ref="E76:E82"/>
-    <mergeCell ref="I76:I82"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="E83:E88"/>
-    <mergeCell ref="I83:I88"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="E60:E64"/>
+    <mergeCell ref="I65:I71"/>
+    <mergeCell ref="A72:A77"/>
+    <mergeCell ref="B72:B77"/>
+    <mergeCell ref="C72:C77"/>
+    <mergeCell ref="D72:D77"/>
+    <mergeCell ref="E72:E77"/>
+    <mergeCell ref="I72:I77"/>
+    <mergeCell ref="A65:A71"/>
+    <mergeCell ref="B65:B71"/>
+    <mergeCell ref="C65:C71"/>
+    <mergeCell ref="D65:D71"/>
+    <mergeCell ref="E65:E71"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Netology\Qa-Diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB342DC9-07D4-4013-BDEA-A4F73E15AE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AC296F-92CD-4A3A-BFA5-70B6D805B156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="209">
   <si>
     <t>ID</t>
   </si>
@@ -228,9 +228,6 @@
     <t>Фильтрация новостей по категориям</t>
   </si>
   <si>
-    <t>Проверка функции фильтрации новостей</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
@@ -313,13 +310,355 @@
   </si>
   <si>
     <t>Logout авторизованного пользователя</t>
+  </si>
+  <si>
+    <t>Добавление новой новости без выбора даты</t>
+  </si>
+  <si>
+    <t>Проверка возможности создания новой новости без выбора даты</t>
+  </si>
+  <si>
+    <t>6. Введите валидные данные в поле "Заголовок".</t>
+  </si>
+  <si>
+    <t>9. Введите в поле "Описание" валидные данные и нажмите кнопку "сохранить".</t>
+  </si>
+  <si>
+    <t>8. Нажмите на поле "время" и выберите нужное время во временном выборе.</t>
+  </si>
+  <si>
+    <t>7. Кликните на поле "дата публикации" и нажмите "отмена" во всплывающем окне выбора даты.</t>
+  </si>
+  <si>
+    <t>1. Нажать на элемент "меню", находясь в главном блоке.</t>
+  </si>
+  <si>
+    <t>2. Выберите "Новости" из раскрывшегося меню для перехода в раздел "Новости".</t>
+  </si>
+  <si>
+    <t>3. Нажмите на элемент "лист с карандашом" для редактирования новости.</t>
+  </si>
+  <si>
+    <t>4. Нажмите на элемент "+" для перехода к созданию новости.</t>
+  </si>
+  <si>
+    <t>5. Введите валидные данные в поле "Категория".</t>
+  </si>
+  <si>
+    <t>Появление всплывающего окна с текстом "Заполните пустые поля" указывает на то, что не все обязательные поля были заполнены перед попыткой сохранения данных.</t>
+  </si>
+  <si>
+    <t>Создание новости с невалидными данными</t>
+  </si>
+  <si>
+    <t>5. Ввести значение Category отличное от значений из выпадающего списка, заполнить остальные поля и нажать save</t>
+  </si>
+  <si>
+    <t>6. Ввести в поле description описание, состоящее только из спецсимволов, заполнить остальные поля и нажать save</t>
+  </si>
+  <si>
+    <t>1. Отображается выпадающий список с пунктами меню, в котором есть пункт News</t>
+  </si>
+  <si>
+    <t>2. Выберите "News" из раскрывающегося меню для перехода в раздел "Новости".</t>
+  </si>
+  <si>
+    <t>2. Переход на экран news с новостями, отображаются новости</t>
+  </si>
+  <si>
+    <t>3. Остаемся на экране с новостями, около каждой новости отображается иконка удаления и редактирования</t>
+  </si>
+  <si>
+    <t>4. Переход на экран создания новости</t>
+  </si>
+  <si>
+    <t>5. Новость не создана, невозможно создать новость с категорией, отличной от категории из выпадающего списка</t>
+  </si>
+  <si>
+    <t>6. Новость не создана, поле description не должно содержать исключительно спецсимволы</t>
+  </si>
+  <si>
+    <t>Проверка возможности создания новой новости с невалидными данными</t>
+  </si>
+  <si>
+    <t>Создание новости с пустыми полями</t>
+  </si>
+  <si>
+    <t>Проверка возможности создания новой новости с пустыми полями</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Не заполнять поля ввода при создании новости и нажать save </t>
+  </si>
+  <si>
+    <t>5. Новость не создана, подсвечены незаполненные поля</t>
+  </si>
+  <si>
+    <t>Создание дубликата новости</t>
+  </si>
+  <si>
+    <t>Проверка возможности создания дубликата новости</t>
+  </si>
+  <si>
+    <t>3. В списке, выбрать определенную новость, запомнить значения полей, так как на шаге 6 будем создавать новость с такими же значениями полей</t>
+  </si>
+  <si>
+    <t>4. Нажмите на элемент "лист с карандашом" для редактирования новости.</t>
+  </si>
+  <si>
+    <t>5. Нажмите на элемент "+" для перехода к созданию новости.</t>
+  </si>
+  <si>
+    <t>6. Ввести значения полей как в новости на шаге 3 и нажать на сохранить (все поля должны быть одинаковы, включая дату и время)</t>
+  </si>
+  <si>
+    <t>3. Переход на экран news с новостями, отображаются новости</t>
+  </si>
+  <si>
+    <t>4. Остаемся на экране с новостями, около каждой новости отображается иконка удаления и редактирования</t>
+  </si>
+  <si>
+    <t>5. Переход на экран создания новости</t>
+  </si>
+  <si>
+    <t>6. Новость не создана, невозможно создать две одинаковые новости</t>
+  </si>
+  <si>
+    <t>Переход на экран новостей при отсутствии интернет и медленном соединении</t>
+  </si>
+  <si>
+    <t>Проверка отображения раздела "News" при отсутствии интернета и медленном соединении</t>
+  </si>
+  <si>
+    <t>1. Выключить интернет на девайсе</t>
+  </si>
+  <si>
+    <t>2. Нажать на элемент "меню", находясь в главном блоке.</t>
+  </si>
+  <si>
+    <t>3. Выберите "News" из раскрывающегося меню для перехода в раздел "Новости".</t>
+  </si>
+  <si>
+    <t>1. Интернет отсутствует</t>
+  </si>
+  <si>
+    <t>2. Отображается выпадающий список с пунктами меню, в котором есть пункт News</t>
+  </si>
+  <si>
+    <t>3. Отображается уведомление об отсутствии интернет соединения</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей по дате</t>
+  </si>
+  <si>
+    <t>Проверка функции фильтрации новостей по дате</t>
+  </si>
+  <si>
+    <t>Проверка функции фильтрации новостей по категориям</t>
+  </si>
+  <si>
+    <t>3. Нажать на категорию и выбор категории, например День Рождения, нажать на кнопку применения фильтра Filter</t>
+  </si>
+  <si>
+    <t>4. Нажать на иконку фильтра в горизонтальном меню над новостями (три горизонтальных линии с кружками)</t>
+  </si>
+  <si>
+    <t>5. Выбрать интервал даты выходящей за рамки имеющихся новостей, например, на год больше текущего</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Переход на экран новостей, фильтр применяется, отображаются новости в соответствии с выбранным фильтром </t>
+  </si>
+  <si>
+    <t>4. Переход на экран фильтра с возможностью выбрать категорию и дату</t>
+  </si>
+  <si>
+    <t>5. Переход на экран с новостями, новости не отображаются, отображается заглушка с кнопкой обновления</t>
+  </si>
+  <si>
+    <t>Удаление новости</t>
+  </si>
+  <si>
+    <t>Проверка функции удаления новости</t>
+  </si>
+  <si>
+    <t>4. Нажать на иконку удаления около любой новости</t>
+  </si>
+  <si>
+    <t>5. Нажать на подтверждение удаления</t>
+  </si>
+  <si>
+    <t>2. Выберите "News" из раскрывшегося меню для перехода в раздел "Новости".</t>
+  </si>
+  <si>
+    <t>4. Отображается диалоговое окно с возможностью отменить удаление и подтвердить удаление</t>
+  </si>
+  <si>
+    <t>5. Новость удаляется, ее нет в списке новостей</t>
+  </si>
+  <si>
+    <t>Изменение активности новости (тумблер Active)</t>
+  </si>
+  <si>
+    <t>Проверка функции тумблера Active</t>
+  </si>
+  <si>
+    <t>3. Нажмите на элемент "лист с карандашом" для редактирования новости</t>
+  </si>
+  <si>
+    <t>4. Нажать на иконку редактирования около любой новости</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Изменить активность выбранной новости с помощью тумблера Active на экране редактирования новости и применить изменения, нажав на Save </t>
+  </si>
+  <si>
+    <t>4. Переход на экран редактирования новости</t>
+  </si>
+  <si>
+    <t>5. Переход на экран новостей в режиме Controle panel, новость отображается в статусе Not active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">да </t>
+  </si>
+  <si>
+    <t>Редактирование новости</t>
+  </si>
+  <si>
+    <t>Проверка возможности редактирования новости</t>
+  </si>
+  <si>
+    <t>5. Отредактировать новость и нажать Save</t>
+  </si>
+  <si>
+    <t>5. Переход на экран с новостями, новость изменена</t>
+  </si>
+  <si>
+    <t>2. Переход на экран news с новостями, отображаются новость</t>
+  </si>
+  <si>
+    <t>Разворачивание и сворачивание новости</t>
+  </si>
+  <si>
+    <t>Проверка функции сворачивания и разворачивания новости</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Клик на иконку разворачивания новости </t>
+  </si>
+  <si>
+    <t>Раскрытие новости, отображается описание развернутой новости</t>
+  </si>
+  <si>
+    <t>Авторизация при отсутствии интернета и медленном соединении</t>
+  </si>
+  <si>
+    <t>Проверка процесса авторизации при отсутствии интерна и медленном соединении</t>
+  </si>
+  <si>
+    <t>1. Запустить приложение</t>
+  </si>
+  <si>
+    <t>2. Выключить интернет на девайсе</t>
+  </si>
+  <si>
+    <t>3. Ввести валидные данные данные для авторизации (из Описания)</t>
+  </si>
+  <si>
+    <t>4. Нажать на кнопку входа</t>
+  </si>
+  <si>
+    <t>1. Приложение запущено, отображаются поля ввода для авторизации</t>
+  </si>
+  <si>
+    <t>2. Интернет отсутствует</t>
+  </si>
+  <si>
+    <t>3. Введенные данные отображаются</t>
+  </si>
+  <si>
+    <t>4. Отображается уведомление об отсутствии интернет соединения</t>
+  </si>
+  <si>
+    <t>нет, так требуется эмулировать внешние для приложения события</t>
+  </si>
+  <si>
+    <t>Восстановление после сбоя</t>
+  </si>
+  <si>
+    <t>Проверка восстановления рабочего состояния приложения после сбоя</t>
+  </si>
+  <si>
+    <t>2. Вручную "убить" процесс приложения через Android Emulator, используя ADB (Android Debug Bridge). Команда adb shell am kill &lt;package_name&gt; убьёт все процессы, связанные с вашим приложением, что имитирует сбой.</t>
+  </si>
+  <si>
+    <t>3. Повторно запустить приложение</t>
+  </si>
+  <si>
+    <t>1. Приложение запущено</t>
+  </si>
+  <si>
+    <t>3. Приложение запущено, находимся в авторизованном состоянии</t>
+  </si>
+  <si>
+    <t>Тестирование нагрузки: Проверка способности приложения обрабатывать ожидаемый объем трафика</t>
+  </si>
+  <si>
+    <t>Проверка способности приложения обрабатывать ожидаемый объем трафика</t>
+  </si>
+  <si>
+    <t>Тестирование осуществляется с помощью Jmeter</t>
+  </si>
+  <si>
+    <t>JMeter поддерживает различные протоколы, включая HTTP/HTTPS, что делает его подходящим для тестирования веб-сервисов, используемых мобильными приложениями.</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>Продолжение работы с приложением после звонка или перехода в сторонние приложения</t>
+  </si>
+  <si>
+    <t>2. Совершить звонок на тестируемый девайс и принять звонок</t>
+  </si>
+  <si>
+    <t>3. Завершить звонок</t>
+  </si>
+  <si>
+    <t>1. Приложение запущено на любом экране</t>
+  </si>
+  <si>
+    <t>2. Звонок успешно принят</t>
+  </si>
+  <si>
+    <t>3. Приложение запущено на экране, который был открыт до принятия звонка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Продолжение работы приложения после блокировки </t>
+  </si>
+  <si>
+    <t>Проверка способности приложения к возврату функционирования после звонка или перехода в сторонние приложения</t>
+  </si>
+  <si>
+    <t>Проверка способности приложения в возврату функционирования после блокировки</t>
+  </si>
+  <si>
+    <t>2. Заблокировать девайс кнопками устройства</t>
+  </si>
+  <si>
+    <t>3. Разблокировать девайс</t>
+  </si>
+  <si>
+    <t>2. Девайс заблокирован</t>
+  </si>
+  <si>
+    <t>3. Приложение запущено на экране, который был открыт до блокировки</t>
+  </si>
+  <si>
+    <t>2. Приложение исчезло из активных</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -353,6 +692,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -411,7 +758,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -617,11 +964,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -678,6 +1166,198 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -687,37 +1367,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1068,10 +1754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72:B77"/>
+      <selection activeCell="E78" sqref="E78:E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1095,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
@@ -1113,24 +1799,24 @@
         <v>6</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31">
+      <c r="A2" s="93">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="29" t="s">
-        <v>90</v>
+      <c r="E2" s="70" t="s">
+        <v>89</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>10</v>
@@ -1139,16 +1825,16 @@
         <v>11</v>
       </c>
       <c r="H2" s="11"/>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="91" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="12" t="s">
         <v>13</v>
       </c>
@@ -1156,14 +1842,14 @@
         <v>14</v>
       </c>
       <c r="H3" s="13"/>
-      <c r="I3" s="30"/>
+      <c r="I3" s="91"/>
     </row>
     <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="12" t="s">
         <v>15</v>
       </c>
@@ -1171,14 +1857,14 @@
         <v>16</v>
       </c>
       <c r="H4" s="13"/>
-      <c r="I4" s="30"/>
+      <c r="I4" s="91"/>
     </row>
     <row r="5" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="A5" s="93"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="14" t="s">
         <v>17</v>
       </c>
@@ -1186,23 +1872,23 @@
         <v>18</v>
       </c>
       <c r="H5" s="15"/>
-      <c r="I5" s="30"/>
+      <c r="I5" s="91"/>
     </row>
     <row r="6" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31">
+      <c r="A6" s="93">
         <v>2</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="29" t="s">
+      <c r="B6" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>90</v>
+      <c r="E6" s="70" t="s">
+        <v>89</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>10</v>
@@ -1211,16 +1897,16 @@
         <v>11</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="91" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="A7" s="93"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
       <c r="F7" s="12" t="s">
         <v>13</v>
       </c>
@@ -1228,14 +1914,14 @@
         <v>14</v>
       </c>
       <c r="H7" s="13"/>
-      <c r="I7" s="30"/>
+      <c r="I7" s="91"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="A8" s="93"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="12" t="s">
         <v>15</v>
       </c>
@@ -1243,14 +1929,14 @@
         <v>16</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="30"/>
+      <c r="I8" s="91"/>
     </row>
     <row r="9" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+      <c r="A9" s="93"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
       <c r="F9" s="12" t="s">
         <v>17</v>
       </c>
@@ -1258,14 +1944,14 @@
         <v>18</v>
       </c>
       <c r="H9" s="13"/>
-      <c r="I9" s="30"/>
+      <c r="I9" s="91"/>
     </row>
     <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
       <c r="F10" s="12" t="s">
         <v>20</v>
       </c>
@@ -1273,14 +1959,14 @@
         <v>21</v>
       </c>
       <c r="H10" s="13"/>
-      <c r="I10" s="30"/>
+      <c r="I10" s="91"/>
     </row>
     <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
+      <c r="A11" s="93"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
       <c r="F11" s="14" t="s">
         <v>22</v>
       </c>
@@ -1288,23 +1974,23 @@
         <v>23</v>
       </c>
       <c r="H11" s="15"/>
-      <c r="I11" s="30"/>
+      <c r="I11" s="91"/>
     </row>
     <row r="12" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31">
+      <c r="A12" s="93">
         <v>3</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="29" t="s">
-        <v>90</v>
+      <c r="E12" s="70" t="s">
+        <v>89</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>10</v>
@@ -1313,31 +1999,31 @@
         <v>11</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="91" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="29"/>
+      <c r="A13" s="93"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="70"/>
       <c r="F13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H13" s="13"/>
-      <c r="I13" s="30"/>
+      <c r="I13" s="91"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="29"/>
+      <c r="A14" s="93"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="70"/>
       <c r="F14" s="12" t="s">
         <v>27</v>
       </c>
@@ -1345,14 +2031,14 @@
         <v>28</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="30"/>
+      <c r="I14" s="91"/>
     </row>
     <row r="15" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="29"/>
+      <c r="A15" s="93"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="70"/>
       <c r="F15" s="14" t="s">
         <v>17</v>
       </c>
@@ -1360,23 +2046,23 @@
         <v>29</v>
       </c>
       <c r="H15" s="15"/>
-      <c r="I15" s="30"/>
+      <c r="I15" s="91"/>
     </row>
     <row r="16" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31">
+      <c r="A16" s="93">
         <v>4</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="29" t="s">
-        <v>90</v>
+      <c r="E16" s="70" t="s">
+        <v>89</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>10</v>
@@ -1385,16 +2071,16 @@
         <v>11</v>
       </c>
       <c r="H16" s="11"/>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="91" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="29"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="70"/>
       <c r="F17" s="12" t="s">
         <v>31</v>
       </c>
@@ -1402,14 +2088,14 @@
         <v>14</v>
       </c>
       <c r="H17" s="13"/>
-      <c r="I17" s="30"/>
+      <c r="I17" s="91"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="29"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="70"/>
       <c r="F18" s="12" t="s">
         <v>15</v>
       </c>
@@ -1417,14 +2103,14 @@
         <v>16</v>
       </c>
       <c r="H18" s="13"/>
-      <c r="I18" s="30"/>
+      <c r="I18" s="91"/>
     </row>
     <row r="19" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="29"/>
+      <c r="A19" s="93"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="70"/>
       <c r="F19" s="14" t="s">
         <v>17</v>
       </c>
@@ -1432,23 +2118,23 @@
         <v>32</v>
       </c>
       <c r="H19" s="15"/>
-      <c r="I19" s="30"/>
+      <c r="I19" s="91"/>
     </row>
     <row r="20" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31">
+      <c r="A20" s="93">
         <v>5</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="29" t="s">
-        <v>90</v>
+      <c r="E20" s="70" t="s">
+        <v>89</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>10</v>
@@ -1457,16 +2143,16 @@
         <v>11</v>
       </c>
       <c r="H20" s="11"/>
-      <c r="I20" s="30" t="s">
+      <c r="I20" s="91" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="29"/>
+      <c r="A21" s="93"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="70"/>
       <c r="F21" s="12" t="s">
         <v>13</v>
       </c>
@@ -1474,14 +2160,14 @@
         <v>14</v>
       </c>
       <c r="H21" s="13"/>
-      <c r="I21" s="30"/>
+      <c r="I21" s="91"/>
     </row>
     <row r="22" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="29"/>
+      <c r="A22" s="93"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="70"/>
       <c r="F22" s="12" t="s">
         <v>34</v>
       </c>
@@ -1489,14 +2175,14 @@
         <v>16</v>
       </c>
       <c r="H22" s="13"/>
-      <c r="I22" s="30"/>
+      <c r="I22" s="91"/>
     </row>
     <row r="23" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="29"/>
+      <c r="A23" s="93"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="70"/>
       <c r="F23" s="14" t="s">
         <v>17</v>
       </c>
@@ -1504,23 +2190,23 @@
         <v>32</v>
       </c>
       <c r="H23" s="15"/>
-      <c r="I23" s="30"/>
+      <c r="I23" s="91"/>
     </row>
     <row r="24" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31">
+      <c r="A24" s="93">
         <v>6</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="29" t="s">
-        <v>90</v>
+      <c r="E24" s="70" t="s">
+        <v>89</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>10</v>
@@ -1529,16 +2215,16 @@
         <v>11</v>
       </c>
       <c r="H24" s="11"/>
-      <c r="I24" s="30" t="s">
+      <c r="I24" s="91" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="A25" s="93"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
       <c r="F25" s="12" t="s">
         <v>38</v>
       </c>
@@ -1546,14 +2232,14 @@
         <v>14</v>
       </c>
       <c r="H25" s="13"/>
-      <c r="I25" s="30"/>
+      <c r="I25" s="91"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
       <c r="F26" s="12" t="s">
         <v>15</v>
       </c>
@@ -1561,14 +2247,14 @@
         <v>16</v>
       </c>
       <c r="H26" s="13"/>
-      <c r="I26" s="30"/>
+      <c r="I26" s="91"/>
     </row>
     <row r="27" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
       <c r="F27" s="14" t="s">
         <v>17</v>
       </c>
@@ -1576,23 +2262,23 @@
         <v>39</v>
       </c>
       <c r="H27" s="15"/>
-      <c r="I27" s="30"/>
+      <c r="I27" s="91"/>
     </row>
     <row r="28" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31">
+      <c r="A28" s="93">
         <v>7</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="29" t="s">
-        <v>90</v>
+      <c r="E28" s="70" t="s">
+        <v>89</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>10</v>
@@ -1601,16 +2287,16 @@
         <v>11</v>
       </c>
       <c r="H28" s="11"/>
-      <c r="I28" s="30" t="s">
+      <c r="I28" s="91" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
+      <c r="A29" s="93"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
       <c r="F29" s="12" t="s">
         <v>41</v>
       </c>
@@ -1618,14 +2304,14 @@
         <v>14</v>
       </c>
       <c r="H29" s="13"/>
-      <c r="I29" s="30"/>
+      <c r="I29" s="91"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
+      <c r="A30" s="93"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
       <c r="F30" s="12" t="s">
         <v>15</v>
       </c>
@@ -1633,14 +2319,14 @@
         <v>16</v>
       </c>
       <c r="H30" s="13"/>
-      <c r="I30" s="30"/>
+      <c r="I30" s="91"/>
     </row>
     <row r="31" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
+      <c r="A31" s="93"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
       <c r="F31" s="14" t="s">
         <v>17</v>
       </c>
@@ -1648,23 +2334,23 @@
         <v>39</v>
       </c>
       <c r="H31" s="15"/>
-      <c r="I31" s="30"/>
+      <c r="I31" s="91"/>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31">
+      <c r="A32" s="93">
         <v>8</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="29" t="s">
-        <v>90</v>
+      <c r="E32" s="70" t="s">
+        <v>89</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>10</v>
@@ -1673,16 +2359,16 @@
         <v>11</v>
       </c>
       <c r="H32" s="11"/>
-      <c r="I32" s="30" t="s">
+      <c r="I32" s="91" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
+      <c r="A33" s="93"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
       <c r="F33" s="12" t="s">
         <v>13</v>
       </c>
@@ -1690,14 +2376,14 @@
         <v>14</v>
       </c>
       <c r="H33" s="13"/>
-      <c r="I33" s="30"/>
+      <c r="I33" s="91"/>
     </row>
     <row r="34" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="31"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
+      <c r="A34" s="93"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
       <c r="F34" s="12" t="s">
         <v>43</v>
       </c>
@@ -1705,14 +2391,14 @@
         <v>16</v>
       </c>
       <c r="H34" s="13"/>
-      <c r="I34" s="30"/>
+      <c r="I34" s="91"/>
     </row>
     <row r="35" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="31"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
+      <c r="A35" s="93"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
       <c r="F35" s="14" t="s">
         <v>17</v>
       </c>
@@ -1720,23 +2406,23 @@
         <v>39</v>
       </c>
       <c r="H35" s="15"/>
-      <c r="I35" s="30"/>
+      <c r="I35" s="91"/>
     </row>
     <row r="36" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="31">
+      <c r="A36" s="93">
         <v>9</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="29" t="s">
-        <v>90</v>
+      <c r="E36" s="70" t="s">
+        <v>89</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>10</v>
@@ -1745,16 +2431,16 @@
         <v>11</v>
       </c>
       <c r="H36" s="11"/>
-      <c r="I36" s="30" t="s">
+      <c r="I36" s="91" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
+      <c r="A37" s="93"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
       <c r="F37" s="12" t="s">
         <v>13</v>
       </c>
@@ -1762,14 +2448,14 @@
         <v>14</v>
       </c>
       <c r="H37" s="13"/>
-      <c r="I37" s="30"/>
+      <c r="I37" s="91"/>
     </row>
     <row r="38" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="31"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
+      <c r="A38" s="93"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
       <c r="F38" s="12" t="s">
         <v>45</v>
       </c>
@@ -1777,14 +2463,14 @@
         <v>16</v>
       </c>
       <c r="H38" s="13"/>
-      <c r="I38" s="30"/>
+      <c r="I38" s="91"/>
     </row>
     <row r="39" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="31"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
+      <c r="A39" s="93"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
       <c r="F39" s="14" t="s">
         <v>17</v>
       </c>
@@ -1792,23 +2478,23 @@
         <v>39</v>
       </c>
       <c r="H39" s="15"/>
-      <c r="I39" s="30"/>
+      <c r="I39" s="91"/>
     </row>
     <row r="40" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="31">
+      <c r="A40" s="93">
         <v>10</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="29" t="s">
-        <v>91</v>
+      <c r="E40" s="70" t="s">
+        <v>90</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>48</v>
@@ -1817,16 +2503,16 @@
         <v>49</v>
       </c>
       <c r="H40" s="11"/>
-      <c r="I40" s="30" t="s">
+      <c r="I40" s="91" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
+      <c r="A41" s="93"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
       <c r="F41" s="12" t="s">
         <v>50</v>
       </c>
@@ -1834,14 +2520,14 @@
         <v>51</v>
       </c>
       <c r="H41" s="13"/>
-      <c r="I41" s="30"/>
+      <c r="I41" s="91"/>
     </row>
     <row r="42" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="31"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
+      <c r="A42" s="93"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
       <c r="F42" s="12" t="s">
         <v>52</v>
       </c>
@@ -1849,14 +2535,14 @@
         <v>53</v>
       </c>
       <c r="H42" s="13"/>
-      <c r="I42" s="30"/>
+      <c r="I42" s="91"/>
     </row>
     <row r="43" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="31"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
+      <c r="A43" s="93"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
       <c r="F43" s="12" t="s">
         <v>54</v>
       </c>
@@ -1864,14 +2550,14 @@
         <v>55</v>
       </c>
       <c r="H43" s="13"/>
-      <c r="I43" s="30"/>
+      <c r="I43" s="91"/>
     </row>
     <row r="44" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="31"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
+      <c r="A44" s="93"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
       <c r="F44" s="12" t="s">
         <v>56</v>
       </c>
@@ -1879,29 +2565,29 @@
         <v>57</v>
       </c>
       <c r="H44" s="13"/>
-      <c r="I44" s="30"/>
+      <c r="I44" s="91"/>
     </row>
     <row r="45" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="31"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
+      <c r="A45" s="93"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
       <c r="F45" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G45" s="12" t="s">
         <v>58</v>
       </c>
       <c r="H45" s="13"/>
-      <c r="I45" s="30"/>
+      <c r="I45" s="91"/>
     </row>
     <row r="46" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="31"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
+      <c r="A46" s="93"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
       <c r="F46" s="12" t="s">
         <v>59</v>
       </c>
@@ -1909,14 +2595,14 @@
         <v>60</v>
       </c>
       <c r="H46" s="13"/>
-      <c r="I46" s="30"/>
+      <c r="I46" s="91"/>
     </row>
     <row r="47" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="31"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
+      <c r="A47" s="93"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
       <c r="F47" s="14" t="s">
         <v>61</v>
       </c>
@@ -1924,23 +2610,23 @@
         <v>62</v>
       </c>
       <c r="H47" s="15"/>
-      <c r="I47" s="30"/>
+      <c r="I47" s="91"/>
     </row>
     <row r="48" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="31">
+      <c r="A48" s="93">
         <v>11</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="29" t="s">
-        <v>91</v>
+      <c r="E48" s="70" t="s">
+        <v>90</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>64</v>
@@ -1949,18 +2635,18 @@
         <v>49</v>
       </c>
       <c r="H48" s="11"/>
-      <c r="I48" s="30" t="s">
+      <c r="I48" s="91" t="s">
         <v>12</v>
       </c>
       <c r="J48" s="17"/>
       <c r="K48" s="17"/>
     </row>
     <row r="49" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="31"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
+      <c r="A49" s="93"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
       <c r="F49" s="12" t="s">
         <v>50</v>
       </c>
@@ -1968,16 +2654,16 @@
         <v>51</v>
       </c>
       <c r="H49" s="13"/>
-      <c r="I49" s="30"/>
+      <c r="I49" s="91"/>
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
     </row>
     <row r="50" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="31"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
+      <c r="A50" s="93"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
       <c r="F50" s="12" t="s">
         <v>65</v>
       </c>
@@ -1985,16 +2671,16 @@
         <v>53</v>
       </c>
       <c r="H50" s="13"/>
-      <c r="I50" s="30"/>
+      <c r="I50" s="91"/>
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
     </row>
     <row r="51" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="31"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
+      <c r="A51" s="93"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="70"/>
       <c r="F51" s="12" t="s">
         <v>54</v>
       </c>
@@ -2002,16 +2688,16 @@
         <v>55</v>
       </c>
       <c r="H51" s="13"/>
-      <c r="I51" s="30"/>
+      <c r="I51" s="91"/>
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
     </row>
     <row r="52" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="31"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
+      <c r="A52" s="93"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
       <c r="F52" s="12" t="s">
         <v>56</v>
       </c>
@@ -2019,33 +2705,33 @@
         <v>57</v>
       </c>
       <c r="H52" s="13"/>
-      <c r="I52" s="30"/>
+      <c r="I52" s="91"/>
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
     </row>
     <row r="53" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="31"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
+      <c r="A53" s="93"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
       <c r="F53" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G53" s="12" t="s">
         <v>58</v>
       </c>
       <c r="H53" s="13"/>
-      <c r="I53" s="30"/>
+      <c r="I53" s="91"/>
       <c r="J53" s="17"/>
       <c r="K53" s="17"/>
     </row>
-    <row r="54" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="31"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
+    <row r="54" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="93"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
       <c r="F54" s="12" t="s">
         <v>59</v>
       </c>
@@ -2053,16 +2739,16 @@
         <v>60</v>
       </c>
       <c r="H54" s="13"/>
-      <c r="I54" s="30"/>
+      <c r="I54" s="91"/>
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
     </row>
-    <row r="55" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="31"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
+    <row r="55" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="93"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="70"/>
       <c r="F55" s="14" t="s">
         <v>61</v>
       </c>
@@ -2070,25 +2756,25 @@
         <v>62</v>
       </c>
       <c r="H55" s="15"/>
-      <c r="I55" s="30"/>
+      <c r="I55" s="91"/>
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
     </row>
-    <row r="56" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="31">
+    <row r="56" spans="1:11" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="93">
         <v>12</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="29" t="s">
+      <c r="C56" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="D56" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E56" s="29" t="s">
-        <v>91</v>
+      <c r="E56" s="70" t="s">
+        <v>90</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>48</v>
@@ -2097,323 +2783,1497 @@
         <v>49</v>
       </c>
       <c r="H56" s="11"/>
-      <c r="I56" s="30" t="s">
+      <c r="I56" s="91" t="s">
         <v>12</v>
       </c>
       <c r="J56" s="17"/>
       <c r="K56" s="17"/>
     </row>
     <row r="57" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="31"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
+      <c r="A57" s="93"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
       <c r="F57" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G57" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G57" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="H57" s="13"/>
-      <c r="I57" s="30"/>
+      <c r="I57" s="91"/>
       <c r="J57" s="17"/>
       <c r="K57" s="17"/>
     </row>
-    <row r="58" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="31"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
+    <row r="58" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="93"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="70"/>
       <c r="F58" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G58" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G58" s="12" t="s">
-        <v>89</v>
-      </c>
       <c r="H58" s="13"/>
-      <c r="I58" s="30"/>
+      <c r="I58" s="91"/>
       <c r="J58" s="17"/>
       <c r="K58" s="17"/>
     </row>
     <row r="59" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="31"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
+      <c r="A59" s="93"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="70"/>
       <c r="F59" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G59" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G59" s="14" t="s">
-        <v>72</v>
-      </c>
       <c r="H59" s="15"/>
-      <c r="I59" s="30"/>
+      <c r="I59" s="91"/>
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
     </row>
-    <row r="60" spans="1:11" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="20">
+    <row r="60" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="93">
         <v>13</v>
       </c>
-      <c r="B60" s="28" t="s">
+      <c r="B60" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="D60" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H60" s="11"/>
+      <c r="I60" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+    </row>
+    <row r="61" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="82"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H61" s="13"/>
+      <c r="I61" s="96"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+    </row>
+    <row r="62" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="82"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="69"/>
+      <c r="F62" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H62" s="13"/>
+      <c r="I62" s="96"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+    </row>
+    <row r="63" spans="1:11" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="82"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="H63" s="13"/>
+      <c r="I63" s="96"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+    </row>
+    <row r="64" spans="1:11" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="82"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="96"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+    </row>
+    <row r="65" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="93">
+        <v>14</v>
+      </c>
+      <c r="B65" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="C65" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H65" s="11"/>
+      <c r="I65" s="95" t="s">
+        <v>163</v>
+      </c>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+    </row>
+    <row r="66" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="82"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="H66" s="13"/>
+      <c r="I66" s="96"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+    </row>
+    <row r="67" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="82"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H67" s="13"/>
+      <c r="I67" s="96"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+    </row>
+    <row r="68" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="82"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H68" s="13"/>
+      <c r="I68" s="96"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+    </row>
+    <row r="69" spans="1:11" ht="64.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="97"/>
+      <c r="B69" s="71"/>
+      <c r="C69" s="71"/>
+      <c r="D69" s="71"/>
+      <c r="E69" s="71"/>
+      <c r="F69" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="H69" s="19"/>
+      <c r="I69" s="98"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+    </row>
+    <row r="70" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="93">
+        <v>15</v>
+      </c>
+      <c r="B70" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="C70" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="D70" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="E70" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H70" s="11"/>
+      <c r="I70" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+    </row>
+    <row r="71" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="82"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G71" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="H71" s="22"/>
+      <c r="I71" s="96"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+    </row>
+    <row r="72" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="82"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G72" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="H72" s="22"/>
+      <c r="I72" s="96"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+    </row>
+    <row r="73" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A73" s="82"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="H73" s="22"/>
+      <c r="I73" s="96"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+    </row>
+    <row r="74" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="97"/>
+      <c r="B74" s="71"/>
+      <c r="C74" s="71"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="G74" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="H74" s="35"/>
+      <c r="I74" s="98"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+    </row>
+    <row r="75" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="94">
+        <v>16</v>
+      </c>
+      <c r="B75" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="C75" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="D75" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="E75" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="H75" s="22"/>
+      <c r="I75" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+    </row>
+    <row r="76" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="101"/>
+      <c r="B76" s="69"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="H76" s="13"/>
+      <c r="I76" s="69"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+    </row>
+    <row r="77" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="102"/>
+      <c r="B77" s="103"/>
+      <c r="C77" s="103"/>
+      <c r="D77" s="103"/>
+      <c r="E77" s="103"/>
+      <c r="F77" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="H77" s="13"/>
+      <c r="I77" s="103"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+    </row>
+    <row r="78" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="93">
+        <v>17</v>
+      </c>
+      <c r="B78" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="C78" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="D78" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H78" s="11"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+    </row>
+    <row r="79" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="82"/>
+      <c r="B79" s="69"/>
+      <c r="C79" s="69"/>
+      <c r="D79" s="69"/>
+      <c r="E79" s="69"/>
+      <c r="F79" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H79" s="13"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+    </row>
+    <row r="80" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="82"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H80" s="13"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+    </row>
+    <row r="81" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A81" s="82"/>
+      <c r="B81" s="69"/>
+      <c r="C81" s="69"/>
+      <c r="D81" s="69"/>
+      <c r="E81" s="69"/>
+      <c r="F81" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="H81" s="26"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+    </row>
+    <row r="82" spans="1:11" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="97"/>
+      <c r="B82" s="71"/>
+      <c r="C82" s="71"/>
+      <c r="D82" s="71"/>
+      <c r="E82" s="71"/>
+      <c r="F82" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="G82" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H82" s="32"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="17"/>
+    </row>
+    <row r="83" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="82">
+        <v>18</v>
+      </c>
+      <c r="B83" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="D83" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="F83" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G83" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="H83" s="22"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+    </row>
+    <row r="84" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A84" s="82"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="69"/>
+      <c r="F84" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G84" s="69"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+    </row>
+    <row r="85" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="82"/>
+      <c r="B85" s="69"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="69"/>
+      <c r="F85" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G85" s="69"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+    </row>
+    <row r="86" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A86" s="82"/>
+      <c r="B86" s="69"/>
+      <c r="C86" s="69"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="69"/>
+      <c r="F86" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G86" s="69"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+    </row>
+    <row r="87" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A87" s="82"/>
+      <c r="B87" s="69"/>
+      <c r="C87" s="69"/>
+      <c r="D87" s="69"/>
+      <c r="E87" s="69"/>
+      <c r="F87" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G87" s="69"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+    </row>
+    <row r="88" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A88" s="82"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="69"/>
+      <c r="F88" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G88" s="69"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="23"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+    </row>
+    <row r="89" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="82"/>
+      <c r="B89" s="69"/>
+      <c r="C89" s="69"/>
+      <c r="D89" s="69"/>
+      <c r="E89" s="69"/>
+      <c r="F89" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G89" s="69"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+    </row>
+    <row r="90" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="82"/>
+      <c r="B90" s="69"/>
+      <c r="C90" s="69"/>
+      <c r="D90" s="69"/>
+      <c r="E90" s="69"/>
+      <c r="F90" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G90" s="69"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+    </row>
+    <row r="91" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="82"/>
+      <c r="B91" s="69"/>
+      <c r="C91" s="69"/>
+      <c r="D91" s="69"/>
+      <c r="E91" s="69"/>
+      <c r="F91" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G91" s="69"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+    </row>
+    <row r="92" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="93">
+        <v>19</v>
+      </c>
+      <c r="B92" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C92" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="D92" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="E92" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H92" s="11"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+    </row>
+    <row r="93" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="82"/>
+      <c r="B93" s="69"/>
+      <c r="C93" s="69"/>
+      <c r="D93" s="69"/>
+      <c r="E93" s="69"/>
+      <c r="F93" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H93" s="13"/>
+      <c r="I93" s="23"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+    </row>
+    <row r="94" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="82"/>
+      <c r="B94" s="69"/>
+      <c r="C94" s="69"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="69"/>
+      <c r="F94" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H94" s="13"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+    </row>
+    <row r="95" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A95" s="82"/>
+      <c r="B95" s="69"/>
+      <c r="C95" s="69"/>
+      <c r="D95" s="69"/>
+      <c r="E95" s="69"/>
+      <c r="F95" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H95" s="13"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+    </row>
+    <row r="96" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="82"/>
+      <c r="B96" s="69"/>
+      <c r="C96" s="69"/>
+      <c r="D96" s="69"/>
+      <c r="E96" s="69"/>
+      <c r="F96" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H96" s="13"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+    </row>
+    <row r="97" spans="1:11" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="82"/>
+      <c r="B97" s="69"/>
+      <c r="C97" s="69"/>
+      <c r="D97" s="69"/>
+      <c r="E97" s="69"/>
+      <c r="F97" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G97" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+    </row>
+    <row r="98" spans="1:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="93">
+        <v>20</v>
+      </c>
+      <c r="B98" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="C98" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="D98" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H98" s="11"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+    </row>
+    <row r="99" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="82"/>
+      <c r="B99" s="69"/>
+      <c r="C99" s="69"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="69"/>
+      <c r="F99" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H99" s="13"/>
+      <c r="I99" s="23"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+    </row>
+    <row r="100" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="82"/>
+      <c r="B100" s="69"/>
+      <c r="C100" s="69"/>
+      <c r="D100" s="69"/>
+      <c r="E100" s="69"/>
+      <c r="F100" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H100" s="13"/>
+      <c r="I100" s="23"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+    </row>
+    <row r="101" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A101" s="82"/>
+      <c r="B101" s="69"/>
+      <c r="C101" s="69"/>
+      <c r="D101" s="69"/>
+      <c r="E101" s="69"/>
+      <c r="F101" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H101" s="13"/>
+      <c r="I101" s="23"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
+    </row>
+    <row r="102" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="82"/>
+      <c r="B102" s="69"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="69"/>
+      <c r="E102" s="69"/>
+      <c r="F102" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G102" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
+    </row>
+    <row r="103" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="93">
+        <v>21</v>
+      </c>
+      <c r="B103" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="C103" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="D103" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="E103" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H103" s="11"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
+    </row>
+    <row r="104" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="82"/>
+      <c r="B104" s="69"/>
+      <c r="C104" s="69"/>
+      <c r="D104" s="69"/>
+      <c r="E104" s="69"/>
+      <c r="F104" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H104" s="13"/>
+      <c r="I104" s="23"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="17"/>
+    </row>
+    <row r="105" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="82"/>
+      <c r="B105" s="69"/>
+      <c r="C105" s="69"/>
+      <c r="D105" s="69"/>
+      <c r="E105" s="69"/>
+      <c r="F105" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="H105" s="13"/>
+      <c r="I105" s="23"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+    </row>
+    <row r="106" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="82"/>
+      <c r="B106" s="69"/>
+      <c r="C106" s="69"/>
+      <c r="D106" s="69"/>
+      <c r="E106" s="69"/>
+      <c r="F106" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H106" s="13"/>
+      <c r="I106" s="23"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17"/>
+    </row>
+    <row r="107" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A107" s="82"/>
+      <c r="B107" s="69"/>
+      <c r="C107" s="69"/>
+      <c r="D107" s="69"/>
+      <c r="E107" s="69"/>
+      <c r="F107" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G107" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H107" s="13"/>
+      <c r="I107" s="23"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+    </row>
+    <row r="108" spans="1:11" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="82"/>
+      <c r="B108" s="69"/>
+      <c r="C108" s="69"/>
+      <c r="D108" s="69"/>
+      <c r="E108" s="69"/>
+      <c r="F108" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G108" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="24"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+    </row>
+    <row r="109" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="93">
+        <v>22</v>
+      </c>
+      <c r="B109" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="C109" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="D109" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="E109" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H109" s="11"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+    </row>
+    <row r="110" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A110" s="82"/>
+      <c r="B110" s="69"/>
+      <c r="C110" s="69"/>
+      <c r="D110" s="69"/>
+      <c r="E110" s="69"/>
+      <c r="F110" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H110" s="13"/>
+      <c r="I110" s="23"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="17"/>
+    </row>
+    <row r="111" spans="1:11" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="97"/>
+      <c r="B111" s="71"/>
+      <c r="C111" s="71"/>
+      <c r="D111" s="71"/>
+      <c r="E111" s="71"/>
+      <c r="F111" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="G111" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H111" s="19"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="17"/>
+    </row>
+    <row r="112" spans="1:11" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="88">
+        <v>23</v>
+      </c>
+      <c r="B112" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="C112" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="D112" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="E112" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="F112" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="G112" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H112" s="11"/>
+      <c r="I112" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
+    </row>
+    <row r="113" spans="1:11" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="88"/>
+      <c r="B113" s="92"/>
+      <c r="C113" s="70"/>
+      <c r="D113" s="70"/>
+      <c r="E113" s="70"/>
+      <c r="F113" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H113" s="13"/>
+      <c r="I113" s="91"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="17"/>
+    </row>
+    <row r="114" spans="1:11" ht="55.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="88">
+        <v>24</v>
+      </c>
+      <c r="B114" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="C114" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="D114" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="E60" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H60" s="11"/>
-      <c r="I60" s="30" t="s">
+      <c r="E114" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="F114" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G114" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H114" s="11"/>
+      <c r="I114" s="83" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="20"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H61" s="13"/>
-      <c r="I61" s="30"/>
-    </row>
-    <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="20"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="30"/>
-    </row>
-    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="20"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="30"/>
-    </row>
-    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="20"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="30"/>
-    </row>
-    <row r="65" spans="1:9" ht="67.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="20">
-        <v>14</v>
-      </c>
-      <c r="B65" s="21" t="s">
+      <c r="J114" s="17"/>
+    </row>
+    <row r="115" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="88"/>
+      <c r="B115" s="89"/>
+      <c r="C115" s="90"/>
+      <c r="D115" s="90"/>
+      <c r="E115" s="90"/>
+      <c r="F115" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H115" s="13"/>
+      <c r="I115" s="83"/>
+      <c r="J115" s="17"/>
+    </row>
+    <row r="116" spans="1:11" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="84">
+        <v>25</v>
+      </c>
+      <c r="B116" s="85" t="s">
+        <v>84</v>
+      </c>
+      <c r="C116" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="D116" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="E116" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="F116" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D65" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E65" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="F65" s="10" t="s">
+      <c r="G116" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G65" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="H65" s="11"/>
-      <c r="I65" s="23" t="s">
+      <c r="H116" s="11"/>
+      <c r="I116" s="87" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="20"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="12" t="s">
+    <row r="117" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="84"/>
+      <c r="B117" s="85"/>
+      <c r="C117" s="86"/>
+      <c r="D117" s="86"/>
+      <c r="E117" s="86"/>
+      <c r="F117" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G117" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G66" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H66" s="13"/>
-      <c r="I66" s="23"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="20"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="23"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="20"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="23"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="20"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="23"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="20"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="23"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="20"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="23"/>
-    </row>
-    <row r="72" spans="1:9" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="24">
-        <v>15</v>
-      </c>
-      <c r="B72" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D72" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E72" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="H72" s="11"/>
-      <c r="I72" s="27" t="s">
+      <c r="H117" s="13"/>
+      <c r="I117" s="87"/>
+    </row>
+    <row r="118" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A118" s="99">
+        <v>26</v>
+      </c>
+      <c r="B118" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="C118" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="D118" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E118" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G118" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="H118" s="38"/>
+      <c r="I118" s="78" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="100"/>
+      <c r="B119" s="69"/>
+      <c r="C119" s="69"/>
+      <c r="D119" s="76"/>
+      <c r="E119" s="69"/>
+      <c r="F119" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G119" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="H119" s="26"/>
+      <c r="I119" s="79"/>
+    </row>
+    <row r="120" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A120" s="100"/>
+      <c r="B120" s="69"/>
+      <c r="C120" s="69"/>
+      <c r="D120" s="76"/>
+      <c r="E120" s="69"/>
+      <c r="F120" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G120" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="H120" s="26"/>
+      <c r="I120" s="79"/>
+    </row>
+    <row r="121" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="100"/>
+      <c r="B121" s="69"/>
+      <c r="C121" s="69"/>
+      <c r="D121" s="76"/>
+      <c r="E121" s="69"/>
+      <c r="F121" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="G121" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="H121" s="41"/>
+      <c r="I121" s="79"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="72">
+        <v>27</v>
+      </c>
+      <c r="B122" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C122" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="D122" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E122" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G122" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="H122" s="38"/>
+      <c r="I122" s="78" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="24"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G73" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H73" s="13"/>
-      <c r="I73" s="27"/>
-    </row>
-    <row r="74" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="24"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="27"/>
-    </row>
-    <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="24"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="27"/>
-    </row>
-    <row r="76" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="24"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="27"/>
-    </row>
-    <row r="77" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="24"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="27"/>
-    </row>
+    <row r="123" spans="1:11" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="73"/>
+      <c r="B123" s="64"/>
+      <c r="C123" s="69"/>
+      <c r="D123" s="76"/>
+      <c r="E123" s="69"/>
+      <c r="F123" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G123" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="H123" s="26"/>
+      <c r="I123" s="79"/>
+    </row>
+    <row r="124" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="74"/>
+      <c r="B124" s="65"/>
+      <c r="C124" s="71"/>
+      <c r="D124" s="77"/>
+      <c r="E124" s="71"/>
+      <c r="F124" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G124" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="H124" s="32"/>
+      <c r="I124" s="80"/>
+    </row>
+    <row r="125" spans="1:11" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="42">
+        <v>28</v>
+      </c>
+      <c r="B125" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C125" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="D125" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="F125" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="G125" s="46"/>
+      <c r="H125" s="46"/>
+      <c r="I125" s="47" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="57">
+        <v>29</v>
+      </c>
+      <c r="B126" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="C126" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="D126" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="E126" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="F126" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="G126" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="H126" s="38"/>
+      <c r="I126" s="78" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="58"/>
+      <c r="B127" s="61"/>
+      <c r="C127" s="61"/>
+      <c r="D127" s="64"/>
+      <c r="E127" s="61"/>
+      <c r="F127" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="G127" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="H127" s="26"/>
+      <c r="I127" s="79"/>
+    </row>
+    <row r="128" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="58"/>
+      <c r="B128" s="61"/>
+      <c r="C128" s="61"/>
+      <c r="D128" s="64"/>
+      <c r="E128" s="61"/>
+      <c r="F128" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="G128" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="H128" s="41"/>
+      <c r="I128" s="79"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="57">
+        <v>30</v>
+      </c>
+      <c r="B129" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="C129" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="D129" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="E129" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="F129" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="G129" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="H129" s="38"/>
+      <c r="I129" s="66" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" s="58"/>
+      <c r="B130" s="61"/>
+      <c r="C130" s="61"/>
+      <c r="D130" s="64"/>
+      <c r="E130" s="61"/>
+      <c r="F130" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="G130" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="H130" s="26"/>
+      <c r="I130" s="67"/>
+    </row>
+    <row r="131" spans="1:9" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="59"/>
+      <c r="B131" s="62"/>
+      <c r="C131" s="62"/>
+      <c r="D131" s="65"/>
+      <c r="E131" s="62"/>
+      <c r="F131" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="G131" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="H131" s="32"/>
+      <c r="I131" s="68"/>
+    </row>
+    <row r="133" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="90">
+  <mergeCells count="169">
+    <mergeCell ref="A103:A108"/>
+    <mergeCell ref="B103:B108"/>
+    <mergeCell ref="C103:C108"/>
+    <mergeCell ref="D103:D108"/>
+    <mergeCell ref="E103:E108"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="E60:E64"/>
+    <mergeCell ref="I118:I121"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="E70:E74"/>
+    <mergeCell ref="I70:I74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="E109:E111"/>
+    <mergeCell ref="C92:C97"/>
+    <mergeCell ref="D92:D97"/>
+    <mergeCell ref="E92:E97"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="D98:D102"/>
+    <mergeCell ref="E98:E102"/>
+    <mergeCell ref="I60:I64"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="E78:E82"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="C65:C69"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="I65:I69"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="D70:D74"/>
     <mergeCell ref="I2:I5"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="B6:B11"/>
@@ -2450,6 +4310,14 @@
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="D20:D23"/>
     <mergeCell ref="E20:E23"/>
+    <mergeCell ref="I48:I55"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="I56:I59"/>
+    <mergeCell ref="A48:A55"/>
     <mergeCell ref="I28:I31"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
@@ -2474,39 +4342,57 @@
     <mergeCell ref="C36:C39"/>
     <mergeCell ref="D36:D39"/>
     <mergeCell ref="E36:E39"/>
-    <mergeCell ref="I60:I64"/>
-    <mergeCell ref="A48:A55"/>
     <mergeCell ref="B48:B55"/>
     <mergeCell ref="C48:C55"/>
     <mergeCell ref="D48:D55"/>
     <mergeCell ref="E48:E55"/>
-    <mergeCell ref="I48:I55"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="I56:I59"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="D60:D64"/>
-    <mergeCell ref="E60:E64"/>
-    <mergeCell ref="I65:I71"/>
-    <mergeCell ref="A72:A77"/>
-    <mergeCell ref="B72:B77"/>
-    <mergeCell ref="C72:C77"/>
-    <mergeCell ref="D72:D77"/>
-    <mergeCell ref="E72:E77"/>
-    <mergeCell ref="I72:I77"/>
-    <mergeCell ref="A65:A71"/>
-    <mergeCell ref="B65:B71"/>
-    <mergeCell ref="C65:C71"/>
-    <mergeCell ref="D65:D71"/>
-    <mergeCell ref="E65:E71"/>
+    <mergeCell ref="A83:A91"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="I114:I115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="I116:I117"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="G83:G91"/>
+    <mergeCell ref="E83:E91"/>
+    <mergeCell ref="D83:D91"/>
+    <mergeCell ref="C83:C91"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="D129:D131"/>
+    <mergeCell ref="E129:E131"/>
+    <mergeCell ref="I129:I131"/>
+    <mergeCell ref="B83:B91"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="E122:E124"/>
+    <mergeCell ref="D122:D124"/>
+    <mergeCell ref="I122:I124"/>
+    <mergeCell ref="E126:E128"/>
+    <mergeCell ref="D126:D128"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="I126:I128"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="B92:B97"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Netology\Qa-Diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AC296F-92CD-4A3A-BFA5-70B6D805B156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18B74CD-DB64-488E-AAA1-B26FF86AD966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1109,7 +1109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1265,6 +1265,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1301,15 +1391,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1319,92 +1400,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1756,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78:E82"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1803,19 +1824,19 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="93">
+      <c r="A2" s="58">
         <v>1</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="60" t="s">
         <v>89</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -1825,16 +1846,16 @@
         <v>11</v>
       </c>
       <c r="H2" s="11"/>
-      <c r="I2" s="91" t="s">
+      <c r="I2" s="77" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="93"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
       <c r="F3" s="12" t="s">
         <v>13</v>
       </c>
@@ -1842,14 +1863,14 @@
         <v>14</v>
       </c>
       <c r="H3" s="13"/>
-      <c r="I3" s="91"/>
+      <c r="I3" s="77"/>
     </row>
     <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="93"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="12" t="s">
         <v>15</v>
       </c>
@@ -1857,14 +1878,14 @@
         <v>16</v>
       </c>
       <c r="H4" s="13"/>
-      <c r="I4" s="91"/>
+      <c r="I4" s="77"/>
     </row>
     <row r="5" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="93"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="14" t="s">
         <v>17</v>
       </c>
@@ -1872,22 +1893,22 @@
         <v>18</v>
       </c>
       <c r="H5" s="15"/>
-      <c r="I5" s="91"/>
+      <c r="I5" s="77"/>
     </row>
     <row r="6" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="93">
+      <c r="A6" s="58">
         <v>2</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="60" t="s">
         <v>89</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1897,16 +1918,16 @@
         <v>11</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="91" t="s">
+      <c r="I6" s="77" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="93"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="12" t="s">
         <v>13</v>
       </c>
@@ -1914,14 +1935,14 @@
         <v>14</v>
       </c>
       <c r="H7" s="13"/>
-      <c r="I7" s="91"/>
+      <c r="I7" s="77"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="93"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="12" t="s">
         <v>15</v>
       </c>
@@ -1929,14 +1950,14 @@
         <v>16</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="91"/>
+      <c r="I8" s="77"/>
     </row>
     <row r="9" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="93"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="12" t="s">
         <v>17</v>
       </c>
@@ -1944,14 +1965,14 @@
         <v>18</v>
       </c>
       <c r="H9" s="13"/>
-      <c r="I9" s="91"/>
+      <c r="I9" s="77"/>
     </row>
     <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="93"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="12" t="s">
         <v>20</v>
       </c>
@@ -1959,14 +1980,14 @@
         <v>21</v>
       </c>
       <c r="H10" s="13"/>
-      <c r="I10" s="91"/>
+      <c r="I10" s="77"/>
     </row>
     <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="93"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="14" t="s">
         <v>22</v>
       </c>
@@ -1974,22 +1995,22 @@
         <v>23</v>
       </c>
       <c r="H11" s="15"/>
-      <c r="I11" s="91"/>
+      <c r="I11" s="77"/>
     </row>
     <row r="12" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="93">
+      <c r="A12" s="58">
         <v>3</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="94" t="s">
+      <c r="D12" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="60" t="s">
         <v>89</v>
       </c>
       <c r="F12" s="10" t="s">
@@ -1999,16 +2020,16 @@
         <v>11</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="91" t="s">
+      <c r="I12" s="77" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="93"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="70"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="60"/>
       <c r="F13" s="12" t="s">
         <v>93</v>
       </c>
@@ -2016,14 +2037,14 @@
         <v>26</v>
       </c>
       <c r="H13" s="13"/>
-      <c r="I13" s="91"/>
+      <c r="I13" s="77"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="93"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="70"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="60"/>
       <c r="F14" s="12" t="s">
         <v>27</v>
       </c>
@@ -2031,14 +2052,14 @@
         <v>28</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="91"/>
+      <c r="I14" s="77"/>
     </row>
     <row r="15" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="93"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="70"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="60"/>
       <c r="F15" s="14" t="s">
         <v>17</v>
       </c>
@@ -2046,22 +2067,22 @@
         <v>29</v>
       </c>
       <c r="H15" s="15"/>
-      <c r="I15" s="91"/>
+      <c r="I15" s="77"/>
     </row>
     <row r="16" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="93">
+      <c r="A16" s="58">
         <v>4</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="94" t="s">
+      <c r="D16" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="70" t="s">
+      <c r="E16" s="60" t="s">
         <v>89</v>
       </c>
       <c r="F16" s="10" t="s">
@@ -2071,16 +2092,16 @@
         <v>11</v>
       </c>
       <c r="H16" s="11"/>
-      <c r="I16" s="91" t="s">
+      <c r="I16" s="77" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="93"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="70"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="60"/>
       <c r="F17" s="12" t="s">
         <v>31</v>
       </c>
@@ -2088,14 +2109,14 @@
         <v>14</v>
       </c>
       <c r="H17" s="13"/>
-      <c r="I17" s="91"/>
+      <c r="I17" s="77"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="93"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="70"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="12" t="s">
         <v>15</v>
       </c>
@@ -2103,14 +2124,14 @@
         <v>16</v>
       </c>
       <c r="H18" s="13"/>
-      <c r="I18" s="91"/>
+      <c r="I18" s="77"/>
     </row>
     <row r="19" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="93"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="70"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="60"/>
       <c r="F19" s="14" t="s">
         <v>17</v>
       </c>
@@ -2118,22 +2139,22 @@
         <v>32</v>
       </c>
       <c r="H19" s="15"/>
-      <c r="I19" s="91"/>
+      <c r="I19" s="77"/>
     </row>
     <row r="20" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="93">
+      <c r="A20" s="58">
         <v>5</v>
       </c>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="94" t="s">
+      <c r="D20" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="70" t="s">
+      <c r="E20" s="60" t="s">
         <v>89</v>
       </c>
       <c r="F20" s="10" t="s">
@@ -2143,16 +2164,16 @@
         <v>11</v>
       </c>
       <c r="H20" s="11"/>
-      <c r="I20" s="91" t="s">
+      <c r="I20" s="77" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="93"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="70"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="60"/>
       <c r="F21" s="12" t="s">
         <v>13</v>
       </c>
@@ -2160,14 +2181,14 @@
         <v>14</v>
       </c>
       <c r="H21" s="13"/>
-      <c r="I21" s="91"/>
+      <c r="I21" s="77"/>
     </row>
     <row r="22" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="93"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="70"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="60"/>
       <c r="F22" s="12" t="s">
         <v>34</v>
       </c>
@@ -2175,14 +2196,14 @@
         <v>16</v>
       </c>
       <c r="H22" s="13"/>
-      <c r="I22" s="91"/>
+      <c r="I22" s="77"/>
     </row>
     <row r="23" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="93"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="70"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="60"/>
       <c r="F23" s="14" t="s">
         <v>17</v>
       </c>
@@ -2190,22 +2211,22 @@
         <v>32</v>
       </c>
       <c r="H23" s="15"/>
-      <c r="I23" s="91"/>
+      <c r="I23" s="77"/>
     </row>
     <row r="24" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="93">
+      <c r="A24" s="58">
         <v>6</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="70" t="s">
+      <c r="D24" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="70" t="s">
+      <c r="E24" s="60" t="s">
         <v>89</v>
       </c>
       <c r="F24" s="10" t="s">
@@ -2215,16 +2236,16 @@
         <v>11</v>
       </c>
       <c r="H24" s="11"/>
-      <c r="I24" s="91" t="s">
+      <c r="I24" s="77" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="93"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
       <c r="F25" s="12" t="s">
         <v>38</v>
       </c>
@@ -2232,14 +2253,14 @@
         <v>14</v>
       </c>
       <c r="H25" s="13"/>
-      <c r="I25" s="91"/>
+      <c r="I25" s="77"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="93"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
       <c r="F26" s="12" t="s">
         <v>15</v>
       </c>
@@ -2247,14 +2268,14 @@
         <v>16</v>
       </c>
       <c r="H26" s="13"/>
-      <c r="I26" s="91"/>
+      <c r="I26" s="77"/>
     </row>
     <row r="27" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="93"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
       <c r="F27" s="14" t="s">
         <v>17</v>
       </c>
@@ -2262,22 +2283,22 @@
         <v>39</v>
       </c>
       <c r="H27" s="15"/>
-      <c r="I27" s="91"/>
+      <c r="I27" s="77"/>
     </row>
     <row r="28" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="93">
+      <c r="A28" s="58">
         <v>7</v>
       </c>
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="70" t="s">
+      <c r="D28" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="70" t="s">
+      <c r="E28" s="60" t="s">
         <v>89</v>
       </c>
       <c r="F28" s="10" t="s">
@@ -2287,16 +2308,16 @@
         <v>11</v>
       </c>
       <c r="H28" s="11"/>
-      <c r="I28" s="91" t="s">
+      <c r="I28" s="77" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="93"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
       <c r="F29" s="12" t="s">
         <v>41</v>
       </c>
@@ -2304,14 +2325,14 @@
         <v>14</v>
       </c>
       <c r="H29" s="13"/>
-      <c r="I29" s="91"/>
+      <c r="I29" s="77"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="93"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
       <c r="F30" s="12" t="s">
         <v>15</v>
       </c>
@@ -2319,14 +2340,14 @@
         <v>16</v>
       </c>
       <c r="H30" s="13"/>
-      <c r="I30" s="91"/>
+      <c r="I30" s="77"/>
     </row>
     <row r="31" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="93"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
       <c r="F31" s="14" t="s">
         <v>17</v>
       </c>
@@ -2334,22 +2355,22 @@
         <v>39</v>
       </c>
       <c r="H31" s="15"/>
-      <c r="I31" s="91"/>
+      <c r="I31" s="77"/>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="93">
+      <c r="A32" s="58">
         <v>8</v>
       </c>
-      <c r="B32" s="81" t="s">
+      <c r="B32" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="70" t="s">
+      <c r="C32" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="70" t="s">
+      <c r="D32" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="70" t="s">
+      <c r="E32" s="60" t="s">
         <v>89</v>
       </c>
       <c r="F32" s="10" t="s">
@@ -2359,16 +2380,16 @@
         <v>11</v>
       </c>
       <c r="H32" s="11"/>
-      <c r="I32" s="91" t="s">
+      <c r="I32" s="77" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="93"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
       <c r="F33" s="12" t="s">
         <v>13</v>
       </c>
@@ -2376,14 +2397,14 @@
         <v>14</v>
       </c>
       <c r="H33" s="13"/>
-      <c r="I33" s="91"/>
+      <c r="I33" s="77"/>
     </row>
     <row r="34" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="93"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
       <c r="F34" s="12" t="s">
         <v>43</v>
       </c>
@@ -2391,14 +2412,14 @@
         <v>16</v>
       </c>
       <c r="H34" s="13"/>
-      <c r="I34" s="91"/>
+      <c r="I34" s="77"/>
     </row>
     <row r="35" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="93"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
       <c r="F35" s="14" t="s">
         <v>17</v>
       </c>
@@ -2406,22 +2427,22 @@
         <v>39</v>
       </c>
       <c r="H35" s="15"/>
-      <c r="I35" s="91"/>
+      <c r="I35" s="77"/>
     </row>
     <row r="36" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="93">
+      <c r="A36" s="58">
         <v>9</v>
       </c>
-      <c r="B36" s="81" t="s">
+      <c r="B36" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="70" t="s">
+      <c r="C36" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="70" t="s">
+      <c r="D36" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="70" t="s">
+      <c r="E36" s="60" t="s">
         <v>89</v>
       </c>
       <c r="F36" s="10" t="s">
@@ -2431,16 +2452,16 @@
         <v>11</v>
       </c>
       <c r="H36" s="11"/>
-      <c r="I36" s="91" t="s">
+      <c r="I36" s="77" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="93"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
       <c r="F37" s="12" t="s">
         <v>13</v>
       </c>
@@ -2448,14 +2469,14 @@
         <v>14</v>
       </c>
       <c r="H37" s="13"/>
-      <c r="I37" s="91"/>
+      <c r="I37" s="77"/>
     </row>
     <row r="38" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="93"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
       <c r="F38" s="12" t="s">
         <v>45</v>
       </c>
@@ -2463,14 +2484,14 @@
         <v>16</v>
       </c>
       <c r="H38" s="13"/>
-      <c r="I38" s="91"/>
+      <c r="I38" s="77"/>
     </row>
     <row r="39" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="93"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
       <c r="F39" s="14" t="s">
         <v>17</v>
       </c>
@@ -2478,22 +2499,22 @@
         <v>39</v>
       </c>
       <c r="H39" s="15"/>
-      <c r="I39" s="91"/>
+      <c r="I39" s="77"/>
     </row>
     <row r="40" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="93">
+      <c r="A40" s="58">
         <v>10</v>
       </c>
-      <c r="B40" s="81" t="s">
+      <c r="B40" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="70" t="s">
+      <c r="C40" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="70" t="s">
+      <c r="D40" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="70" t="s">
+      <c r="E40" s="60" t="s">
         <v>90</v>
       </c>
       <c r="F40" s="10" t="s">
@@ -2503,16 +2524,16 @@
         <v>49</v>
       </c>
       <c r="H40" s="11"/>
-      <c r="I40" s="91" t="s">
+      <c r="I40" s="77" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="93"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
       <c r="F41" s="12" t="s">
         <v>50</v>
       </c>
@@ -2520,14 +2541,14 @@
         <v>51</v>
       </c>
       <c r="H41" s="13"/>
-      <c r="I41" s="91"/>
+      <c r="I41" s="77"/>
     </row>
     <row r="42" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="93"/>
-      <c r="B42" s="81"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
+      <c r="A42" s="58"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
       <c r="F42" s="12" t="s">
         <v>52</v>
       </c>
@@ -2535,14 +2556,14 @@
         <v>53</v>
       </c>
       <c r="H42" s="13"/>
-      <c r="I42" s="91"/>
+      <c r="I42" s="77"/>
     </row>
     <row r="43" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="93"/>
-      <c r="B43" s="81"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
       <c r="F43" s="12" t="s">
         <v>54</v>
       </c>
@@ -2550,14 +2571,14 @@
         <v>55</v>
       </c>
       <c r="H43" s="13"/>
-      <c r="I43" s="91"/>
+      <c r="I43" s="77"/>
     </row>
     <row r="44" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="93"/>
-      <c r="B44" s="81"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
       <c r="F44" s="12" t="s">
         <v>56</v>
       </c>
@@ -2565,14 +2586,14 @@
         <v>57</v>
       </c>
       <c r="H44" s="13"/>
-      <c r="I44" s="91"/>
+      <c r="I44" s="77"/>
     </row>
     <row r="45" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="93"/>
-      <c r="B45" s="81"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
       <c r="F45" s="12" t="s">
         <v>86</v>
       </c>
@@ -2580,14 +2601,14 @@
         <v>58</v>
       </c>
       <c r="H45" s="13"/>
-      <c r="I45" s="91"/>
+      <c r="I45" s="77"/>
     </row>
     <row r="46" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="93"/>
-      <c r="B46" s="81"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
       <c r="F46" s="12" t="s">
         <v>59</v>
       </c>
@@ -2595,14 +2616,14 @@
         <v>60</v>
       </c>
       <c r="H46" s="13"/>
-      <c r="I46" s="91"/>
+      <c r="I46" s="77"/>
     </row>
     <row r="47" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="93"/>
-      <c r="B47" s="81"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
       <c r="F47" s="14" t="s">
         <v>61</v>
       </c>
@@ -2610,22 +2631,22 @@
         <v>62</v>
       </c>
       <c r="H47" s="15"/>
-      <c r="I47" s="91"/>
+      <c r="I47" s="77"/>
     </row>
     <row r="48" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="93">
+      <c r="A48" s="58">
         <v>11</v>
       </c>
-      <c r="B48" s="81" t="s">
+      <c r="B48" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="70" t="s">
+      <c r="C48" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="70" t="s">
+      <c r="D48" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="70" t="s">
+      <c r="E48" s="60" t="s">
         <v>90</v>
       </c>
       <c r="F48" s="10" t="s">
@@ -2635,18 +2656,18 @@
         <v>49</v>
       </c>
       <c r="H48" s="11"/>
-      <c r="I48" s="91" t="s">
+      <c r="I48" s="77" t="s">
         <v>12</v>
       </c>
       <c r="J48" s="17"/>
       <c r="K48" s="17"/>
     </row>
     <row r="49" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="93"/>
-      <c r="B49" s="81"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
       <c r="F49" s="12" t="s">
         <v>50</v>
       </c>
@@ -2654,16 +2675,16 @@
         <v>51</v>
       </c>
       <c r="H49" s="13"/>
-      <c r="I49" s="91"/>
+      <c r="I49" s="77"/>
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
     </row>
     <row r="50" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="93"/>
-      <c r="B50" s="81"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="78"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
       <c r="F50" s="12" t="s">
         <v>65</v>
       </c>
@@ -2671,16 +2692,16 @@
         <v>53</v>
       </c>
       <c r="H50" s="13"/>
-      <c r="I50" s="91"/>
+      <c r="I50" s="77"/>
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
     </row>
     <row r="51" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="93"/>
-      <c r="B51" s="81"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
       <c r="F51" s="12" t="s">
         <v>54</v>
       </c>
@@ -2688,16 +2709,16 @@
         <v>55</v>
       </c>
       <c r="H51" s="13"/>
-      <c r="I51" s="91"/>
+      <c r="I51" s="77"/>
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
     </row>
     <row r="52" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="93"/>
-      <c r="B52" s="81"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
+      <c r="A52" s="58"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
       <c r="F52" s="12" t="s">
         <v>56</v>
       </c>
@@ -2705,16 +2726,16 @@
         <v>57</v>
       </c>
       <c r="H52" s="13"/>
-      <c r="I52" s="91"/>
+      <c r="I52" s="77"/>
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
     </row>
     <row r="53" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="93"/>
-      <c r="B53" s="81"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
+      <c r="A53" s="58"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
       <c r="F53" s="12" t="s">
         <v>86</v>
       </c>
@@ -2722,16 +2743,16 @@
         <v>58</v>
       </c>
       <c r="H53" s="13"/>
-      <c r="I53" s="91"/>
+      <c r="I53" s="77"/>
       <c r="J53" s="17"/>
       <c r="K53" s="17"/>
     </row>
     <row r="54" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="93"/>
-      <c r="B54" s="81"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
+      <c r="A54" s="58"/>
+      <c r="B54" s="78"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
       <c r="F54" s="12" t="s">
         <v>59</v>
       </c>
@@ -2739,16 +2760,16 @@
         <v>60</v>
       </c>
       <c r="H54" s="13"/>
-      <c r="I54" s="91"/>
+      <c r="I54" s="77"/>
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
     </row>
     <row r="55" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="93"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
+      <c r="A55" s="58"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
       <c r="F55" s="14" t="s">
         <v>61</v>
       </c>
@@ -2756,24 +2777,24 @@
         <v>62</v>
       </c>
       <c r="H55" s="15"/>
-      <c r="I55" s="91"/>
+      <c r="I55" s="77"/>
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
     </row>
     <row r="56" spans="1:11" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="93">
+      <c r="A56" s="58">
         <v>12</v>
       </c>
-      <c r="B56" s="81" t="s">
+      <c r="B56" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="70" t="s">
+      <c r="C56" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="D56" s="70" t="s">
+      <c r="D56" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="E56" s="70" t="s">
+      <c r="E56" s="60" t="s">
         <v>90</v>
       </c>
       <c r="F56" s="10" t="s">
@@ -2783,18 +2804,18 @@
         <v>49</v>
       </c>
       <c r="H56" s="11"/>
-      <c r="I56" s="91" t="s">
+      <c r="I56" s="77" t="s">
         <v>12</v>
       </c>
       <c r="J56" s="17"/>
       <c r="K56" s="17"/>
     </row>
     <row r="57" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="93"/>
-      <c r="B57" s="81"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
+      <c r="A57" s="58"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
       <c r="F57" s="12" t="s">
         <v>68</v>
       </c>
@@ -2802,16 +2823,16 @@
         <v>69</v>
       </c>
       <c r="H57" s="13"/>
-      <c r="I57" s="91"/>
+      <c r="I57" s="77"/>
       <c r="J57" s="17"/>
       <c r="K57" s="17"/>
     </row>
     <row r="58" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="93"/>
-      <c r="B58" s="81"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="70"/>
+      <c r="A58" s="58"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
       <c r="F58" s="12" t="s">
         <v>87</v>
       </c>
@@ -2819,16 +2840,16 @@
         <v>88</v>
       </c>
       <c r="H58" s="13"/>
-      <c r="I58" s="91"/>
+      <c r="I58" s="77"/>
       <c r="J58" s="17"/>
       <c r="K58" s="17"/>
     </row>
     <row r="59" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="93"/>
-      <c r="B59" s="81"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="70"/>
+      <c r="A59" s="58"/>
+      <c r="B59" s="78"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
       <c r="F59" s="14" t="s">
         <v>70</v>
       </c>
@@ -2836,24 +2857,24 @@
         <v>71</v>
       </c>
       <c r="H59" s="15"/>
-      <c r="I59" s="91"/>
+      <c r="I59" s="77"/>
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
     </row>
     <row r="60" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="93">
+      <c r="A60" s="58">
         <v>13</v>
       </c>
-      <c r="B60" s="70" t="s">
+      <c r="B60" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="C60" s="70" t="s">
+      <c r="C60" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="D60" s="70" t="s">
+      <c r="D60" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="E60" s="70" t="s">
+      <c r="E60" s="60" t="s">
         <v>90</v>
       </c>
       <c r="F60" s="10" t="s">
@@ -2863,18 +2884,18 @@
         <v>49</v>
       </c>
       <c r="H60" s="11"/>
-      <c r="I60" s="95" t="s">
+      <c r="I60" s="69" t="s">
         <v>12</v>
       </c>
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
     </row>
     <row r="61" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="82"/>
-      <c r="B61" s="69"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="69"/>
+      <c r="A61" s="59"/>
+      <c r="B61" s="105"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
       <c r="F61" s="12" t="s">
         <v>68</v>
       </c>
@@ -2882,16 +2903,16 @@
         <v>69</v>
       </c>
       <c r="H61" s="13"/>
-      <c r="I61" s="96"/>
+      <c r="I61" s="70"/>
       <c r="J61" s="17"/>
       <c r="K61" s="17"/>
     </row>
     <row r="62" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="82"/>
-      <c r="B62" s="69"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="69"/>
-      <c r="E62" s="69"/>
+      <c r="A62" s="59"/>
+      <c r="B62" s="105"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
       <c r="F62" s="12" t="s">
         <v>143</v>
       </c>
@@ -2899,16 +2920,16 @@
         <v>146</v>
       </c>
       <c r="H62" s="13"/>
-      <c r="I62" s="96"/>
+      <c r="I62" s="70"/>
       <c r="J62" s="17"/>
       <c r="K62" s="17"/>
     </row>
     <row r="63" spans="1:11" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="82"/>
-      <c r="B63" s="69"/>
-      <c r="C63" s="69"/>
-      <c r="D63" s="69"/>
-      <c r="E63" s="69"/>
+      <c r="A63" s="59"/>
+      <c r="B63" s="105"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
       <c r="F63" s="12" t="s">
         <v>144</v>
       </c>
@@ -2916,16 +2937,16 @@
         <v>147</v>
       </c>
       <c r="H63" s="13"/>
-      <c r="I63" s="96"/>
+      <c r="I63" s="70"/>
       <c r="J63" s="17"/>
       <c r="K63" s="17"/>
     </row>
     <row r="64" spans="1:11" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="82"/>
-      <c r="B64" s="69"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="69"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="105"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
       <c r="F64" s="14" t="s">
         <v>145</v>
       </c>
@@ -2933,24 +2954,24 @@
         <v>148</v>
       </c>
       <c r="H64" s="15"/>
-      <c r="I64" s="96"/>
+      <c r="I64" s="70"/>
       <c r="J64" s="17"/>
       <c r="K64" s="17"/>
     </row>
     <row r="65" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="93">
+      <c r="A65" s="58">
         <v>14</v>
       </c>
-      <c r="B65" s="70" t="s">
+      <c r="B65" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="C65" s="70" t="s">
+      <c r="C65" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="D65" s="70" t="s">
+      <c r="D65" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="70" t="s">
+      <c r="E65" s="60" t="s">
         <v>90</v>
       </c>
       <c r="F65" s="10" t="s">
@@ -2960,18 +2981,18 @@
         <v>110</v>
       </c>
       <c r="H65" s="11"/>
-      <c r="I65" s="95" t="s">
+      <c r="I65" s="69" t="s">
         <v>163</v>
       </c>
       <c r="J65" s="17"/>
       <c r="K65" s="17"/>
     </row>
     <row r="66" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="82"/>
-      <c r="B66" s="69"/>
-      <c r="C66" s="69"/>
-      <c r="D66" s="69"/>
-      <c r="E66" s="69"/>
+      <c r="A66" s="59"/>
+      <c r="B66" s="105"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
       <c r="F66" s="12" t="s">
         <v>111</v>
       </c>
@@ -2979,16 +3000,16 @@
         <v>168</v>
       </c>
       <c r="H66" s="13"/>
-      <c r="I66" s="96"/>
+      <c r="I66" s="70"/>
       <c r="J66" s="17"/>
       <c r="K66" s="17"/>
     </row>
     <row r="67" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="82"/>
-      <c r="B67" s="69"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="69"/>
-      <c r="E67" s="69"/>
+      <c r="A67" s="59"/>
+      <c r="B67" s="105"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
       <c r="F67" s="12" t="s">
         <v>158</v>
       </c>
@@ -2996,16 +3017,16 @@
         <v>113</v>
       </c>
       <c r="H67" s="13"/>
-      <c r="I67" s="96"/>
+      <c r="I67" s="70"/>
       <c r="J67" s="17"/>
       <c r="K67" s="17"/>
     </row>
     <row r="68" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="82"/>
-      <c r="B68" s="69"/>
-      <c r="C68" s="69"/>
-      <c r="D68" s="69"/>
-      <c r="E68" s="69"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="105"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="61"/>
+      <c r="E68" s="61"/>
       <c r="F68" s="12" t="s">
         <v>159</v>
       </c>
@@ -3013,16 +3034,16 @@
         <v>161</v>
       </c>
       <c r="H68" s="13"/>
-      <c r="I68" s="96"/>
+      <c r="I68" s="70"/>
       <c r="J68" s="17"/>
       <c r="K68" s="17"/>
     </row>
     <row r="69" spans="1:11" ht="64.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="97"/>
-      <c r="B69" s="71"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="71"/>
+      <c r="A69" s="76"/>
+      <c r="B69" s="109"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="68"/>
       <c r="F69" s="18" t="s">
         <v>160</v>
       </c>
@@ -3030,24 +3051,24 @@
         <v>162</v>
       </c>
       <c r="H69" s="19"/>
-      <c r="I69" s="98"/>
+      <c r="I69" s="71"/>
       <c r="J69" s="17"/>
       <c r="K69" s="17"/>
     </row>
     <row r="70" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="93">
+      <c r="A70" s="58">
         <v>15</v>
       </c>
-      <c r="B70" s="70" t="s">
+      <c r="B70" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="C70" s="70" t="s">
+      <c r="C70" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="D70" s="70" t="s">
+      <c r="D70" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="E70" s="70" t="s">
+      <c r="E70" s="60" t="s">
         <v>90</v>
       </c>
       <c r="F70" s="10" t="s">
@@ -3057,18 +3078,18 @@
         <v>110</v>
       </c>
       <c r="H70" s="11"/>
-      <c r="I70" s="95" t="s">
+      <c r="I70" s="69" t="s">
         <v>12</v>
       </c>
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
     </row>
     <row r="71" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="82"/>
-      <c r="B71" s="69"/>
-      <c r="C71" s="69"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="69"/>
+      <c r="A71" s="59"/>
+      <c r="B71" s="105"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="61"/>
       <c r="F71" s="21" t="s">
         <v>111</v>
       </c>
@@ -3076,16 +3097,16 @@
         <v>168</v>
       </c>
       <c r="H71" s="22"/>
-      <c r="I71" s="96"/>
+      <c r="I71" s="70"/>
       <c r="J71" s="17"/>
       <c r="K71" s="17"/>
     </row>
     <row r="72" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="82"/>
-      <c r="B72" s="69"/>
-      <c r="C72" s="69"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="69"/>
+      <c r="A72" s="59"/>
+      <c r="B72" s="105"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
       <c r="F72" s="21" t="s">
         <v>158</v>
       </c>
@@ -3093,16 +3114,16 @@
         <v>113</v>
       </c>
       <c r="H72" s="22"/>
-      <c r="I72" s="96"/>
+      <c r="I72" s="70"/>
       <c r="J72" s="17"/>
       <c r="K72" s="17"/>
     </row>
     <row r="73" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A73" s="82"/>
-      <c r="B73" s="69"/>
-      <c r="C73" s="69"/>
-      <c r="D73" s="69"/>
-      <c r="E73" s="69"/>
+      <c r="A73" s="59"/>
+      <c r="B73" s="105"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="61"/>
       <c r="F73" s="21" t="s">
         <v>159</v>
       </c>
@@ -3110,16 +3131,16 @@
         <v>161</v>
       </c>
       <c r="H73" s="22"/>
-      <c r="I73" s="96"/>
+      <c r="I73" s="70"/>
       <c r="J73" s="17"/>
       <c r="K73" s="17"/>
     </row>
     <row r="74" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="97"/>
-      <c r="B74" s="71"/>
-      <c r="C74" s="71"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="71"/>
+      <c r="A74" s="76"/>
+      <c r="B74" s="109"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="68"/>
+      <c r="E74" s="68"/>
       <c r="F74" s="34" t="s">
         <v>166</v>
       </c>
@@ -3127,24 +3148,24 @@
         <v>167</v>
       </c>
       <c r="H74" s="35"/>
-      <c r="I74" s="98"/>
+      <c r="I74" s="71"/>
       <c r="J74" s="17"/>
       <c r="K74" s="17"/>
     </row>
     <row r="75" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="94">
+      <c r="A75" s="72">
         <v>16</v>
       </c>
-      <c r="B75" s="70" t="s">
+      <c r="B75" s="78" t="s">
         <v>169</v>
       </c>
-      <c r="C75" s="70" t="s">
+      <c r="C75" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="D75" s="70" t="s">
+      <c r="D75" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="E75" s="70" t="s">
+      <c r="E75" s="60" t="s">
         <v>90</v>
       </c>
       <c r="F75" s="21" t="s">
@@ -3154,18 +3175,18 @@
         <v>110</v>
       </c>
       <c r="H75" s="22"/>
-      <c r="I75" s="70" t="s">
+      <c r="I75" s="60" t="s">
         <v>163</v>
       </c>
       <c r="J75" s="17"/>
       <c r="K75" s="17"/>
     </row>
     <row r="76" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="101"/>
-      <c r="B76" s="69"/>
-      <c r="C76" s="69"/>
-      <c r="D76" s="69"/>
-      <c r="E76" s="69"/>
+      <c r="A76" s="73"/>
+      <c r="B76" s="105"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
       <c r="F76" s="12" t="s">
         <v>111</v>
       </c>
@@ -3173,16 +3194,16 @@
         <v>168</v>
       </c>
       <c r="H76" s="13"/>
-      <c r="I76" s="69"/>
+      <c r="I76" s="61"/>
       <c r="J76" s="17"/>
       <c r="K76" s="17"/>
     </row>
     <row r="77" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="102"/>
-      <c r="B77" s="103"/>
-      <c r="C77" s="103"/>
-      <c r="D77" s="103"/>
-      <c r="E77" s="103"/>
+      <c r="A77" s="74"/>
+      <c r="B77" s="110"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="75"/>
       <c r="F77" s="12" t="s">
         <v>171</v>
       </c>
@@ -3190,24 +3211,24 @@
         <v>172</v>
       </c>
       <c r="H77" s="13"/>
-      <c r="I77" s="103"/>
+      <c r="I77" s="75"/>
       <c r="J77" s="17"/>
       <c r="K77" s="17"/>
     </row>
     <row r="78" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="93">
+      <c r="A78" s="58">
         <v>17</v>
       </c>
-      <c r="B78" s="70" t="s">
+      <c r="B78" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="C78" s="70" t="s">
+      <c r="C78" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="70" t="s">
+      <c r="D78" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E78" s="70" t="s">
+      <c r="E78" s="60" t="s">
         <v>90</v>
       </c>
       <c r="F78" s="10" t="s">
@@ -3222,11 +3243,11 @@
       <c r="K78" s="17"/>
     </row>
     <row r="79" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="82"/>
-      <c r="B79" s="69"/>
-      <c r="C79" s="69"/>
-      <c r="D79" s="69"/>
-      <c r="E79" s="69"/>
+      <c r="A79" s="59"/>
+      <c r="B79" s="105"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="61"/>
       <c r="F79" s="12" t="s">
         <v>102</v>
       </c>
@@ -3239,11 +3260,11 @@
       <c r="K79" s="17"/>
     </row>
     <row r="80" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="82"/>
-      <c r="B80" s="69"/>
-      <c r="C80" s="69"/>
-      <c r="D80" s="69"/>
-      <c r="E80" s="69"/>
+      <c r="A80" s="59"/>
+      <c r="B80" s="105"/>
+      <c r="C80" s="61"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="61"/>
       <c r="F80" s="12" t="s">
         <v>103</v>
       </c>
@@ -3256,11 +3277,11 @@
       <c r="K80" s="17"/>
     </row>
     <row r="81" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A81" s="82"/>
-      <c r="B81" s="69"/>
-      <c r="C81" s="69"/>
-      <c r="D81" s="69"/>
-      <c r="E81" s="69"/>
+      <c r="A81" s="59"/>
+      <c r="B81" s="105"/>
+      <c r="C81" s="61"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="61"/>
       <c r="F81" s="29" t="s">
         <v>151</v>
       </c>
@@ -3273,11 +3294,11 @@
       <c r="K81" s="17"/>
     </row>
     <row r="82" spans="1:11" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="97"/>
-      <c r="B82" s="71"/>
-      <c r="C82" s="71"/>
-      <c r="D82" s="71"/>
-      <c r="E82" s="71"/>
+      <c r="A82" s="76"/>
+      <c r="B82" s="109"/>
+      <c r="C82" s="68"/>
+      <c r="D82" s="68"/>
+      <c r="E82" s="68"/>
       <c r="F82" s="31" t="s">
         <v>152</v>
       </c>
@@ -3290,25 +3311,25 @@
       <c r="K82" s="17"/>
     </row>
     <row r="83" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="82">
+      <c r="A83" s="59">
         <v>18</v>
       </c>
-      <c r="B83" s="69" t="s">
+      <c r="B83" s="105" t="s">
         <v>95</v>
       </c>
-      <c r="C83" s="69" t="s">
+      <c r="C83" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="D83" s="69" t="s">
+      <c r="D83" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="E83" s="69" t="s">
+      <c r="E83" s="61" t="s">
         <v>90</v>
       </c>
       <c r="F83" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="G83" s="69" t="s">
+      <c r="G83" s="61" t="s">
         <v>106</v>
       </c>
       <c r="H83" s="22"/>
@@ -3317,139 +3338,139 @@
       <c r="K83" s="17"/>
     </row>
     <row r="84" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A84" s="82"/>
-      <c r="B84" s="69"/>
-      <c r="C84" s="69"/>
-      <c r="D84" s="69"/>
-      <c r="E84" s="69"/>
+      <c r="A84" s="59"/>
+      <c r="B84" s="105"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="61"/>
       <c r="F84" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="G84" s="69"/>
+      <c r="G84" s="61"/>
       <c r="H84" s="13"/>
       <c r="I84" s="23"/>
       <c r="J84" s="17"/>
       <c r="K84" s="17"/>
     </row>
     <row r="85" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="82"/>
-      <c r="B85" s="69"/>
-      <c r="C85" s="69"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="69"/>
+      <c r="A85" s="59"/>
+      <c r="B85" s="105"/>
+      <c r="C85" s="61"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="61"/>
       <c r="F85" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G85" s="69"/>
+      <c r="G85" s="61"/>
       <c r="H85" s="13"/>
       <c r="I85" s="23"/>
       <c r="J85" s="17"/>
       <c r="K85" s="17"/>
     </row>
     <row r="86" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A86" s="82"/>
-      <c r="B86" s="69"/>
-      <c r="C86" s="69"/>
-      <c r="D86" s="69"/>
-      <c r="E86" s="69"/>
+      <c r="A86" s="59"/>
+      <c r="B86" s="105"/>
+      <c r="C86" s="61"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="61"/>
       <c r="F86" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G86" s="69"/>
+      <c r="G86" s="61"/>
       <c r="H86" s="13"/>
       <c r="I86" s="23"/>
       <c r="J86" s="17"/>
       <c r="K86" s="17"/>
     </row>
     <row r="87" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A87" s="82"/>
-      <c r="B87" s="69"/>
-      <c r="C87" s="69"/>
-      <c r="D87" s="69"/>
-      <c r="E87" s="69"/>
+      <c r="A87" s="59"/>
+      <c r="B87" s="105"/>
+      <c r="C87" s="61"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="61"/>
       <c r="F87" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G87" s="69"/>
+      <c r="G87" s="61"/>
       <c r="H87" s="13"/>
       <c r="I87" s="23"/>
       <c r="J87" s="17"/>
       <c r="K87" s="17"/>
     </row>
     <row r="88" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A88" s="82"/>
-      <c r="B88" s="69"/>
-      <c r="C88" s="69"/>
-      <c r="D88" s="69"/>
-      <c r="E88" s="69"/>
+      <c r="A88" s="59"/>
+      <c r="B88" s="105"/>
+      <c r="C88" s="61"/>
+      <c r="D88" s="61"/>
+      <c r="E88" s="61"/>
       <c r="F88" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G88" s="69"/>
+      <c r="G88" s="61"/>
       <c r="H88" s="13"/>
       <c r="I88" s="23"/>
       <c r="J88" s="17"/>
       <c r="K88" s="17"/>
     </row>
     <row r="89" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="82"/>
-      <c r="B89" s="69"/>
-      <c r="C89" s="69"/>
-      <c r="D89" s="69"/>
-      <c r="E89" s="69"/>
+      <c r="A89" s="59"/>
+      <c r="B89" s="105"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="61"/>
+      <c r="E89" s="61"/>
       <c r="F89" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G89" s="69"/>
+      <c r="G89" s="61"/>
       <c r="H89" s="13"/>
       <c r="I89" s="23"/>
       <c r="J89" s="17"/>
       <c r="K89" s="17"/>
     </row>
     <row r="90" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="82"/>
-      <c r="B90" s="69"/>
-      <c r="C90" s="69"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="69"/>
+      <c r="A90" s="59"/>
+      <c r="B90" s="105"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="61"/>
+      <c r="E90" s="61"/>
       <c r="F90" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="G90" s="69"/>
+      <c r="G90" s="61"/>
       <c r="H90" s="13"/>
       <c r="I90" s="23"/>
       <c r="J90" s="17"/>
       <c r="K90" s="17"/>
     </row>
     <row r="91" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="82"/>
-      <c r="B91" s="69"/>
-      <c r="C91" s="69"/>
-      <c r="D91" s="69"/>
-      <c r="E91" s="69"/>
+      <c r="A91" s="59"/>
+      <c r="B91" s="105"/>
+      <c r="C91" s="61"/>
+      <c r="D91" s="61"/>
+      <c r="E91" s="61"/>
       <c r="F91" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="G91" s="69"/>
+      <c r="G91" s="61"/>
       <c r="H91" s="15"/>
       <c r="I91" s="24"/>
       <c r="J91" s="17"/>
       <c r="K91" s="17"/>
     </row>
     <row r="92" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="93">
+      <c r="A92" s="58">
         <v>19</v>
       </c>
-      <c r="B92" s="70" t="s">
+      <c r="B92" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="C92" s="70" t="s">
+      <c r="C92" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="D92" s="70" t="s">
+      <c r="D92" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="E92" s="70" t="s">
+      <c r="E92" s="60" t="s">
         <v>90</v>
       </c>
       <c r="F92" s="10" t="s">
@@ -3464,11 +3485,11 @@
       <c r="K92" s="17"/>
     </row>
     <row r="93" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="82"/>
-      <c r="B93" s="69"/>
-      <c r="C93" s="69"/>
-      <c r="D93" s="69"/>
-      <c r="E93" s="69"/>
+      <c r="A93" s="59"/>
+      <c r="B93" s="105"/>
+      <c r="C93" s="61"/>
+      <c r="D93" s="61"/>
+      <c r="E93" s="61"/>
       <c r="F93" s="12" t="s">
         <v>111</v>
       </c>
@@ -3481,11 +3502,11 @@
       <c r="K93" s="17"/>
     </row>
     <row r="94" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="82"/>
-      <c r="B94" s="69"/>
-      <c r="C94" s="69"/>
-      <c r="D94" s="69"/>
-      <c r="E94" s="69"/>
+      <c r="A94" s="59"/>
+      <c r="B94" s="105"/>
+      <c r="C94" s="61"/>
+      <c r="D94" s="61"/>
+      <c r="E94" s="61"/>
       <c r="F94" s="12" t="s">
         <v>103</v>
       </c>
@@ -3498,11 +3519,11 @@
       <c r="K94" s="17"/>
     </row>
     <row r="95" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A95" s="82"/>
-      <c r="B95" s="69"/>
-      <c r="C95" s="69"/>
-      <c r="D95" s="69"/>
-      <c r="E95" s="69"/>
+      <c r="A95" s="59"/>
+      <c r="B95" s="105"/>
+      <c r="C95" s="61"/>
+      <c r="D95" s="61"/>
+      <c r="E95" s="61"/>
       <c r="F95" s="12" t="s">
         <v>104</v>
       </c>
@@ -3515,11 +3536,11 @@
       <c r="K95" s="17"/>
     </row>
     <row r="96" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="82"/>
-      <c r="B96" s="69"/>
-      <c r="C96" s="69"/>
-      <c r="D96" s="69"/>
-      <c r="E96" s="69"/>
+      <c r="A96" s="59"/>
+      <c r="B96" s="105"/>
+      <c r="C96" s="61"/>
+      <c r="D96" s="61"/>
+      <c r="E96" s="61"/>
       <c r="F96" s="12" t="s">
         <v>108</v>
       </c>
@@ -3532,11 +3553,11 @@
       <c r="K96" s="17"/>
     </row>
     <row r="97" spans="1:11" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="82"/>
-      <c r="B97" s="69"/>
-      <c r="C97" s="69"/>
-      <c r="D97" s="69"/>
-      <c r="E97" s="69"/>
+      <c r="A97" s="59"/>
+      <c r="B97" s="105"/>
+      <c r="C97" s="61"/>
+      <c r="D97" s="61"/>
+      <c r="E97" s="61"/>
       <c r="F97" s="14" t="s">
         <v>109</v>
       </c>
@@ -3549,19 +3570,19 @@
       <c r="K97" s="17"/>
     </row>
     <row r="98" spans="1:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="93">
+      <c r="A98" s="58">
         <v>20</v>
       </c>
-      <c r="B98" s="70" t="s">
+      <c r="B98" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="C98" s="70" t="s">
+      <c r="C98" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="D98" s="70" t="s">
+      <c r="D98" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E98" s="70" t="s">
+      <c r="E98" s="60" t="s">
         <v>90</v>
       </c>
       <c r="F98" s="10" t="s">
@@ -3576,11 +3597,11 @@
       <c r="K98" s="17"/>
     </row>
     <row r="99" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="82"/>
-      <c r="B99" s="69"/>
-      <c r="C99" s="69"/>
-      <c r="D99" s="69"/>
-      <c r="E99" s="69"/>
+      <c r="A99" s="59"/>
+      <c r="B99" s="105"/>
+      <c r="C99" s="61"/>
+      <c r="D99" s="61"/>
+      <c r="E99" s="61"/>
       <c r="F99" s="12" t="s">
         <v>111</v>
       </c>
@@ -3593,11 +3614,11 @@
       <c r="K99" s="17"/>
     </row>
     <row r="100" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="82"/>
-      <c r="B100" s="69"/>
-      <c r="C100" s="69"/>
-      <c r="D100" s="69"/>
-      <c r="E100" s="69"/>
+      <c r="A100" s="59"/>
+      <c r="B100" s="105"/>
+      <c r="C100" s="61"/>
+      <c r="D100" s="61"/>
+      <c r="E100" s="61"/>
       <c r="F100" s="12" t="s">
         <v>103</v>
       </c>
@@ -3610,11 +3631,11 @@
       <c r="K100" s="17"/>
     </row>
     <row r="101" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A101" s="82"/>
-      <c r="B101" s="69"/>
-      <c r="C101" s="69"/>
-      <c r="D101" s="69"/>
-      <c r="E101" s="69"/>
+      <c r="A101" s="59"/>
+      <c r="B101" s="105"/>
+      <c r="C101" s="61"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="61"/>
       <c r="F101" s="12" t="s">
         <v>104</v>
       </c>
@@ -3627,11 +3648,11 @@
       <c r="K101" s="17"/>
     </row>
     <row r="102" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="82"/>
-      <c r="B102" s="69"/>
-      <c r="C102" s="69"/>
-      <c r="D102" s="69"/>
-      <c r="E102" s="69"/>
+      <c r="A102" s="59"/>
+      <c r="B102" s="105"/>
+      <c r="C102" s="61"/>
+      <c r="D102" s="61"/>
+      <c r="E102" s="61"/>
       <c r="F102" s="14" t="s">
         <v>120</v>
       </c>
@@ -3644,19 +3665,19 @@
       <c r="K102" s="17"/>
     </row>
     <row r="103" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="93">
+      <c r="A103" s="58">
         <v>21</v>
       </c>
-      <c r="B103" s="70" t="s">
+      <c r="B103" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="C103" s="70" t="s">
+      <c r="C103" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="D103" s="70" t="s">
+      <c r="D103" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="E103" s="70" t="s">
+      <c r="E103" s="60" t="s">
         <v>90</v>
       </c>
       <c r="F103" s="10" t="s">
@@ -3671,11 +3692,11 @@
       <c r="K103" s="17"/>
     </row>
     <row r="104" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="82"/>
-      <c r="B104" s="69"/>
-      <c r="C104" s="69"/>
-      <c r="D104" s="69"/>
-      <c r="E104" s="69"/>
+      <c r="A104" s="59"/>
+      <c r="B104" s="105"/>
+      <c r="C104" s="61"/>
+      <c r="D104" s="61"/>
+      <c r="E104" s="61"/>
       <c r="F104" s="12" t="s">
         <v>111</v>
       </c>
@@ -3688,11 +3709,11 @@
       <c r="K104" s="17"/>
     </row>
     <row r="105" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="82"/>
-      <c r="B105" s="69"/>
-      <c r="C105" s="69"/>
-      <c r="D105" s="69"/>
-      <c r="E105" s="69"/>
+      <c r="A105" s="59"/>
+      <c r="B105" s="105"/>
+      <c r="C105" s="61"/>
+      <c r="D105" s="61"/>
+      <c r="E105" s="61"/>
       <c r="F105" s="12" t="s">
         <v>124</v>
       </c>
@@ -3705,11 +3726,11 @@
       <c r="K105" s="17"/>
     </row>
     <row r="106" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A106" s="82"/>
-      <c r="B106" s="69"/>
-      <c r="C106" s="69"/>
-      <c r="D106" s="69"/>
-      <c r="E106" s="69"/>
+      <c r="A106" s="59"/>
+      <c r="B106" s="105"/>
+      <c r="C106" s="61"/>
+      <c r="D106" s="61"/>
+      <c r="E106" s="61"/>
       <c r="F106" s="12" t="s">
         <v>125</v>
       </c>
@@ -3722,11 +3743,11 @@
       <c r="K106" s="17"/>
     </row>
     <row r="107" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A107" s="82"/>
-      <c r="B107" s="69"/>
-      <c r="C107" s="69"/>
-      <c r="D107" s="69"/>
-      <c r="E107" s="69"/>
+      <c r="A107" s="59"/>
+      <c r="B107" s="105"/>
+      <c r="C107" s="61"/>
+      <c r="D107" s="61"/>
+      <c r="E107" s="61"/>
       <c r="F107" s="12" t="s">
         <v>126</v>
       </c>
@@ -3739,11 +3760,11 @@
       <c r="K107" s="17"/>
     </row>
     <row r="108" spans="1:11" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="82"/>
-      <c r="B108" s="69"/>
-      <c r="C108" s="69"/>
-      <c r="D108" s="69"/>
-      <c r="E108" s="69"/>
+      <c r="A108" s="59"/>
+      <c r="B108" s="105"/>
+      <c r="C108" s="61"/>
+      <c r="D108" s="61"/>
+      <c r="E108" s="61"/>
       <c r="F108" s="14" t="s">
         <v>127</v>
       </c>
@@ -3756,19 +3777,19 @@
       <c r="K108" s="17"/>
     </row>
     <row r="109" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="93">
+      <c r="A109" s="58">
         <v>22</v>
       </c>
-      <c r="B109" s="70" t="s">
+      <c r="B109" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="C109" s="70" t="s">
+      <c r="C109" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="D109" s="70" t="s">
+      <c r="D109" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="E109" s="70" t="s">
+      <c r="E109" s="60" t="s">
         <v>90</v>
       </c>
       <c r="F109" s="10" t="s">
@@ -3783,11 +3804,11 @@
       <c r="K109" s="17"/>
     </row>
     <row r="110" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A110" s="82"/>
-      <c r="B110" s="69"/>
-      <c r="C110" s="69"/>
-      <c r="D110" s="69"/>
-      <c r="E110" s="69"/>
+      <c r="A110" s="59"/>
+      <c r="B110" s="105"/>
+      <c r="C110" s="61"/>
+      <c r="D110" s="61"/>
+      <c r="E110" s="61"/>
       <c r="F110" s="12" t="s">
         <v>135</v>
       </c>
@@ -3800,11 +3821,11 @@
       <c r="K110" s="17"/>
     </row>
     <row r="111" spans="1:11" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="97"/>
-      <c r="B111" s="71"/>
-      <c r="C111" s="71"/>
-      <c r="D111" s="71"/>
-      <c r="E111" s="71"/>
+      <c r="A111" s="76"/>
+      <c r="B111" s="109"/>
+      <c r="C111" s="68"/>
+      <c r="D111" s="68"/>
+      <c r="E111" s="68"/>
       <c r="F111" s="18" t="s">
         <v>136</v>
       </c>
@@ -3817,19 +3838,19 @@
       <c r="K111" s="17"/>
     </row>
     <row r="112" spans="1:11" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="88">
+      <c r="A112" s="84">
         <v>23</v>
       </c>
-      <c r="B112" s="92" t="s">
+      <c r="B112" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="C112" s="70" t="s">
+      <c r="C112" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D112" s="70" t="s">
+      <c r="D112" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="E112" s="70" t="s">
+      <c r="E112" s="60" t="s">
         <v>90</v>
       </c>
       <c r="F112" s="10" t="s">
@@ -3839,18 +3860,18 @@
         <v>75</v>
       </c>
       <c r="H112" s="11"/>
-      <c r="I112" s="91" t="s">
+      <c r="I112" s="77" t="s">
         <v>12</v>
       </c>
       <c r="J112" s="17"/>
       <c r="K112" s="17"/>
     </row>
     <row r="113" spans="1:11" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="88"/>
-      <c r="B113" s="92"/>
-      <c r="C113" s="70"/>
-      <c r="D113" s="70"/>
-      <c r="E113" s="70"/>
+      <c r="A113" s="84"/>
+      <c r="B113" s="104"/>
+      <c r="C113" s="60"/>
+      <c r="D113" s="60"/>
+      <c r="E113" s="60"/>
       <c r="F113" s="12" t="s">
         <v>76</v>
       </c>
@@ -3858,24 +3879,24 @@
         <v>77</v>
       </c>
       <c r="H113" s="13"/>
-      <c r="I113" s="91"/>
+      <c r="I113" s="77"/>
       <c r="J113" s="17"/>
       <c r="K113" s="17"/>
     </row>
     <row r="114" spans="1:11" ht="55.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="88">
+      <c r="A114" s="84">
         <v>24</v>
       </c>
-      <c r="B114" s="89" t="s">
+      <c r="B114" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="C114" s="90" t="s">
+      <c r="C114" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="D114" s="90" t="s">
+      <c r="D114" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E114" s="90" t="s">
+      <c r="E114" s="86" t="s">
         <v>90</v>
       </c>
       <c r="F114" s="10" t="s">
@@ -3885,17 +3906,17 @@
         <v>81</v>
       </c>
       <c r="H114" s="11"/>
-      <c r="I114" s="83" t="s">
+      <c r="I114" s="79" t="s">
         <v>12</v>
       </c>
       <c r="J114" s="17"/>
     </row>
     <row r="115" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="88"/>
-      <c r="B115" s="89"/>
-      <c r="C115" s="90"/>
-      <c r="D115" s="90"/>
-      <c r="E115" s="90"/>
+      <c r="A115" s="84"/>
+      <c r="B115" s="85"/>
+      <c r="C115" s="86"/>
+      <c r="D115" s="86"/>
+      <c r="E115" s="86"/>
       <c r="F115" s="12" t="s">
         <v>82</v>
       </c>
@@ -3903,23 +3924,23 @@
         <v>83</v>
       </c>
       <c r="H115" s="13"/>
-      <c r="I115" s="83"/>
+      <c r="I115" s="79"/>
       <c r="J115" s="17"/>
     </row>
     <row r="116" spans="1:11" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="84">
+      <c r="A116" s="80">
         <v>25</v>
       </c>
-      <c r="B116" s="85" t="s">
+      <c r="B116" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="C116" s="86" t="s">
+      <c r="C116" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="D116" s="86" t="s">
+      <c r="D116" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="E116" s="86" t="s">
+      <c r="E116" s="82" t="s">
         <v>90</v>
       </c>
       <c r="F116" s="10" t="s">
@@ -3929,16 +3950,16 @@
         <v>81</v>
       </c>
       <c r="H116" s="11"/>
-      <c r="I116" s="87" t="s">
+      <c r="I116" s="83" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="84"/>
-      <c r="B117" s="85"/>
-      <c r="C117" s="86"/>
-      <c r="D117" s="86"/>
-      <c r="E117" s="86"/>
+      <c r="A117" s="80"/>
+      <c r="B117" s="81"/>
+      <c r="C117" s="82"/>
+      <c r="D117" s="82"/>
+      <c r="E117" s="82"/>
       <c r="F117" s="12" t="s">
         <v>85</v>
       </c>
@@ -3946,22 +3967,22 @@
         <v>83</v>
       </c>
       <c r="H117" s="13"/>
-      <c r="I117" s="87"/>
+      <c r="I117" s="83"/>
     </row>
     <row r="118" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="99">
+      <c r="A118" s="64">
         <v>26</v>
       </c>
-      <c r="B118" s="70" t="s">
+      <c r="B118" s="78" t="s">
         <v>173</v>
       </c>
-      <c r="C118" s="70" t="s">
+      <c r="C118" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="D118" s="75" t="s">
+      <c r="D118" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="E118" s="70" t="s">
+      <c r="E118" s="60" t="s">
         <v>89</v>
       </c>
       <c r="F118" s="10" t="s">
@@ -3971,16 +3992,16 @@
         <v>179</v>
       </c>
       <c r="H118" s="38"/>
-      <c r="I118" s="78" t="s">
+      <c r="I118" s="62" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="100"/>
-      <c r="B119" s="69"/>
-      <c r="C119" s="69"/>
-      <c r="D119" s="76"/>
-      <c r="E119" s="69"/>
+      <c r="A119" s="65"/>
+      <c r="B119" s="105"/>
+      <c r="C119" s="61"/>
+      <c r="D119" s="67"/>
+      <c r="E119" s="61"/>
       <c r="F119" s="12" t="s">
         <v>176</v>
       </c>
@@ -3988,14 +4009,14 @@
         <v>180</v>
       </c>
       <c r="H119" s="26"/>
-      <c r="I119" s="79"/>
+      <c r="I119" s="63"/>
     </row>
     <row r="120" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A120" s="100"/>
-      <c r="B120" s="69"/>
-      <c r="C120" s="69"/>
-      <c r="D120" s="76"/>
-      <c r="E120" s="69"/>
+      <c r="A120" s="65"/>
+      <c r="B120" s="105"/>
+      <c r="C120" s="61"/>
+      <c r="D120" s="67"/>
+      <c r="E120" s="61"/>
       <c r="F120" s="12" t="s">
         <v>177</v>
       </c>
@@ -4003,14 +4024,14 @@
         <v>181</v>
       </c>
       <c r="H120" s="26"/>
-      <c r="I120" s="79"/>
+      <c r="I120" s="63"/>
     </row>
     <row r="121" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="100"/>
-      <c r="B121" s="69"/>
-      <c r="C121" s="69"/>
-      <c r="D121" s="76"/>
-      <c r="E121" s="69"/>
+      <c r="A121" s="65"/>
+      <c r="B121" s="105"/>
+      <c r="C121" s="61"/>
+      <c r="D121" s="67"/>
+      <c r="E121" s="61"/>
       <c r="F121" s="14" t="s">
         <v>178</v>
       </c>
@@ -4018,22 +4039,22 @@
         <v>182</v>
       </c>
       <c r="H121" s="41"/>
-      <c r="I121" s="79"/>
+      <c r="I121" s="63"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="72">
+      <c r="A122" s="99">
         <v>27</v>
       </c>
-      <c r="B122" s="63" t="s">
+      <c r="B122" s="106" t="s">
         <v>184</v>
       </c>
-      <c r="C122" s="70" t="s">
+      <c r="C122" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="D122" s="75" t="s">
+      <c r="D122" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="E122" s="70" t="s">
+      <c r="E122" s="60" t="s">
         <v>90</v>
       </c>
       <c r="F122" s="10" t="s">
@@ -4043,16 +4064,16 @@
         <v>188</v>
       </c>
       <c r="H122" s="38"/>
-      <c r="I122" s="78" t="s">
+      <c r="I122" s="62" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="73"/>
-      <c r="B123" s="64"/>
-      <c r="C123" s="69"/>
-      <c r="D123" s="76"/>
-      <c r="E123" s="69"/>
+      <c r="A123" s="100"/>
+      <c r="B123" s="107"/>
+      <c r="C123" s="61"/>
+      <c r="D123" s="67"/>
+      <c r="E123" s="61"/>
       <c r="F123" s="12" t="s">
         <v>186</v>
       </c>
@@ -4060,14 +4081,14 @@
         <v>208</v>
       </c>
       <c r="H123" s="26"/>
-      <c r="I123" s="79"/>
+      <c r="I123" s="63"/>
     </row>
     <row r="124" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="74"/>
-      <c r="B124" s="65"/>
-      <c r="C124" s="71"/>
-      <c r="D124" s="77"/>
-      <c r="E124" s="71"/>
+      <c r="A124" s="101"/>
+      <c r="B124" s="108"/>
+      <c r="C124" s="68"/>
+      <c r="D124" s="102"/>
+      <c r="E124" s="68"/>
       <c r="F124" s="18" t="s">
         <v>187</v>
       </c>
@@ -4075,13 +4096,13 @@
         <v>189</v>
       </c>
       <c r="H124" s="32"/>
-      <c r="I124" s="80"/>
+      <c r="I124" s="103"/>
     </row>
     <row r="125" spans="1:11" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="42">
         <v>28</v>
       </c>
-      <c r="B125" s="44" t="s">
+      <c r="B125" s="57" t="s">
         <v>190</v>
       </c>
       <c r="C125" s="44" t="s">
@@ -4103,19 +4124,19 @@
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="57">
+      <c r="A126" s="87">
         <v>29</v>
       </c>
-      <c r="B126" s="60" t="s">
+      <c r="B126" s="78" t="s">
         <v>195</v>
       </c>
-      <c r="C126" s="60" t="s">
+      <c r="C126" s="90" t="s">
         <v>202</v>
       </c>
-      <c r="D126" s="63" t="s">
+      <c r="D126" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="E126" s="60" t="s">
+      <c r="E126" s="90" t="s">
         <v>90</v>
       </c>
       <c r="F126" s="50" t="s">
@@ -4125,16 +4146,16 @@
         <v>198</v>
       </c>
       <c r="H126" s="38"/>
-      <c r="I126" s="78" t="s">
+      <c r="I126" s="62" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="58"/>
-      <c r="B127" s="61"/>
-      <c r="C127" s="61"/>
-      <c r="D127" s="64"/>
-      <c r="E127" s="61"/>
+      <c r="A127" s="88"/>
+      <c r="B127" s="105"/>
+      <c r="C127" s="91"/>
+      <c r="D127" s="94"/>
+      <c r="E127" s="91"/>
       <c r="F127" s="48" t="s">
         <v>196</v>
       </c>
@@ -4142,14 +4163,14 @@
         <v>199</v>
       </c>
       <c r="H127" s="26"/>
-      <c r="I127" s="79"/>
+      <c r="I127" s="63"/>
     </row>
     <row r="128" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="58"/>
-      <c r="B128" s="61"/>
-      <c r="C128" s="61"/>
-      <c r="D128" s="64"/>
-      <c r="E128" s="61"/>
+      <c r="A128" s="88"/>
+      <c r="B128" s="105"/>
+      <c r="C128" s="91"/>
+      <c r="D128" s="94"/>
+      <c r="E128" s="91"/>
       <c r="F128" s="52" t="s">
         <v>197</v>
       </c>
@@ -4157,22 +4178,22 @@
         <v>200</v>
       </c>
       <c r="H128" s="41"/>
-      <c r="I128" s="79"/>
+      <c r="I128" s="63"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" s="57">
+      <c r="A129" s="87">
         <v>30</v>
       </c>
-      <c r="B129" s="60" t="s">
+      <c r="B129" s="78" t="s">
         <v>201</v>
       </c>
-      <c r="C129" s="60" t="s">
+      <c r="C129" s="90" t="s">
         <v>203</v>
       </c>
-      <c r="D129" s="63" t="s">
+      <c r="D129" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="E129" s="60" t="s">
+      <c r="E129" s="90" t="s">
         <v>90</v>
       </c>
       <c r="F129" s="56" t="s">
@@ -4182,16 +4203,16 @@
         <v>198</v>
       </c>
       <c r="H129" s="38"/>
-      <c r="I129" s="66" t="s">
+      <c r="I129" s="96" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="58"/>
-      <c r="B130" s="61"/>
-      <c r="C130" s="61"/>
-      <c r="D130" s="64"/>
-      <c r="E130" s="61"/>
+      <c r="A130" s="88"/>
+      <c r="B130" s="105"/>
+      <c r="C130" s="91"/>
+      <c r="D130" s="94"/>
+      <c r="E130" s="91"/>
       <c r="F130" s="49" t="s">
         <v>204</v>
       </c>
@@ -4199,14 +4220,14 @@
         <v>206</v>
       </c>
       <c r="H130" s="26"/>
-      <c r="I130" s="67"/>
+      <c r="I130" s="97"/>
     </row>
     <row r="131" spans="1:9" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="59"/>
-      <c r="B131" s="62"/>
-      <c r="C131" s="62"/>
-      <c r="D131" s="65"/>
-      <c r="E131" s="62"/>
+      <c r="A131" s="89"/>
+      <c r="B131" s="109"/>
+      <c r="C131" s="92"/>
+      <c r="D131" s="95"/>
+      <c r="E131" s="92"/>
       <c r="F131" s="51" t="s">
         <v>205</v>
       </c>
@@ -4214,23 +4235,144 @@
         <v>207</v>
       </c>
       <c r="H131" s="32"/>
-      <c r="I131" s="68"/>
+      <c r="I131" s="98"/>
     </row>
     <row r="133" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="134" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="136" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="169">
-    <mergeCell ref="A103:A108"/>
-    <mergeCell ref="B103:B108"/>
-    <mergeCell ref="C103:C108"/>
-    <mergeCell ref="D103:D108"/>
-    <mergeCell ref="E103:E108"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="D60:D64"/>
-    <mergeCell ref="E60:E64"/>
+    <mergeCell ref="I129:I131"/>
+    <mergeCell ref="B83:B91"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="E122:E124"/>
+    <mergeCell ref="D122:D124"/>
+    <mergeCell ref="I122:I124"/>
+    <mergeCell ref="E126:E128"/>
+    <mergeCell ref="D126:D128"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="I126:I128"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="B92:B97"/>
+    <mergeCell ref="G83:G91"/>
+    <mergeCell ref="E83:E91"/>
+    <mergeCell ref="D83:D91"/>
+    <mergeCell ref="C83:C91"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="D129:D131"/>
+    <mergeCell ref="E129:E131"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="I114:I115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="I116:I117"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="D40:D47"/>
+    <mergeCell ref="E40:E47"/>
+    <mergeCell ref="I40:I47"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="B48:B55"/>
+    <mergeCell ref="C48:C55"/>
+    <mergeCell ref="D48:D55"/>
+    <mergeCell ref="E48:E55"/>
+    <mergeCell ref="I48:I55"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="I56:I59"/>
+    <mergeCell ref="A48:A55"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="C40:C47"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="I6:I11"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="I60:I64"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="E78:E82"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="C65:C69"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="I65:I69"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="D70:D74"/>
     <mergeCell ref="I118:I121"/>
     <mergeCell ref="A118:A121"/>
     <mergeCell ref="B118:B121"/>
@@ -4255,141 +4397,20 @@
     <mergeCell ref="E92:E97"/>
     <mergeCell ref="A98:A102"/>
     <mergeCell ref="B98:B102"/>
+    <mergeCell ref="A103:A108"/>
+    <mergeCell ref="B103:B108"/>
+    <mergeCell ref="C103:C108"/>
+    <mergeCell ref="D103:D108"/>
+    <mergeCell ref="E103:E108"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="E60:E64"/>
     <mergeCell ref="C98:C102"/>
     <mergeCell ref="D98:D102"/>
     <mergeCell ref="E98:E102"/>
-    <mergeCell ref="I60:I64"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="E78:E82"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="C65:C69"/>
-    <mergeCell ref="D65:D69"/>
-    <mergeCell ref="E65:E69"/>
-    <mergeCell ref="I65:I69"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="D70:D74"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="E6:E11"/>
-    <mergeCell ref="I6:I11"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="I48:I55"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="I56:I59"/>
-    <mergeCell ref="A48:A55"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="A40:A47"/>
-    <mergeCell ref="B40:B47"/>
-    <mergeCell ref="C40:C47"/>
-    <mergeCell ref="D40:D47"/>
-    <mergeCell ref="E40:E47"/>
-    <mergeCell ref="I40:I47"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="B48:B55"/>
-    <mergeCell ref="C48:C55"/>
-    <mergeCell ref="D48:D55"/>
-    <mergeCell ref="E48:E55"/>
     <mergeCell ref="A83:A91"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="I114:I115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="I116:I117"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="I112:I113"/>
-    <mergeCell ref="G83:G91"/>
-    <mergeCell ref="E83:E91"/>
-    <mergeCell ref="D83:D91"/>
-    <mergeCell ref="C83:C91"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="D129:D131"/>
-    <mergeCell ref="E129:E131"/>
-    <mergeCell ref="I129:I131"/>
-    <mergeCell ref="B83:B91"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="A122:A124"/>
-    <mergeCell ref="E122:E124"/>
-    <mergeCell ref="D122:D124"/>
-    <mergeCell ref="I122:I124"/>
-    <mergeCell ref="E126:E128"/>
-    <mergeCell ref="D126:D128"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="I126:I128"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="A92:A97"/>
-    <mergeCell ref="B92:B97"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Netology\Qa-Diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18B74CD-DB64-488E-AAA1-B26FF86AD966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6B0AD6-BE3D-41A4-91D8-9EE2F9E12405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="215">
   <si>
     <t>ID</t>
   </si>
@@ -652,6 +652,24 @@
   </si>
   <si>
     <t>2. Приложение исчезло из активных</t>
+  </si>
+  <si>
+    <t>Добавление новой новости с некорректным временем</t>
+  </si>
+  <si>
+    <t>6. В поле "Время" набрать с помощью клавиатуры некорректное время новости 25 00 и нажать ок</t>
+  </si>
+  <si>
+    <t>6. Некорректное время не вводится в поле, возникает предупреждение, что необходимо ввести корректные данные</t>
+  </si>
+  <si>
+    <t>Добавление новой новости с некорректой датой из прошлого</t>
+  </si>
+  <si>
+    <t>5. В поле "Дата" выбрать некорректное значение из прошлого</t>
+  </si>
+  <si>
+    <t>5. Некорректная дата не вводится в поле, возникает предупреждение, что необходимо ввести корректные данные</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1268,22 +1286,145 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1292,27 +1433,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1320,112 +1440,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1775,10 +1802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K136"/>
+  <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C11"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138:E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1824,19 +1851,19 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58">
+      <c r="A2" s="86">
         <v>1</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="62" t="s">
         <v>89</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -1846,16 +1873,16 @@
         <v>11</v>
       </c>
       <c r="H2" s="11"/>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="99" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="12" t="s">
         <v>13</v>
       </c>
@@ -1863,14 +1890,14 @@
         <v>14</v>
       </c>
       <c r="H3" s="13"/>
-      <c r="I3" s="77"/>
+      <c r="I3" s="99"/>
     </row>
     <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="12" t="s">
         <v>15</v>
       </c>
@@ -1878,14 +1905,14 @@
         <v>16</v>
       </c>
       <c r="H4" s="13"/>
-      <c r="I4" s="77"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="14" t="s">
         <v>17</v>
       </c>
@@ -1893,22 +1920,22 @@
         <v>18</v>
       </c>
       <c r="H5" s="15"/>
-      <c r="I5" s="77"/>
+      <c r="I5" s="99"/>
     </row>
     <row r="6" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58">
+      <c r="A6" s="86">
         <v>2</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="62" t="s">
         <v>89</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1918,16 +1945,16 @@
         <v>11</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="77" t="s">
+      <c r="I6" s="99" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="12" t="s">
         <v>13</v>
       </c>
@@ -1935,14 +1962,14 @@
         <v>14</v>
       </c>
       <c r="H7" s="13"/>
-      <c r="I7" s="77"/>
+      <c r="I7" s="99"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="58"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
       <c r="F8" s="12" t="s">
         <v>15</v>
       </c>
@@ -1950,14 +1977,14 @@
         <v>16</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="77"/>
+      <c r="I8" s="99"/>
     </row>
     <row r="9" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
       <c r="F9" s="12" t="s">
         <v>17</v>
       </c>
@@ -1965,14 +1992,14 @@
         <v>18</v>
       </c>
       <c r="H9" s="13"/>
-      <c r="I9" s="77"/>
+      <c r="I9" s="99"/>
     </row>
     <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
       <c r="F10" s="12" t="s">
         <v>20</v>
       </c>
@@ -1980,14 +2007,14 @@
         <v>21</v>
       </c>
       <c r="H10" s="13"/>
-      <c r="I10" s="77"/>
+      <c r="I10" s="99"/>
     </row>
     <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
       <c r="F11" s="14" t="s">
         <v>22</v>
       </c>
@@ -1995,22 +2022,22 @@
         <v>23</v>
       </c>
       <c r="H11" s="15"/>
-      <c r="I11" s="77"/>
+      <c r="I11" s="99"/>
     </row>
     <row r="12" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="58">
+      <c r="A12" s="86">
         <v>3</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="62" t="s">
         <v>89</v>
       </c>
       <c r="F12" s="10" t="s">
@@ -2020,16 +2047,16 @@
         <v>11</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="77" t="s">
+      <c r="I12" s="99" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="60"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="62"/>
       <c r="F13" s="12" t="s">
         <v>93</v>
       </c>
@@ -2037,14 +2064,14 @@
         <v>26</v>
       </c>
       <c r="H13" s="13"/>
-      <c r="I13" s="77"/>
+      <c r="I13" s="99"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="60"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="62"/>
       <c r="F14" s="12" t="s">
         <v>27</v>
       </c>
@@ -2052,14 +2079,14 @@
         <v>28</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="77"/>
+      <c r="I14" s="99"/>
     </row>
     <row r="15" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="60"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="62"/>
       <c r="F15" s="14" t="s">
         <v>17</v>
       </c>
@@ -2067,22 +2094,22 @@
         <v>29</v>
       </c>
       <c r="H15" s="15"/>
-      <c r="I15" s="77"/>
+      <c r="I15" s="99"/>
     </row>
     <row r="16" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58">
+      <c r="A16" s="86">
         <v>4</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="60" t="s">
+      <c r="E16" s="62" t="s">
         <v>89</v>
       </c>
       <c r="F16" s="10" t="s">
@@ -2092,16 +2119,16 @@
         <v>11</v>
       </c>
       <c r="H16" s="11"/>
-      <c r="I16" s="77" t="s">
+      <c r="I16" s="99" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="60"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="62"/>
       <c r="F17" s="12" t="s">
         <v>31</v>
       </c>
@@ -2109,14 +2136,14 @@
         <v>14</v>
       </c>
       <c r="H17" s="13"/>
-      <c r="I17" s="77"/>
+      <c r="I17" s="99"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="60"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="62"/>
       <c r="F18" s="12" t="s">
         <v>15</v>
       </c>
@@ -2124,14 +2151,14 @@
         <v>16</v>
       </c>
       <c r="H18" s="13"/>
-      <c r="I18" s="77"/>
+      <c r="I18" s="99"/>
     </row>
     <row r="19" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="60"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="62"/>
       <c r="F19" s="14" t="s">
         <v>17</v>
       </c>
@@ -2139,22 +2166,22 @@
         <v>32</v>
       </c>
       <c r="H19" s="15"/>
-      <c r="I19" s="77"/>
+      <c r="I19" s="99"/>
     </row>
     <row r="20" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58">
+      <c r="A20" s="86">
         <v>5</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="62" t="s">
         <v>89</v>
       </c>
       <c r="F20" s="10" t="s">
@@ -2164,16 +2191,16 @@
         <v>11</v>
       </c>
       <c r="H20" s="11"/>
-      <c r="I20" s="77" t="s">
+      <c r="I20" s="99" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="60"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="62"/>
       <c r="F21" s="12" t="s">
         <v>13</v>
       </c>
@@ -2181,14 +2208,14 @@
         <v>14</v>
       </c>
       <c r="H21" s="13"/>
-      <c r="I21" s="77"/>
+      <c r="I21" s="99"/>
     </row>
     <row r="22" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="60"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="62"/>
       <c r="F22" s="12" t="s">
         <v>34</v>
       </c>
@@ -2196,14 +2223,14 @@
         <v>16</v>
       </c>
       <c r="H22" s="13"/>
-      <c r="I22" s="77"/>
+      <c r="I22" s="99"/>
     </row>
     <row r="23" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="60"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="62"/>
       <c r="F23" s="14" t="s">
         <v>17</v>
       </c>
@@ -2211,22 +2238,22 @@
         <v>32</v>
       </c>
       <c r="H23" s="15"/>
-      <c r="I23" s="77"/>
+      <c r="I23" s="99"/>
     </row>
     <row r="24" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="58">
+      <c r="A24" s="86">
         <v>6</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="62" t="s">
         <v>89</v>
       </c>
       <c r="F24" s="10" t="s">
@@ -2236,16 +2263,16 @@
         <v>11</v>
       </c>
       <c r="H24" s="11"/>
-      <c r="I24" s="77" t="s">
+      <c r="I24" s="99" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
       <c r="F25" s="12" t="s">
         <v>38</v>
       </c>
@@ -2253,14 +2280,14 @@
         <v>14</v>
       </c>
       <c r="H25" s="13"/>
-      <c r="I25" s="77"/>
+      <c r="I25" s="99"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
       <c r="F26" s="12" t="s">
         <v>15</v>
       </c>
@@ -2268,14 +2295,14 @@
         <v>16</v>
       </c>
       <c r="H26" s="13"/>
-      <c r="I26" s="77"/>
+      <c r="I26" s="99"/>
     </row>
     <row r="27" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
       <c r="F27" s="14" t="s">
         <v>17</v>
       </c>
@@ -2283,22 +2310,22 @@
         <v>39</v>
       </c>
       <c r="H27" s="15"/>
-      <c r="I27" s="77"/>
+      <c r="I27" s="99"/>
     </row>
     <row r="28" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="58">
+      <c r="A28" s="86">
         <v>7</v>
       </c>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="60" t="s">
+      <c r="D28" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E28" s="62" t="s">
         <v>89</v>
       </c>
       <c r="F28" s="10" t="s">
@@ -2308,16 +2335,16 @@
         <v>11</v>
       </c>
       <c r="H28" s="11"/>
-      <c r="I28" s="77" t="s">
+      <c r="I28" s="99" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="58"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
       <c r="F29" s="12" t="s">
         <v>41</v>
       </c>
@@ -2325,14 +2352,14 @@
         <v>14</v>
       </c>
       <c r="H29" s="13"/>
-      <c r="I29" s="77"/>
+      <c r="I29" s="99"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="58"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
       <c r="F30" s="12" t="s">
         <v>15</v>
       </c>
@@ -2340,14 +2367,14 @@
         <v>16</v>
       </c>
       <c r="H30" s="13"/>
-      <c r="I30" s="77"/>
+      <c r="I30" s="99"/>
     </row>
     <row r="31" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="58"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
       <c r="F31" s="14" t="s">
         <v>17</v>
       </c>
@@ -2355,22 +2382,22 @@
         <v>39</v>
       </c>
       <c r="H31" s="15"/>
-      <c r="I31" s="77"/>
+      <c r="I31" s="99"/>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="58">
+      <c r="A32" s="86">
         <v>8</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="60" t="s">
+      <c r="D32" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="60" t="s">
+      <c r="E32" s="62" t="s">
         <v>89</v>
       </c>
       <c r="F32" s="10" t="s">
@@ -2380,16 +2407,16 @@
         <v>11</v>
       </c>
       <c r="H32" s="11"/>
-      <c r="I32" s="77" t="s">
+      <c r="I32" s="99" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="58"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
       <c r="F33" s="12" t="s">
         <v>13</v>
       </c>
@@ -2397,14 +2424,14 @@
         <v>14</v>
       </c>
       <c r="H33" s="13"/>
-      <c r="I33" s="77"/>
+      <c r="I33" s="99"/>
     </row>
     <row r="34" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="58"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
+      <c r="A34" s="86"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
       <c r="F34" s="12" t="s">
         <v>43</v>
       </c>
@@ -2412,14 +2439,14 @@
         <v>16</v>
       </c>
       <c r="H34" s="13"/>
-      <c r="I34" s="77"/>
+      <c r="I34" s="99"/>
     </row>
     <row r="35" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="58"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
+      <c r="A35" s="86"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
       <c r="F35" s="14" t="s">
         <v>17</v>
       </c>
@@ -2427,22 +2454,22 @@
         <v>39</v>
       </c>
       <c r="H35" s="15"/>
-      <c r="I35" s="77"/>
+      <c r="I35" s="99"/>
     </row>
     <row r="36" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="58">
+      <c r="A36" s="86">
         <v>9</v>
       </c>
-      <c r="B36" s="78" t="s">
+      <c r="B36" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="60" t="s">
+      <c r="C36" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="60" t="s">
+      <c r="D36" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="62" t="s">
         <v>89</v>
       </c>
       <c r="F36" s="10" t="s">
@@ -2452,16 +2479,16 @@
         <v>11</v>
       </c>
       <c r="H36" s="11"/>
-      <c r="I36" s="77" t="s">
+      <c r="I36" s="99" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="58"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
+      <c r="A37" s="86"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
       <c r="F37" s="12" t="s">
         <v>13</v>
       </c>
@@ -2469,14 +2496,14 @@
         <v>14</v>
       </c>
       <c r="H37" s="13"/>
-      <c r="I37" s="77"/>
+      <c r="I37" s="99"/>
     </row>
     <row r="38" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="58"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
+      <c r="A38" s="86"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
       <c r="F38" s="12" t="s">
         <v>45</v>
       </c>
@@ -2484,14 +2511,14 @@
         <v>16</v>
       </c>
       <c r="H38" s="13"/>
-      <c r="I38" s="77"/>
+      <c r="I38" s="99"/>
     </row>
     <row r="39" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="58"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
+      <c r="A39" s="86"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
       <c r="F39" s="14" t="s">
         <v>17</v>
       </c>
@@ -2499,22 +2526,22 @@
         <v>39</v>
       </c>
       <c r="H39" s="15"/>
-      <c r="I39" s="77"/>
+      <c r="I39" s="99"/>
     </row>
     <row r="40" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="58">
+      <c r="A40" s="86">
         <v>10</v>
       </c>
-      <c r="B40" s="78" t="s">
+      <c r="B40" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C40" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="60" t="s">
+      <c r="D40" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="60" t="s">
+      <c r="E40" s="62" t="s">
         <v>90</v>
       </c>
       <c r="F40" s="10" t="s">
@@ -2524,16 +2551,16 @@
         <v>49</v>
       </c>
       <c r="H40" s="11"/>
-      <c r="I40" s="77" t="s">
+      <c r="I40" s="99" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="58"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
+      <c r="A41" s="86"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
       <c r="F41" s="12" t="s">
         <v>50</v>
       </c>
@@ -2541,14 +2568,14 @@
         <v>51</v>
       </c>
       <c r="H41" s="13"/>
-      <c r="I41" s="77"/>
+      <c r="I41" s="99"/>
     </row>
     <row r="42" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="58"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
+      <c r="A42" s="86"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
       <c r="F42" s="12" t="s">
         <v>52</v>
       </c>
@@ -2556,14 +2583,14 @@
         <v>53</v>
       </c>
       <c r="H42" s="13"/>
-      <c r="I42" s="77"/>
+      <c r="I42" s="99"/>
     </row>
     <row r="43" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="58"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
+      <c r="A43" s="86"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
       <c r="F43" s="12" t="s">
         <v>54</v>
       </c>
@@ -2571,14 +2598,14 @@
         <v>55</v>
       </c>
       <c r="H43" s="13"/>
-      <c r="I43" s="77"/>
+      <c r="I43" s="99"/>
     </row>
     <row r="44" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="58"/>
-      <c r="B44" s="78"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
+      <c r="A44" s="86"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
       <c r="F44" s="12" t="s">
         <v>56</v>
       </c>
@@ -2586,14 +2613,14 @@
         <v>57</v>
       </c>
       <c r="H44" s="13"/>
-      <c r="I44" s="77"/>
+      <c r="I44" s="99"/>
     </row>
     <row r="45" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="58"/>
-      <c r="B45" s="78"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
+      <c r="A45" s="86"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
       <c r="F45" s="12" t="s">
         <v>86</v>
       </c>
@@ -2601,14 +2628,14 @@
         <v>58</v>
       </c>
       <c r="H45" s="13"/>
-      <c r="I45" s="77"/>
+      <c r="I45" s="99"/>
     </row>
     <row r="46" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="58"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
+      <c r="A46" s="86"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
       <c r="F46" s="12" t="s">
         <v>59</v>
       </c>
@@ -2616,14 +2643,14 @@
         <v>60</v>
       </c>
       <c r="H46" s="13"/>
-      <c r="I46" s="77"/>
+      <c r="I46" s="99"/>
     </row>
     <row r="47" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="58"/>
-      <c r="B47" s="78"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
+      <c r="A47" s="86"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
       <c r="F47" s="14" t="s">
         <v>61</v>
       </c>
@@ -2631,22 +2658,22 @@
         <v>62</v>
       </c>
       <c r="H47" s="15"/>
-      <c r="I47" s="77"/>
+      <c r="I47" s="99"/>
     </row>
     <row r="48" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="58">
+      <c r="A48" s="86">
         <v>11</v>
       </c>
-      <c r="B48" s="78" t="s">
+      <c r="B48" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="60" t="s">
+      <c r="C48" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="60" t="s">
+      <c r="D48" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="60" t="s">
+      <c r="E48" s="62" t="s">
         <v>90</v>
       </c>
       <c r="F48" s="10" t="s">
@@ -2656,18 +2683,18 @@
         <v>49</v>
       </c>
       <c r="H48" s="11"/>
-      <c r="I48" s="77" t="s">
+      <c r="I48" s="99" t="s">
         <v>12</v>
       </c>
       <c r="J48" s="17"/>
       <c r="K48" s="17"/>
     </row>
     <row r="49" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="58"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
+      <c r="A49" s="86"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
       <c r="F49" s="12" t="s">
         <v>50</v>
       </c>
@@ -2675,16 +2702,16 @@
         <v>51</v>
       </c>
       <c r="H49" s="13"/>
-      <c r="I49" s="77"/>
+      <c r="I49" s="99"/>
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
     </row>
     <row r="50" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="58"/>
-      <c r="B50" s="78"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
+      <c r="A50" s="86"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
       <c r="F50" s="12" t="s">
         <v>65</v>
       </c>
@@ -2692,16 +2719,16 @@
         <v>53</v>
       </c>
       <c r="H50" s="13"/>
-      <c r="I50" s="77"/>
+      <c r="I50" s="99"/>
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
     </row>
     <row r="51" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="58"/>
-      <c r="B51" s="78"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
+      <c r="A51" s="86"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
       <c r="F51" s="12" t="s">
         <v>54</v>
       </c>
@@ -2709,16 +2736,16 @@
         <v>55</v>
       </c>
       <c r="H51" s="13"/>
-      <c r="I51" s="77"/>
+      <c r="I51" s="99"/>
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
     </row>
     <row r="52" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="58"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
+      <c r="A52" s="86"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
       <c r="F52" s="12" t="s">
         <v>56</v>
       </c>
@@ -2726,16 +2753,16 @@
         <v>57</v>
       </c>
       <c r="H52" s="13"/>
-      <c r="I52" s="77"/>
+      <c r="I52" s="99"/>
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
     </row>
     <row r="53" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="58"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
+      <c r="A53" s="86"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
       <c r="F53" s="12" t="s">
         <v>86</v>
       </c>
@@ -2743,16 +2770,16 @@
         <v>58</v>
       </c>
       <c r="H53" s="13"/>
-      <c r="I53" s="77"/>
+      <c r="I53" s="99"/>
       <c r="J53" s="17"/>
       <c r="K53" s="17"/>
     </row>
     <row r="54" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="58"/>
-      <c r="B54" s="78"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
+      <c r="A54" s="86"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="62"/>
       <c r="F54" s="12" t="s">
         <v>59</v>
       </c>
@@ -2760,16 +2787,16 @@
         <v>60</v>
       </c>
       <c r="H54" s="13"/>
-      <c r="I54" s="77"/>
+      <c r="I54" s="99"/>
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
     </row>
     <row r="55" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="58"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
+      <c r="A55" s="86"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
       <c r="F55" s="14" t="s">
         <v>61</v>
       </c>
@@ -2777,24 +2804,24 @@
         <v>62</v>
       </c>
       <c r="H55" s="15"/>
-      <c r="I55" s="77"/>
+      <c r="I55" s="99"/>
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
     </row>
     <row r="56" spans="1:11" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="58">
+      <c r="A56" s="86">
         <v>12</v>
       </c>
-      <c r="B56" s="78" t="s">
+      <c r="B56" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="60" t="s">
+      <c r="C56" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="D56" s="60" t="s">
+      <c r="D56" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="E56" s="60" t="s">
+      <c r="E56" s="62" t="s">
         <v>90</v>
       </c>
       <c r="F56" s="10" t="s">
@@ -2804,18 +2831,18 @@
         <v>49</v>
       </c>
       <c r="H56" s="11"/>
-      <c r="I56" s="77" t="s">
+      <c r="I56" s="99" t="s">
         <v>12</v>
       </c>
       <c r="J56" s="17"/>
       <c r="K56" s="17"/>
     </row>
     <row r="57" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="58"/>
-      <c r="B57" s="78"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
+      <c r="A57" s="86"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="62"/>
       <c r="F57" s="12" t="s">
         <v>68</v>
       </c>
@@ -2823,16 +2850,16 @@
         <v>69</v>
       </c>
       <c r="H57" s="13"/>
-      <c r="I57" s="77"/>
+      <c r="I57" s="99"/>
       <c r="J57" s="17"/>
       <c r="K57" s="17"/>
     </row>
     <row r="58" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="58"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
+      <c r="A58" s="86"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="62"/>
       <c r="F58" s="12" t="s">
         <v>87</v>
       </c>
@@ -2840,16 +2867,16 @@
         <v>88</v>
       </c>
       <c r="H58" s="13"/>
-      <c r="I58" s="77"/>
+      <c r="I58" s="99"/>
       <c r="J58" s="17"/>
       <c r="K58" s="17"/>
     </row>
     <row r="59" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="58"/>
-      <c r="B59" s="78"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
+      <c r="A59" s="86"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="62"/>
       <c r="F59" s="14" t="s">
         <v>70</v>
       </c>
@@ -2857,24 +2884,24 @@
         <v>71</v>
       </c>
       <c r="H59" s="15"/>
-      <c r="I59" s="77"/>
+      <c r="I59" s="99"/>
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
     </row>
     <row r="60" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="58">
+      <c r="A60" s="86">
         <v>13</v>
       </c>
-      <c r="B60" s="78" t="s">
+      <c r="B60" s="81" t="s">
         <v>140</v>
       </c>
-      <c r="C60" s="60" t="s">
+      <c r="C60" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="D60" s="60" t="s">
+      <c r="D60" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="E60" s="60" t="s">
+      <c r="E60" s="62" t="s">
         <v>90</v>
       </c>
       <c r="F60" s="10" t="s">
@@ -2884,18 +2911,18 @@
         <v>49</v>
       </c>
       <c r="H60" s="11"/>
-      <c r="I60" s="69" t="s">
+      <c r="I60" s="101" t="s">
         <v>12</v>
       </c>
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
     </row>
     <row r="61" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="59"/>
-      <c r="B61" s="105"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
+      <c r="A61" s="87"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
       <c r="F61" s="12" t="s">
         <v>68</v>
       </c>
@@ -2903,16 +2930,16 @@
         <v>69</v>
       </c>
       <c r="H61" s="13"/>
-      <c r="I61" s="70"/>
+      <c r="I61" s="102"/>
       <c r="J61" s="17"/>
       <c r="K61" s="17"/>
     </row>
     <row r="62" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="59"/>
-      <c r="B62" s="105"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
+      <c r="A62" s="87"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
       <c r="F62" s="12" t="s">
         <v>143</v>
       </c>
@@ -2920,16 +2947,16 @@
         <v>146</v>
       </c>
       <c r="H62" s="13"/>
-      <c r="I62" s="70"/>
+      <c r="I62" s="102"/>
       <c r="J62" s="17"/>
       <c r="K62" s="17"/>
     </row>
     <row r="63" spans="1:11" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="59"/>
-      <c r="B63" s="105"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
+      <c r="A63" s="87"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="63"/>
       <c r="F63" s="12" t="s">
         <v>144</v>
       </c>
@@ -2937,16 +2964,16 @@
         <v>147</v>
       </c>
       <c r="H63" s="13"/>
-      <c r="I63" s="70"/>
+      <c r="I63" s="102"/>
       <c r="J63" s="17"/>
       <c r="K63" s="17"/>
     </row>
     <row r="64" spans="1:11" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="59"/>
-      <c r="B64" s="105"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
+      <c r="A64" s="87"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
       <c r="F64" s="14" t="s">
         <v>145</v>
       </c>
@@ -2954,24 +2981,24 @@
         <v>148</v>
       </c>
       <c r="H64" s="15"/>
-      <c r="I64" s="70"/>
+      <c r="I64" s="102"/>
       <c r="J64" s="17"/>
       <c r="K64" s="17"/>
     </row>
     <row r="65" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="58">
+      <c r="A65" s="86">
         <v>14</v>
       </c>
-      <c r="B65" s="78" t="s">
+      <c r="B65" s="81" t="s">
         <v>156</v>
       </c>
-      <c r="C65" s="60" t="s">
+      <c r="C65" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D65" s="60" t="s">
+      <c r="D65" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="60" t="s">
+      <c r="E65" s="62" t="s">
         <v>90</v>
       </c>
       <c r="F65" s="10" t="s">
@@ -2981,18 +3008,18 @@
         <v>110</v>
       </c>
       <c r="H65" s="11"/>
-      <c r="I65" s="69" t="s">
+      <c r="I65" s="101" t="s">
         <v>163</v>
       </c>
       <c r="J65" s="17"/>
       <c r="K65" s="17"/>
     </row>
     <row r="66" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="59"/>
-      <c r="B66" s="105"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
+      <c r="A66" s="87"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="63"/>
       <c r="F66" s="12" t="s">
         <v>111</v>
       </c>
@@ -3000,16 +3027,16 @@
         <v>168</v>
       </c>
       <c r="H66" s="13"/>
-      <c r="I66" s="70"/>
+      <c r="I66" s="102"/>
       <c r="J66" s="17"/>
       <c r="K66" s="17"/>
     </row>
     <row r="67" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="59"/>
-      <c r="B67" s="105"/>
-      <c r="C67" s="61"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
+      <c r="A67" s="87"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
       <c r="F67" s="12" t="s">
         <v>158</v>
       </c>
@@ -3017,16 +3044,16 @@
         <v>113</v>
       </c>
       <c r="H67" s="13"/>
-      <c r="I67" s="70"/>
+      <c r="I67" s="102"/>
       <c r="J67" s="17"/>
       <c r="K67" s="17"/>
     </row>
     <row r="68" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="59"/>
-      <c r="B68" s="105"/>
-      <c r="C68" s="61"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="61"/>
+      <c r="A68" s="87"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
       <c r="F68" s="12" t="s">
         <v>159</v>
       </c>
@@ -3034,16 +3061,16 @@
         <v>161</v>
       </c>
       <c r="H68" s="13"/>
-      <c r="I68" s="70"/>
+      <c r="I68" s="102"/>
       <c r="J68" s="17"/>
       <c r="K68" s="17"/>
     </row>
     <row r="69" spans="1:11" ht="64.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="76"/>
-      <c r="B69" s="109"/>
-      <c r="C69" s="68"/>
-      <c r="D69" s="68"/>
-      <c r="E69" s="68"/>
+      <c r="A69" s="103"/>
+      <c r="B69" s="89"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
       <c r="F69" s="18" t="s">
         <v>160</v>
       </c>
@@ -3051,24 +3078,24 @@
         <v>162</v>
       </c>
       <c r="H69" s="19"/>
-      <c r="I69" s="71"/>
+      <c r="I69" s="104"/>
       <c r="J69" s="17"/>
       <c r="K69" s="17"/>
     </row>
     <row r="70" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="58">
+      <c r="A70" s="86">
         <v>15</v>
       </c>
-      <c r="B70" s="78" t="s">
+      <c r="B70" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="C70" s="60" t="s">
+      <c r="C70" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D70" s="60" t="s">
+      <c r="D70" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="E70" s="60" t="s">
+      <c r="E70" s="62" t="s">
         <v>90</v>
       </c>
       <c r="F70" s="10" t="s">
@@ -3078,18 +3105,18 @@
         <v>110</v>
       </c>
       <c r="H70" s="11"/>
-      <c r="I70" s="69" t="s">
+      <c r="I70" s="101" t="s">
         <v>12</v>
       </c>
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
     </row>
     <row r="71" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="59"/>
-      <c r="B71" s="105"/>
-      <c r="C71" s="61"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
+      <c r="A71" s="87"/>
+      <c r="B71" s="61"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="63"/>
       <c r="F71" s="21" t="s">
         <v>111</v>
       </c>
@@ -3097,16 +3124,16 @@
         <v>168</v>
       </c>
       <c r="H71" s="22"/>
-      <c r="I71" s="70"/>
+      <c r="I71" s="102"/>
       <c r="J71" s="17"/>
       <c r="K71" s="17"/>
     </row>
     <row r="72" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="59"/>
-      <c r="B72" s="105"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
+      <c r="A72" s="87"/>
+      <c r="B72" s="61"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
       <c r="F72" s="21" t="s">
         <v>158</v>
       </c>
@@ -3114,16 +3141,16 @@
         <v>113</v>
       </c>
       <c r="H72" s="22"/>
-      <c r="I72" s="70"/>
+      <c r="I72" s="102"/>
       <c r="J72" s="17"/>
       <c r="K72" s="17"/>
     </row>
     <row r="73" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A73" s="59"/>
-      <c r="B73" s="105"/>
-      <c r="C73" s="61"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="61"/>
+      <c r="A73" s="87"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="63"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="63"/>
       <c r="F73" s="21" t="s">
         <v>159</v>
       </c>
@@ -3131,16 +3158,16 @@
         <v>161</v>
       </c>
       <c r="H73" s="22"/>
-      <c r="I73" s="70"/>
+      <c r="I73" s="102"/>
       <c r="J73" s="17"/>
       <c r="K73" s="17"/>
     </row>
     <row r="74" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="76"/>
-      <c r="B74" s="109"/>
-      <c r="C74" s="68"/>
-      <c r="D74" s="68"/>
-      <c r="E74" s="68"/>
+      <c r="A74" s="103"/>
+      <c r="B74" s="89"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="64"/>
       <c r="F74" s="34" t="s">
         <v>166</v>
       </c>
@@ -3148,24 +3175,24 @@
         <v>167</v>
       </c>
       <c r="H74" s="35"/>
-      <c r="I74" s="71"/>
+      <c r="I74" s="104"/>
       <c r="J74" s="17"/>
       <c r="K74" s="17"/>
     </row>
     <row r="75" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="72">
+      <c r="A75" s="100">
         <v>16</v>
       </c>
-      <c r="B75" s="78" t="s">
+      <c r="B75" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="C75" s="60" t="s">
+      <c r="C75" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D75" s="60" t="s">
+      <c r="D75" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="E75" s="60" t="s">
+      <c r="E75" s="62" t="s">
         <v>90</v>
       </c>
       <c r="F75" s="21" t="s">
@@ -3175,18 +3202,18 @@
         <v>110</v>
       </c>
       <c r="H75" s="22"/>
-      <c r="I75" s="60" t="s">
+      <c r="I75" s="62" t="s">
         <v>163</v>
       </c>
       <c r="J75" s="17"/>
       <c r="K75" s="17"/>
     </row>
     <row r="76" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="73"/>
-      <c r="B76" s="105"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="61"/>
+      <c r="A76" s="107"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="63"/>
       <c r="F76" s="12" t="s">
         <v>111</v>
       </c>
@@ -3194,16 +3221,16 @@
         <v>168</v>
       </c>
       <c r="H76" s="13"/>
-      <c r="I76" s="61"/>
+      <c r="I76" s="63"/>
       <c r="J76" s="17"/>
       <c r="K76" s="17"/>
     </row>
     <row r="77" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="74"/>
-      <c r="B77" s="110"/>
-      <c r="C77" s="75"/>
-      <c r="D77" s="75"/>
-      <c r="E77" s="75"/>
+      <c r="A77" s="108"/>
+      <c r="B77" s="109"/>
+      <c r="C77" s="110"/>
+      <c r="D77" s="110"/>
+      <c r="E77" s="110"/>
       <c r="F77" s="12" t="s">
         <v>171</v>
       </c>
@@ -3211,24 +3238,24 @@
         <v>172</v>
       </c>
       <c r="H77" s="13"/>
-      <c r="I77" s="75"/>
+      <c r="I77" s="110"/>
       <c r="J77" s="17"/>
       <c r="K77" s="17"/>
     </row>
     <row r="78" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="58">
+      <c r="A78" s="86">
         <v>17</v>
       </c>
-      <c r="B78" s="78" t="s">
+      <c r="B78" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="C78" s="60" t="s">
+      <c r="C78" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="60" t="s">
+      <c r="D78" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E78" s="60" t="s">
+      <c r="E78" s="62" t="s">
         <v>90</v>
       </c>
       <c r="F78" s="10" t="s">
@@ -3243,11 +3270,11 @@
       <c r="K78" s="17"/>
     </row>
     <row r="79" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="59"/>
-      <c r="B79" s="105"/>
-      <c r="C79" s="61"/>
-      <c r="D79" s="61"/>
-      <c r="E79" s="61"/>
+      <c r="A79" s="87"/>
+      <c r="B79" s="61"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="63"/>
       <c r="F79" s="12" t="s">
         <v>102</v>
       </c>
@@ -3260,11 +3287,11 @@
       <c r="K79" s="17"/>
     </row>
     <row r="80" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="59"/>
-      <c r="B80" s="105"/>
-      <c r="C80" s="61"/>
-      <c r="D80" s="61"/>
-      <c r="E80" s="61"/>
+      <c r="A80" s="87"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="63"/>
       <c r="F80" s="12" t="s">
         <v>103</v>
       </c>
@@ -3277,11 +3304,11 @@
       <c r="K80" s="17"/>
     </row>
     <row r="81" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A81" s="59"/>
-      <c r="B81" s="105"/>
-      <c r="C81" s="61"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="61"/>
+      <c r="A81" s="87"/>
+      <c r="B81" s="61"/>
+      <c r="C81" s="63"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="63"/>
       <c r="F81" s="29" t="s">
         <v>151</v>
       </c>
@@ -3294,11 +3321,11 @@
       <c r="K81" s="17"/>
     </row>
     <row r="82" spans="1:11" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="76"/>
-      <c r="B82" s="109"/>
-      <c r="C82" s="68"/>
-      <c r="D82" s="68"/>
-      <c r="E82" s="68"/>
+      <c r="A82" s="103"/>
+      <c r="B82" s="89"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="64"/>
       <c r="F82" s="31" t="s">
         <v>152</v>
       </c>
@@ -3311,25 +3338,25 @@
       <c r="K82" s="17"/>
     </row>
     <row r="83" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="59">
+      <c r="A83" s="87">
         <v>18</v>
       </c>
-      <c r="B83" s="105" t="s">
+      <c r="B83" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="C83" s="61" t="s">
+      <c r="C83" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="D83" s="61" t="s">
+      <c r="D83" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="E83" s="61" t="s">
+      <c r="E83" s="63" t="s">
         <v>90</v>
       </c>
       <c r="F83" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="G83" s="61" t="s">
+      <c r="G83" s="63" t="s">
         <v>106</v>
       </c>
       <c r="H83" s="22"/>
@@ -3338,139 +3365,139 @@
       <c r="K83" s="17"/>
     </row>
     <row r="84" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A84" s="59"/>
-      <c r="B84" s="105"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="61"/>
+      <c r="A84" s="87"/>
+      <c r="B84" s="61"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="63"/>
       <c r="F84" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="G84" s="61"/>
+      <c r="G84" s="63"/>
       <c r="H84" s="13"/>
       <c r="I84" s="23"/>
       <c r="J84" s="17"/>
       <c r="K84" s="17"/>
     </row>
     <row r="85" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="59"/>
-      <c r="B85" s="105"/>
-      <c r="C85" s="61"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
+      <c r="A85" s="87"/>
+      <c r="B85" s="61"/>
+      <c r="C85" s="63"/>
+      <c r="D85" s="63"/>
+      <c r="E85" s="63"/>
       <c r="F85" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G85" s="61"/>
+      <c r="G85" s="63"/>
       <c r="H85" s="13"/>
       <c r="I85" s="23"/>
       <c r="J85" s="17"/>
       <c r="K85" s="17"/>
     </row>
     <row r="86" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A86" s="59"/>
-      <c r="B86" s="105"/>
-      <c r="C86" s="61"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="61"/>
+      <c r="A86" s="87"/>
+      <c r="B86" s="61"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
       <c r="F86" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G86" s="61"/>
+      <c r="G86" s="63"/>
       <c r="H86" s="13"/>
       <c r="I86" s="23"/>
       <c r="J86" s="17"/>
       <c r="K86" s="17"/>
     </row>
     <row r="87" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A87" s="59"/>
-      <c r="B87" s="105"/>
-      <c r="C87" s="61"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="61"/>
+      <c r="A87" s="87"/>
+      <c r="B87" s="61"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="63"/>
       <c r="F87" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G87" s="61"/>
+      <c r="G87" s="63"/>
       <c r="H87" s="13"/>
       <c r="I87" s="23"/>
       <c r="J87" s="17"/>
       <c r="K87" s="17"/>
     </row>
     <row r="88" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A88" s="59"/>
-      <c r="B88" s="105"/>
-      <c r="C88" s="61"/>
-      <c r="D88" s="61"/>
-      <c r="E88" s="61"/>
+      <c r="A88" s="87"/>
+      <c r="B88" s="61"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="63"/>
       <c r="F88" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G88" s="61"/>
+      <c r="G88" s="63"/>
       <c r="H88" s="13"/>
       <c r="I88" s="23"/>
       <c r="J88" s="17"/>
       <c r="K88" s="17"/>
     </row>
     <row r="89" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="59"/>
-      <c r="B89" s="105"/>
-      <c r="C89" s="61"/>
-      <c r="D89" s="61"/>
-      <c r="E89" s="61"/>
+      <c r="A89" s="87"/>
+      <c r="B89" s="61"/>
+      <c r="C89" s="63"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="63"/>
       <c r="F89" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G89" s="61"/>
+      <c r="G89" s="63"/>
       <c r="H89" s="13"/>
       <c r="I89" s="23"/>
       <c r="J89" s="17"/>
       <c r="K89" s="17"/>
     </row>
     <row r="90" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="59"/>
-      <c r="B90" s="105"/>
-      <c r="C90" s="61"/>
-      <c r="D90" s="61"/>
-      <c r="E90" s="61"/>
+      <c r="A90" s="87"/>
+      <c r="B90" s="61"/>
+      <c r="C90" s="63"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="63"/>
       <c r="F90" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="G90" s="61"/>
+      <c r="G90" s="63"/>
       <c r="H90" s="13"/>
       <c r="I90" s="23"/>
       <c r="J90" s="17"/>
       <c r="K90" s="17"/>
     </row>
     <row r="91" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="59"/>
-      <c r="B91" s="105"/>
-      <c r="C91" s="61"/>
-      <c r="D91" s="61"/>
-      <c r="E91" s="61"/>
+      <c r="A91" s="87"/>
+      <c r="B91" s="61"/>
+      <c r="C91" s="63"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="63"/>
       <c r="F91" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="G91" s="61"/>
+      <c r="G91" s="63"/>
       <c r="H91" s="15"/>
       <c r="I91" s="24"/>
       <c r="J91" s="17"/>
       <c r="K91" s="17"/>
     </row>
     <row r="92" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="58">
+      <c r="A92" s="86">
         <v>19</v>
       </c>
-      <c r="B92" s="78" t="s">
+      <c r="B92" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="C92" s="60" t="s">
+      <c r="C92" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="D92" s="60" t="s">
+      <c r="D92" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="E92" s="60" t="s">
+      <c r="E92" s="62" t="s">
         <v>90</v>
       </c>
       <c r="F92" s="10" t="s">
@@ -3485,11 +3512,11 @@
       <c r="K92" s="17"/>
     </row>
     <row r="93" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="59"/>
-      <c r="B93" s="105"/>
-      <c r="C93" s="61"/>
-      <c r="D93" s="61"/>
-      <c r="E93" s="61"/>
+      <c r="A93" s="87"/>
+      <c r="B93" s="61"/>
+      <c r="C93" s="63"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="63"/>
       <c r="F93" s="12" t="s">
         <v>111</v>
       </c>
@@ -3502,11 +3529,11 @@
       <c r="K93" s="17"/>
     </row>
     <row r="94" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="59"/>
-      <c r="B94" s="105"/>
-      <c r="C94" s="61"/>
-      <c r="D94" s="61"/>
-      <c r="E94" s="61"/>
+      <c r="A94" s="87"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="63"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="63"/>
       <c r="F94" s="12" t="s">
         <v>103</v>
       </c>
@@ -3519,11 +3546,11 @@
       <c r="K94" s="17"/>
     </row>
     <row r="95" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A95" s="59"/>
-      <c r="B95" s="105"/>
-      <c r="C95" s="61"/>
-      <c r="D95" s="61"/>
-      <c r="E95" s="61"/>
+      <c r="A95" s="87"/>
+      <c r="B95" s="61"/>
+      <c r="C95" s="63"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="63"/>
       <c r="F95" s="12" t="s">
         <v>104</v>
       </c>
@@ -3536,11 +3563,11 @@
       <c r="K95" s="17"/>
     </row>
     <row r="96" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="59"/>
-      <c r="B96" s="105"/>
-      <c r="C96" s="61"/>
-      <c r="D96" s="61"/>
-      <c r="E96" s="61"/>
+      <c r="A96" s="87"/>
+      <c r="B96" s="61"/>
+      <c r="C96" s="63"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="63"/>
       <c r="F96" s="12" t="s">
         <v>108</v>
       </c>
@@ -3553,11 +3580,11 @@
       <c r="K96" s="17"/>
     </row>
     <row r="97" spans="1:11" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="59"/>
-      <c r="B97" s="105"/>
-      <c r="C97" s="61"/>
-      <c r="D97" s="61"/>
-      <c r="E97" s="61"/>
+      <c r="A97" s="87"/>
+      <c r="B97" s="61"/>
+      <c r="C97" s="63"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="63"/>
       <c r="F97" s="14" t="s">
         <v>109</v>
       </c>
@@ -3570,19 +3597,19 @@
       <c r="K97" s="17"/>
     </row>
     <row r="98" spans="1:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="58">
+      <c r="A98" s="86">
         <v>20</v>
       </c>
-      <c r="B98" s="78" t="s">
+      <c r="B98" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="C98" s="60" t="s">
+      <c r="C98" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="D98" s="60" t="s">
+      <c r="D98" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E98" s="60" t="s">
+      <c r="E98" s="62" t="s">
         <v>90</v>
       </c>
       <c r="F98" s="10" t="s">
@@ -3597,11 +3624,11 @@
       <c r="K98" s="17"/>
     </row>
     <row r="99" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="59"/>
-      <c r="B99" s="105"/>
-      <c r="C99" s="61"/>
-      <c r="D99" s="61"/>
-      <c r="E99" s="61"/>
+      <c r="A99" s="87"/>
+      <c r="B99" s="61"/>
+      <c r="C99" s="63"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="63"/>
       <c r="F99" s="12" t="s">
         <v>111</v>
       </c>
@@ -3614,11 +3641,11 @@
       <c r="K99" s="17"/>
     </row>
     <row r="100" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="59"/>
-      <c r="B100" s="105"/>
-      <c r="C100" s="61"/>
-      <c r="D100" s="61"/>
-      <c r="E100" s="61"/>
+      <c r="A100" s="87"/>
+      <c r="B100" s="61"/>
+      <c r="C100" s="63"/>
+      <c r="D100" s="63"/>
+      <c r="E100" s="63"/>
       <c r="F100" s="12" t="s">
         <v>103</v>
       </c>
@@ -3631,11 +3658,11 @@
       <c r="K100" s="17"/>
     </row>
     <row r="101" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A101" s="59"/>
-      <c r="B101" s="105"/>
-      <c r="C101" s="61"/>
-      <c r="D101" s="61"/>
-      <c r="E101" s="61"/>
+      <c r="A101" s="87"/>
+      <c r="B101" s="61"/>
+      <c r="C101" s="63"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="63"/>
       <c r="F101" s="12" t="s">
         <v>104</v>
       </c>
@@ -3648,11 +3675,11 @@
       <c r="K101" s="17"/>
     </row>
     <row r="102" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="59"/>
-      <c r="B102" s="105"/>
-      <c r="C102" s="61"/>
-      <c r="D102" s="61"/>
-      <c r="E102" s="61"/>
+      <c r="A102" s="87"/>
+      <c r="B102" s="61"/>
+      <c r="C102" s="63"/>
+      <c r="D102" s="63"/>
+      <c r="E102" s="63"/>
       <c r="F102" s="14" t="s">
         <v>120</v>
       </c>
@@ -3665,19 +3692,19 @@
       <c r="K102" s="17"/>
     </row>
     <row r="103" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="58">
+      <c r="A103" s="86">
         <v>21</v>
       </c>
-      <c r="B103" s="78" t="s">
+      <c r="B103" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="C103" s="60" t="s">
+      <c r="C103" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D103" s="60" t="s">
+      <c r="D103" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="E103" s="60" t="s">
+      <c r="E103" s="62" t="s">
         <v>90</v>
       </c>
       <c r="F103" s="10" t="s">
@@ -3692,11 +3719,11 @@
       <c r="K103" s="17"/>
     </row>
     <row r="104" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="59"/>
-      <c r="B104" s="105"/>
-      <c r="C104" s="61"/>
-      <c r="D104" s="61"/>
-      <c r="E104" s="61"/>
+      <c r="A104" s="87"/>
+      <c r="B104" s="61"/>
+      <c r="C104" s="63"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="63"/>
       <c r="F104" s="12" t="s">
         <v>111</v>
       </c>
@@ -3709,11 +3736,11 @@
       <c r="K104" s="17"/>
     </row>
     <row r="105" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="59"/>
-      <c r="B105" s="105"/>
-      <c r="C105" s="61"/>
-      <c r="D105" s="61"/>
-      <c r="E105" s="61"/>
+      <c r="A105" s="87"/>
+      <c r="B105" s="61"/>
+      <c r="C105" s="63"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="63"/>
       <c r="F105" s="12" t="s">
         <v>124</v>
       </c>
@@ -3726,11 +3753,11 @@
       <c r="K105" s="17"/>
     </row>
     <row r="106" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A106" s="59"/>
-      <c r="B106" s="105"/>
-      <c r="C106" s="61"/>
-      <c r="D106" s="61"/>
-      <c r="E106" s="61"/>
+      <c r="A106" s="87"/>
+      <c r="B106" s="61"/>
+      <c r="C106" s="63"/>
+      <c r="D106" s="63"/>
+      <c r="E106" s="63"/>
       <c r="F106" s="12" t="s">
         <v>125</v>
       </c>
@@ -3743,11 +3770,11 @@
       <c r="K106" s="17"/>
     </row>
     <row r="107" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A107" s="59"/>
-      <c r="B107" s="105"/>
-      <c r="C107" s="61"/>
-      <c r="D107" s="61"/>
-      <c r="E107" s="61"/>
+      <c r="A107" s="87"/>
+      <c r="B107" s="61"/>
+      <c r="C107" s="63"/>
+      <c r="D107" s="63"/>
+      <c r="E107" s="63"/>
       <c r="F107" s="12" t="s">
         <v>126</v>
       </c>
@@ -3760,11 +3787,11 @@
       <c r="K107" s="17"/>
     </row>
     <row r="108" spans="1:11" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="59"/>
-      <c r="B108" s="105"/>
-      <c r="C108" s="61"/>
-      <c r="D108" s="61"/>
-      <c r="E108" s="61"/>
+      <c r="A108" s="87"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="63"/>
+      <c r="D108" s="63"/>
+      <c r="E108" s="63"/>
       <c r="F108" s="14" t="s">
         <v>127</v>
       </c>
@@ -3777,19 +3804,19 @@
       <c r="K108" s="17"/>
     </row>
     <row r="109" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="58">
+      <c r="A109" s="86">
         <v>22</v>
       </c>
-      <c r="B109" s="78" t="s">
+      <c r="B109" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="C109" s="60" t="s">
+      <c r="C109" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="D109" s="60" t="s">
+      <c r="D109" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="E109" s="60" t="s">
+      <c r="E109" s="62" t="s">
         <v>90</v>
       </c>
       <c r="F109" s="10" t="s">
@@ -3804,11 +3831,11 @@
       <c r="K109" s="17"/>
     </row>
     <row r="110" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A110" s="59"/>
-      <c r="B110" s="105"/>
-      <c r="C110" s="61"/>
-      <c r="D110" s="61"/>
-      <c r="E110" s="61"/>
+      <c r="A110" s="87"/>
+      <c r="B110" s="61"/>
+      <c r="C110" s="63"/>
+      <c r="D110" s="63"/>
+      <c r="E110" s="63"/>
       <c r="F110" s="12" t="s">
         <v>135</v>
       </c>
@@ -3821,11 +3848,11 @@
       <c r="K110" s="17"/>
     </row>
     <row r="111" spans="1:11" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="76"/>
-      <c r="B111" s="109"/>
-      <c r="C111" s="68"/>
-      <c r="D111" s="68"/>
-      <c r="E111" s="68"/>
+      <c r="A111" s="103"/>
+      <c r="B111" s="89"/>
+      <c r="C111" s="64"/>
+      <c r="D111" s="64"/>
+      <c r="E111" s="64"/>
       <c r="F111" s="18" t="s">
         <v>136</v>
       </c>
@@ -3841,16 +3868,16 @@
       <c r="A112" s="84">
         <v>23</v>
       </c>
-      <c r="B112" s="104" t="s">
+      <c r="B112" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="C112" s="60" t="s">
+      <c r="C112" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="D112" s="60" t="s">
+      <c r="D112" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="E112" s="60" t="s">
+      <c r="E112" s="62" t="s">
         <v>90</v>
       </c>
       <c r="F112" s="10" t="s">
@@ -3860,7 +3887,7 @@
         <v>75</v>
       </c>
       <c r="H112" s="11"/>
-      <c r="I112" s="77" t="s">
+      <c r="I112" s="99" t="s">
         <v>12</v>
       </c>
       <c r="J112" s="17"/>
@@ -3868,10 +3895,10 @@
     </row>
     <row r="113" spans="1:11" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="84"/>
-      <c r="B113" s="104"/>
-      <c r="C113" s="60"/>
-      <c r="D113" s="60"/>
-      <c r="E113" s="60"/>
+      <c r="B113" s="85"/>
+      <c r="C113" s="62"/>
+      <c r="D113" s="62"/>
+      <c r="E113" s="62"/>
       <c r="F113" s="12" t="s">
         <v>76</v>
       </c>
@@ -3879,7 +3906,7 @@
         <v>77</v>
       </c>
       <c r="H113" s="13"/>
-      <c r="I113" s="77"/>
+      <c r="I113" s="99"/>
       <c r="J113" s="17"/>
       <c r="K113" s="17"/>
     </row>
@@ -3887,16 +3914,16 @@
       <c r="A114" s="84">
         <v>24</v>
       </c>
-      <c r="B114" s="85" t="s">
+      <c r="B114" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="C114" s="86" t="s">
+      <c r="C114" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="D114" s="86" t="s">
+      <c r="D114" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="E114" s="86" t="s">
+      <c r="E114" s="98" t="s">
         <v>90</v>
       </c>
       <c r="F114" s="10" t="s">
@@ -3906,17 +3933,17 @@
         <v>81</v>
       </c>
       <c r="H114" s="11"/>
-      <c r="I114" s="79" t="s">
+      <c r="I114" s="92" t="s">
         <v>12</v>
       </c>
       <c r="J114" s="17"/>
     </row>
     <row r="115" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="84"/>
-      <c r="B115" s="85"/>
-      <c r="C115" s="86"/>
-      <c r="D115" s="86"/>
-      <c r="E115" s="86"/>
+      <c r="B115" s="97"/>
+      <c r="C115" s="98"/>
+      <c r="D115" s="98"/>
+      <c r="E115" s="98"/>
       <c r="F115" s="12" t="s">
         <v>82</v>
       </c>
@@ -3924,23 +3951,23 @@
         <v>83</v>
       </c>
       <c r="H115" s="13"/>
-      <c r="I115" s="79"/>
+      <c r="I115" s="92"/>
       <c r="J115" s="17"/>
     </row>
     <row r="116" spans="1:11" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="80">
+      <c r="A116" s="93">
         <v>25</v>
       </c>
-      <c r="B116" s="81" t="s">
+      <c r="B116" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="C116" s="82" t="s">
+      <c r="C116" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="D116" s="82" t="s">
+      <c r="D116" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="E116" s="82" t="s">
+      <c r="E116" s="95" t="s">
         <v>90</v>
       </c>
       <c r="F116" s="10" t="s">
@@ -3950,16 +3977,16 @@
         <v>81</v>
       </c>
       <c r="H116" s="11"/>
-      <c r="I116" s="83" t="s">
+      <c r="I116" s="96" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="80"/>
-      <c r="B117" s="81"/>
-      <c r="C117" s="82"/>
-      <c r="D117" s="82"/>
-      <c r="E117" s="82"/>
+      <c r="A117" s="93"/>
+      <c r="B117" s="94"/>
+      <c r="C117" s="95"/>
+      <c r="D117" s="95"/>
+      <c r="E117" s="95"/>
       <c r="F117" s="12" t="s">
         <v>85</v>
       </c>
@@ -3967,22 +3994,22 @@
         <v>83</v>
       </c>
       <c r="H117" s="13"/>
-      <c r="I117" s="83"/>
+      <c r="I117" s="96"/>
     </row>
     <row r="118" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="64">
+      <c r="A118" s="105">
         <v>26</v>
       </c>
-      <c r="B118" s="78" t="s">
+      <c r="B118" s="81" t="s">
         <v>173</v>
       </c>
-      <c r="C118" s="60" t="s">
+      <c r="C118" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D118" s="66" t="s">
+      <c r="D118" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="E118" s="60" t="s">
+      <c r="E118" s="62" t="s">
         <v>89</v>
       </c>
       <c r="F118" s="10" t="s">
@@ -3992,16 +4019,16 @@
         <v>179</v>
       </c>
       <c r="H118" s="38"/>
-      <c r="I118" s="62" t="s">
+      <c r="I118" s="74" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="65"/>
-      <c r="B119" s="105"/>
-      <c r="C119" s="61"/>
-      <c r="D119" s="67"/>
-      <c r="E119" s="61"/>
+      <c r="A119" s="106"/>
+      <c r="B119" s="61"/>
+      <c r="C119" s="63"/>
+      <c r="D119" s="72"/>
+      <c r="E119" s="63"/>
       <c r="F119" s="12" t="s">
         <v>176</v>
       </c>
@@ -4009,14 +4036,14 @@
         <v>180</v>
       </c>
       <c r="H119" s="26"/>
-      <c r="I119" s="63"/>
+      <c r="I119" s="75"/>
     </row>
     <row r="120" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A120" s="65"/>
-      <c r="B120" s="105"/>
-      <c r="C120" s="61"/>
-      <c r="D120" s="67"/>
-      <c r="E120" s="61"/>
+      <c r="A120" s="106"/>
+      <c r="B120" s="61"/>
+      <c r="C120" s="63"/>
+      <c r="D120" s="72"/>
+      <c r="E120" s="63"/>
       <c r="F120" s="12" t="s">
         <v>177</v>
       </c>
@@ -4024,14 +4051,14 @@
         <v>181</v>
       </c>
       <c r="H120" s="26"/>
-      <c r="I120" s="63"/>
+      <c r="I120" s="75"/>
     </row>
     <row r="121" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="65"/>
-      <c r="B121" s="105"/>
-      <c r="C121" s="61"/>
-      <c r="D121" s="67"/>
-      <c r="E121" s="61"/>
+      <c r="A121" s="106"/>
+      <c r="B121" s="61"/>
+      <c r="C121" s="63"/>
+      <c r="D121" s="72"/>
+      <c r="E121" s="63"/>
       <c r="F121" s="14" t="s">
         <v>178</v>
       </c>
@@ -4039,22 +4066,22 @@
         <v>182</v>
       </c>
       <c r="H121" s="41"/>
-      <c r="I121" s="63"/>
+      <c r="I121" s="75"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="99">
+      <c r="A122" s="68">
         <v>27</v>
       </c>
-      <c r="B122" s="106" t="s">
+      <c r="B122" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="C122" s="60" t="s">
+      <c r="C122" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D122" s="66" t="s">
+      <c r="D122" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="E122" s="60" t="s">
+      <c r="E122" s="62" t="s">
         <v>90</v>
       </c>
       <c r="F122" s="10" t="s">
@@ -4064,16 +4091,16 @@
         <v>188</v>
       </c>
       <c r="H122" s="38"/>
-      <c r="I122" s="62" t="s">
+      <c r="I122" s="74" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="100"/>
-      <c r="B123" s="107"/>
-      <c r="C123" s="61"/>
-      <c r="D123" s="67"/>
-      <c r="E123" s="61"/>
+      <c r="A123" s="69"/>
+      <c r="B123" s="66"/>
+      <c r="C123" s="63"/>
+      <c r="D123" s="72"/>
+      <c r="E123" s="63"/>
       <c r="F123" s="12" t="s">
         <v>186</v>
       </c>
@@ -4081,14 +4108,14 @@
         <v>208</v>
       </c>
       <c r="H123" s="26"/>
-      <c r="I123" s="63"/>
+      <c r="I123" s="75"/>
     </row>
     <row r="124" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="101"/>
-      <c r="B124" s="108"/>
-      <c r="C124" s="68"/>
-      <c r="D124" s="102"/>
-      <c r="E124" s="68"/>
+      <c r="A124" s="70"/>
+      <c r="B124" s="67"/>
+      <c r="C124" s="64"/>
+      <c r="D124" s="73"/>
+      <c r="E124" s="64"/>
       <c r="F124" s="18" t="s">
         <v>187</v>
       </c>
@@ -4096,7 +4123,7 @@
         <v>189</v>
       </c>
       <c r="H124" s="32"/>
-      <c r="I124" s="103"/>
+      <c r="I124" s="76"/>
     </row>
     <row r="125" spans="1:11" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="42">
@@ -4124,19 +4151,19 @@
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="87">
+      <c r="A126" s="82">
         <v>29</v>
       </c>
-      <c r="B126" s="78" t="s">
+      <c r="B126" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="C126" s="90" t="s">
+      <c r="C126" s="77" t="s">
         <v>202</v>
       </c>
-      <c r="D126" s="93" t="s">
+      <c r="D126" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="E126" s="90" t="s">
+      <c r="E126" s="77" t="s">
         <v>90</v>
       </c>
       <c r="F126" s="50" t="s">
@@ -4146,16 +4173,16 @@
         <v>198</v>
       </c>
       <c r="H126" s="38"/>
-      <c r="I126" s="62" t="s">
+      <c r="I126" s="74" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="88"/>
-      <c r="B127" s="105"/>
-      <c r="C127" s="91"/>
-      <c r="D127" s="94"/>
-      <c r="E127" s="91"/>
+      <c r="A127" s="83"/>
+      <c r="B127" s="61"/>
+      <c r="C127" s="78"/>
+      <c r="D127" s="80"/>
+      <c r="E127" s="78"/>
       <c r="F127" s="48" t="s">
         <v>196</v>
       </c>
@@ -4163,14 +4190,14 @@
         <v>199</v>
       </c>
       <c r="H127" s="26"/>
-      <c r="I127" s="63"/>
+      <c r="I127" s="75"/>
     </row>
     <row r="128" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="88"/>
-      <c r="B128" s="105"/>
-      <c r="C128" s="91"/>
-      <c r="D128" s="94"/>
-      <c r="E128" s="91"/>
+      <c r="A128" s="83"/>
+      <c r="B128" s="61"/>
+      <c r="C128" s="78"/>
+      <c r="D128" s="80"/>
+      <c r="E128" s="78"/>
       <c r="F128" s="52" t="s">
         <v>197</v>
       </c>
@@ -4178,22 +4205,22 @@
         <v>200</v>
       </c>
       <c r="H128" s="41"/>
-      <c r="I128" s="63"/>
+      <c r="I128" s="75"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" s="87">
+      <c r="A129" s="82">
         <v>30</v>
       </c>
-      <c r="B129" s="78" t="s">
+      <c r="B129" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="C129" s="90" t="s">
+      <c r="C129" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="D129" s="93" t="s">
+      <c r="D129" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="E129" s="90" t="s">
+      <c r="E129" s="77" t="s">
         <v>90</v>
       </c>
       <c r="F129" s="56" t="s">
@@ -4203,16 +4230,16 @@
         <v>198</v>
       </c>
       <c r="H129" s="38"/>
-      <c r="I129" s="96" t="s">
+      <c r="I129" s="58" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="88"/>
-      <c r="B130" s="105"/>
-      <c r="C130" s="91"/>
-      <c r="D130" s="94"/>
-      <c r="E130" s="91"/>
+    <row r="130" spans="1:9" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="83"/>
+      <c r="B130" s="61"/>
+      <c r="C130" s="78"/>
+      <c r="D130" s="80"/>
+      <c r="E130" s="78"/>
       <c r="F130" s="49" t="s">
         <v>204</v>
       </c>
@@ -4220,14 +4247,14 @@
         <v>206</v>
       </c>
       <c r="H130" s="26"/>
-      <c r="I130" s="97"/>
-    </row>
-    <row r="131" spans="1:9" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="89"/>
-      <c r="B131" s="109"/>
-      <c r="C131" s="92"/>
-      <c r="D131" s="95"/>
-      <c r="E131" s="92"/>
+      <c r="I130" s="59"/>
+    </row>
+    <row r="131" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="88"/>
+      <c r="B131" s="89"/>
+      <c r="C131" s="90"/>
+      <c r="D131" s="91"/>
+      <c r="E131" s="90"/>
       <c r="F131" s="51" t="s">
         <v>205</v>
       </c>
@@ -4235,13 +4262,356 @@
         <v>207</v>
       </c>
       <c r="H131" s="32"/>
-      <c r="I131" s="98"/>
-    </row>
-    <row r="133" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="I131" s="60"/>
+    </row>
+    <row r="132" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="86">
+        <v>31</v>
+      </c>
+      <c r="B132" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="C132" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="D132" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="F132" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G132" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H132" s="111"/>
+      <c r="I132" s="99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="86"/>
+      <c r="B133" s="81"/>
+      <c r="C133" s="62"/>
+      <c r="D133" s="62"/>
+      <c r="E133" s="62"/>
+      <c r="F133" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G133" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H133" s="112"/>
+      <c r="I133" s="99"/>
+    </row>
+    <row r="134" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="86"/>
+      <c r="B134" s="81"/>
+      <c r="C134" s="62"/>
+      <c r="D134" s="62"/>
+      <c r="E134" s="62"/>
+      <c r="F134" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G134" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H134" s="112"/>
+      <c r="I134" s="99"/>
+    </row>
+    <row r="135" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="86"/>
+      <c r="B135" s="81"/>
+      <c r="C135" s="62"/>
+      <c r="D135" s="62"/>
+      <c r="E135" s="62"/>
+      <c r="F135" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G135" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H135" s="112"/>
+      <c r="I135" s="99"/>
+    </row>
+    <row r="136" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="86"/>
+      <c r="B136" s="81"/>
+      <c r="C136" s="62"/>
+      <c r="D136" s="62"/>
+      <c r="E136" s="62"/>
+      <c r="F136" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G136" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H136" s="112"/>
+      <c r="I136" s="99"/>
+    </row>
+    <row r="137" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="93"/>
+      <c r="B137" s="94"/>
+      <c r="C137" s="95"/>
+      <c r="D137" s="95"/>
+      <c r="E137" s="95"/>
+      <c r="F137" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G137" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H137" s="113"/>
+      <c r="I137" s="96"/>
+    </row>
+    <row r="138" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="84">
+        <v>32</v>
+      </c>
+      <c r="B138" s="97" t="s">
+        <v>212</v>
+      </c>
+      <c r="C138" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="D138" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="F138" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G138" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H138" s="111"/>
+      <c r="I138" s="92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="84"/>
+      <c r="B139" s="97"/>
+      <c r="C139" s="98"/>
+      <c r="D139" s="98"/>
+      <c r="E139" s="98"/>
+      <c r="F139" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G139" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H139" s="112"/>
+      <c r="I139" s="92"/>
+    </row>
+    <row r="140" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="84"/>
+      <c r="B140" s="97"/>
+      <c r="C140" s="98"/>
+      <c r="D140" s="98"/>
+      <c r="E140" s="98"/>
+      <c r="F140" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G140" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H140" s="112"/>
+      <c r="I140" s="92"/>
+    </row>
+    <row r="141" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="84"/>
+      <c r="B141" s="97"/>
+      <c r="C141" s="98"/>
+      <c r="D141" s="98"/>
+      <c r="E141" s="98"/>
+      <c r="F141" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G141" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H141" s="112"/>
+      <c r="I141" s="92"/>
+    </row>
+    <row r="142" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A142" s="84"/>
+      <c r="B142" s="97"/>
+      <c r="C142" s="98"/>
+      <c r="D142" s="98"/>
+      <c r="E142" s="98"/>
+      <c r="F142" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G142" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="H142" s="112"/>
+      <c r="I142" s="92"/>
+    </row>
   </sheetData>
-  <mergeCells count="169">
+  <mergeCells count="181">
+    <mergeCell ref="I132:I137"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="B138:B142"/>
+    <mergeCell ref="C138:C142"/>
+    <mergeCell ref="D138:D142"/>
+    <mergeCell ref="E138:E142"/>
+    <mergeCell ref="I138:I142"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="D98:D102"/>
+    <mergeCell ref="E98:E102"/>
+    <mergeCell ref="A83:A91"/>
+    <mergeCell ref="A132:A137"/>
+    <mergeCell ref="B132:B137"/>
+    <mergeCell ref="C132:C137"/>
+    <mergeCell ref="D132:D137"/>
+    <mergeCell ref="E132:E137"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="E70:E74"/>
+    <mergeCell ref="I70:I74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="E109:E111"/>
+    <mergeCell ref="C92:C97"/>
+    <mergeCell ref="D92:D97"/>
+    <mergeCell ref="E92:E97"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="A103:A108"/>
+    <mergeCell ref="B103:B108"/>
+    <mergeCell ref="C103:C108"/>
+    <mergeCell ref="D103:D108"/>
+    <mergeCell ref="E103:E108"/>
+    <mergeCell ref="I60:I64"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="E78:E82"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="C65:C69"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="I65:I69"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="D70:D74"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="E60:E64"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="I6:I11"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="I56:I59"/>
+    <mergeCell ref="A48:A55"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="C40:C47"/>
+    <mergeCell ref="D40:D47"/>
+    <mergeCell ref="E40:E47"/>
+    <mergeCell ref="I40:I47"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="B48:B55"/>
+    <mergeCell ref="C48:C55"/>
+    <mergeCell ref="D48:D55"/>
+    <mergeCell ref="E48:E55"/>
+    <mergeCell ref="I48:I55"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="D129:D131"/>
+    <mergeCell ref="E129:E131"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="I114:I115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="I116:I117"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="I118:I121"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="D118:D121"/>
     <mergeCell ref="I129:I131"/>
     <mergeCell ref="B83:B91"/>
     <mergeCell ref="C122:C124"/>
@@ -4266,151 +4636,6 @@
     <mergeCell ref="D83:D91"/>
     <mergeCell ref="C83:C91"/>
     <mergeCell ref="A129:A131"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="D129:D131"/>
-    <mergeCell ref="E129:E131"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="I114:I115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="I116:I117"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="I112:I113"/>
-    <mergeCell ref="D40:D47"/>
-    <mergeCell ref="E40:E47"/>
-    <mergeCell ref="I40:I47"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="B48:B55"/>
-    <mergeCell ref="C48:C55"/>
-    <mergeCell ref="D48:D55"/>
-    <mergeCell ref="E48:E55"/>
-    <mergeCell ref="I48:I55"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="I56:I59"/>
-    <mergeCell ref="A48:A55"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="A40:A47"/>
-    <mergeCell ref="B40:B47"/>
-    <mergeCell ref="C40:C47"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="E6:E11"/>
-    <mergeCell ref="I6:I11"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="I60:I64"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="E78:E82"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="C65:C69"/>
-    <mergeCell ref="D65:D69"/>
-    <mergeCell ref="E65:E69"/>
-    <mergeCell ref="I65:I69"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="D70:D74"/>
-    <mergeCell ref="I118:I121"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="E70:E74"/>
-    <mergeCell ref="I70:I74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="D109:D111"/>
-    <mergeCell ref="E109:E111"/>
-    <mergeCell ref="C92:C97"/>
-    <mergeCell ref="D92:D97"/>
-    <mergeCell ref="E92:E97"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="A103:A108"/>
-    <mergeCell ref="B103:B108"/>
-    <mergeCell ref="C103:C108"/>
-    <mergeCell ref="D103:D108"/>
-    <mergeCell ref="E103:E108"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="D60:D64"/>
-    <mergeCell ref="E60:E64"/>
-    <mergeCell ref="C98:C102"/>
-    <mergeCell ref="D98:D102"/>
-    <mergeCell ref="E98:E102"/>
-    <mergeCell ref="A83:A91"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
